--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>DIARIO</t>
   </si>
@@ -123,6 +123,72 @@
   </si>
   <si>
     <t>Grupos armados - Violencia - pobreza</t>
+  </si>
+  <si>
+    <t>Crecimiento de la violencia en el interior del país, principalmente contra los campesinos y propietarios y la inacción gubernamental</t>
+  </si>
+  <si>
+    <t>Solo su titulo es interesante</t>
+  </si>
+  <si>
+    <t>El aumento de la pobreza representará el fracaso del Gobierno de Fernando Lugo</t>
+  </si>
+  <si>
+    <t>Pobreza - Indigencia - Gobierno - Programa de Naciones Unidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantea que el gobierno de Fernando Lugo debe disminuir los indices de pobreza e indigencia del país. Si no lo logra, su gestión será un fracaso, a pesar de que solo hace seis meses de asuncion. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es importante por su titulo, por sus intentos de predicción y por la amenaza que plantea en el sentido del "deber" de Lugo de disminuir la pobreza y la indigencia YA, a como de lugar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Políticos - Incapacidad - Corte Suprema </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La incapacidad de la clase politica de generar consenos en torno a diferentes problematicas, y al mismo, el desinteres de resolver ciertas cuestiones importantes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exponen a Lugo como un politico incapaz de generar alianzas politicas y lo colocan en la misma instancia que legisladores de los partidos tradiciones con los "vicios" que los caracterizan </t>
+  </si>
+  <si>
+    <t>La pérdida de legitimidad incidirá en el éxito de la gestión del actual Gobierno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los políticos ratifican que no les importa la Justicia, sí la defensa de sus intereses </t>
+  </si>
+  <si>
+    <t>Legitimidad - Gestion de gobierno - errores</t>
+  </si>
+  <si>
+    <t>Enuncia ciertos problemas que refieren a la capacidad de Lugo como presidente de Paraguay e implican una amenaza a su gobierno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muy importante ya que hablan sobre su condicion de outsider, su rol politico a pocos meses de su asuncion. Ademas de la posible amenaza de una crisis presidencial en relacion a su liderazgo político </t>
+  </si>
+  <si>
+    <t>El Gobierno debe recordar que la mayoría le votó para sacar del abismo a la nación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establecen una falta de liderazgo de Fernando Lugo, sumado a una incapacidad de generar alianzas partidarias, una enumeracion de ciertos desaciertos que lo pueden llevar a un fracaso político </t>
+  </si>
+  <si>
+    <t>Ausencia de liderazgo - oposicion política - Fernando Lugo - diálogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muy importante para el análisis: por el titulo, el contenido, la definicion, la valoracion del gobierno y las predicciones a futuro que realizan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Gobierno debe revisar con urgencia su estilo y su estrategia política </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alianza Patriotica para el Cambio - Crisis interna - alta conflictividad </t>
+  </si>
+  <si>
+    <t>Esta editorial formula las diferencias y conflictos al interior de la APC y las problematicas que acarrearía</t>
+  </si>
+  <si>
+    <t>Plantea la incapacidad del sector de Lugo de generar consenos al interior de su propia coalicion partidaria. Muy interesante</t>
   </si>
 </sst>
 </file>
@@ -512,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,92 +726,166 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="9">
         <v>39780</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="9">
         <v>39819</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="9">
+        <v>39832</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="9">
+        <v>39836</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="9">
+        <v>39838</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="9">
+        <v>39864</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="4">
+        <v>39866</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
   <si>
     <t>DIARIO</t>
   </si>
@@ -189,6 +189,93 @@
   </si>
   <si>
     <t>Plantea la incapacidad del sector de Lugo de generar consenos al interior de su propia coalicion partidaria. Muy interesante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El presidente Lugo reedita el amiguismo que criticaba en su campaña electoral </t>
+  </si>
+  <si>
+    <t>Fernando Lugo - nepotismo - nombramientos - administracion pública</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pone en discusion el nombramiento de dos funcionarios políticos por parte de Lugo debido a su cercanía personal </t>
+  </si>
+  <si>
+    <t>Interesante ya que se compara a Lugo con Nicanor Duarte y el resto de los presidentes colorados pasados haciendo alusion a la idea del nepotismo y el amiguismo en el poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Presidente debe adecuar su libertad a las leyes, la ética y el decoro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libertad política - pacto constitucional - gobernantes </t>
+  </si>
+  <si>
+    <t>Realiza una descripcion de las implicancias que lleva el poder en relacion a la libertad de os gobernantes y el respeto de las leyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es importante para el analisis por su titulo y copete ya que en el cuerpo hace una descripcion de los gobernantes en general, como algo que debe ser. </t>
+  </si>
+  <si>
+    <t>Clientelismo y nepotismo, dos vicios que resucita el presidente de la ANNP</t>
+  </si>
+  <si>
+    <t>Nepotismo - corrupcion - idea del "cambio" - ANNP</t>
+  </si>
+  <si>
+    <t>Denuncia los casos de supuesto nepotismo y corrupcion en la nueva adminsitracion de la ANNP con el funcionario a cargo nombrado por el gobierno de Lugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interesante pq mezcla las ideas del "cambio" y las denuncias de corrupcion y nepotismo del nuevo jefe de la ANNP y la asocia a todo el gobierno de Lugo, incluido él mismo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Gobierno se le pide que establezca condiciones que permitan generar riqueza </t>
+  </si>
+  <si>
+    <t>Pobreza - asistencialismo - empleo</t>
+  </si>
+  <si>
+    <t>Formula que el gobierno debe realizar acciones uficientes para terminar con la pobreza en el país. Pero para ello debe generar condiciones para aumentar el empleo y no a través de subsidios a los "indigentes"</t>
+  </si>
+  <si>
+    <t>Es mas importante por el título y el copete que por el contenido de la editorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Gobierno se equivoca al combatir la pobreza con el asistencialismo </t>
+  </si>
+  <si>
+    <t>Asistencialismo - Gobierno de Fernando Lugo - populismo</t>
+  </si>
+  <si>
+    <t>Critica el nuevo programa de transferencias condicionadas de recursos por parte del gobierno de Lugo</t>
+  </si>
+  <si>
+    <t>Interesante pq a la hora de criticar el "asistencialismo" de Lugo utiliza el concepto de populismo y aclara que en el gobierno de Lugo, "es una versión mal entendida" del mismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El PE demuestra debilidad y alienta la corrupción al dar dinero a sesameros </t>
+  </si>
+  <si>
+    <t>Dirigentes campesinos - financiamiento - sésamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La editorial critica el financiamiento del levantamiento del sésamo y la preferencia del Gobierno de Lugo sobre algunos sectores en relación a otros. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantean que esta medida es "populista y discriminatoria". Además se menciona la idea del "cambio" y la falta de autoridad de Lugo debido a las diferencias internas en su gabinete; y su "debilidad" ante presiones externas </t>
+  </si>
+  <si>
+    <t>Los acuerdos con Ecuador carecen de peso específico para que el país avance</t>
+  </si>
+  <si>
+    <t>Rafael Correa - acuerdos - politica exterior</t>
+  </si>
+  <si>
+    <t>Habla sobre el acuerdo firmado por Lugo con el gobierno de Ecuador</t>
+  </si>
+  <si>
+    <t>"Con el gobierno del presidente Fernando Lugo, que demuestra simpatías por los gobiernos de izquierda liderados por el jefe de Estado de Venezuela Hugo Chávez y agrupados en torno al "socialismo del siglo XXI" de fuerte contenido autoritario y populista, han cambiado algunas de las coordenadas de las relaciones exteriores". Además de una crítica a la política exterior de Lugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ojalá sean solo coincidencias, pero El Gobierno y la ciudadanía deben estar alertas </t>
   </si>
 </sst>
 </file>
@@ -268,16 +355,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -578,15 +661,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
     <col min="6" max="6" width="51.42578125" customWidth="1"/>
     <col min="7" max="7" width="34.140625" customWidth="1"/>
@@ -599,7 +682,7 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -614,350 +697,456 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>39683</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>39730</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>39737</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>39775</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>39776</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>39780</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>39819</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>39832</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>39836</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>39838</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>39864</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="7">
         <v>39866</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+    <row r="15" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="7">
+        <v>39871</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="7">
+        <v>39873</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="7">
+        <v>39874</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="7">
+        <v>39879</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="7">
+        <v>39888</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="7">
+        <v>39891</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="7">
+        <v>39896</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="A22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="7">
+        <v>39901</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="159">
   <si>
     <t>DIARIO</t>
   </si>
@@ -275,7 +275,233 @@
     <t>"Con el gobierno del presidente Fernando Lugo, que demuestra simpatías por los gobiernos de izquierda liderados por el jefe de Estado de Venezuela Hugo Chávez y agrupados en torno al "socialismo del siglo XXI" de fuerte contenido autoritario y populista, han cambiado algunas de las coordenadas de las relaciones exteriores". Además de una crítica a la política exterior de Lugo</t>
   </si>
   <si>
-    <t xml:space="preserve">Ojalá sean solo coincidencias, pero El Gobierno y la ciudadanía deben estar alertas </t>
+    <t>El Presidente Lugo prefiere viajar a quedarse a resolver los urticantes problemas</t>
+  </si>
+  <si>
+    <t>Problemas internos - viaje - Qatar - Fernando Lugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se realiza una critica del viaje del Presidente Fernando Lugo a Qatar en vez de quedarse en el país a resolver importantes problemas </t>
+  </si>
+  <si>
+    <t>Muy importante para el análisis ya que por la excusa del viaje se desatan criticas varias: la idea del "cambio", de su desinteres social, irresponsabilidad, ineptitud y su falta de apoyo político</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peligrosos síntomas exponen la fragilidad del actual Gobierno </t>
+  </si>
+  <si>
+    <t>Alternancia - hacer política - pasado - gestión de Lugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula que a pocos meses de gestion del nuevo gobierno, se empiezan a vislumbrar ciertos "vicios" que predominaron en los anteriores gobiernos colorados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interesante porque sin hablar de un problema en particular, ya empieza a comparar a Lugo y su alianza con los gobiernos colorados anteriores. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el PLRA falta madurez y responsabilidad para facilitar la gobernabilidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLRA - internismo - Federico Franco </t>
+  </si>
+  <si>
+    <t>Las internas del PLRA pueden afectar la gobernabilidad de la Alianza Patriotica para el Cambio y generar ciertas incertidumbres</t>
+  </si>
+  <si>
+    <t>Es interesante pq al plantear los problemas internos del PLRA, lo traslada a la coalicion politica de la APC y la falta de direccion politica de Lugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con la verdad, Lugo elige el camino más difícil, pero más saludable para el país </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verdad - paternidad - Fernando Lugo </t>
+  </si>
+  <si>
+    <t>Fernando Lugo admite publicamente la paternidad de un niño que se le atribuye</t>
+  </si>
+  <si>
+    <t>Habla sobre el escandalo de paternindad de Lugo, aunque sin tanto dramatismo. No se lo toma como un "escándalo político"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Más que rostros nuevos, al Gobierno le falta gente que gerencie un cambio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión - gabinete - cambios </t>
+  </si>
+  <si>
+    <t>Plantea la lentitud de Lugo para cambiar a ciertos miembros de su gabinete que no estaban cumpliendo con los resultados esperados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interesante pq vuelve a tomar la idea de "cambio" y menciona la falta de experiencia política de Lugo y algunos de sus funcionarios. "La falta de muñeca política hizo que gran parte de sus buenas intenciones naufragaran". Frase muy interesante de análisis 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambios en el gabinete - ministros - resistencia </t>
+  </si>
+  <si>
+    <t>Los ministros que le ponen palos a la rueda del cambio están de más en el Gobierno</t>
+  </si>
+  <si>
+    <t>Continúa con el tema del cambio de gabinete de Lugo</t>
+  </si>
+  <si>
+    <t>A pesar de que elogia el cambio de gabinete, al mismo tiempo cuestiona que se lo haya dicho publicamente y de paso, vuelve a criticar la falta de respuestas a otros problemas del país. Es interesante ver cómo, al mismo tiempo, un elogio hacia una medida tomada por Lugo esconde directamente una crítica a su gobierno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lugo todavía tiene tiempo para cumplir su promesa de cambio en el Paraguay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Año de gestión - decepción - fricciones internas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juega con el cumplimiento del año de la victoria de Lugo y la idea del cambio que llevó a Lugo al poder, para plantear que las diferencias con el gobierno colorado anterior aun no se vislumbraron </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al cumplirse un año de la victoria electoral de Lugo, plantea que la idea de "cambio" aun no se cumplió y enumerá los problemas que hay que resolver </t>
+  </si>
+  <si>
+    <t>A un año de su elección, el Gobierno se hunde por su improvisación y sus errores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aniversario de las elecciones - cambios en el gabinete - indecisión </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ante las publicaciones de paternidad de Lugo, hay una indecision por parte del presidente en relacion a los cambios anunciados en el gabinete </t>
+  </si>
+  <si>
+    <t>Editorial muy crítica que plantea la falta de decision del presidente, sus idas y venidas y las criticas en relacion a sus problemas personales. "Con un gobernante sin convicciones ni principios firmes, es imposible llevar adelante una política de Estado estable ya que en cualquier momento puede revisar sus determinaciones y seguir intempestivamente otro rumbo".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La ciudadanía identifica con claridad las deudas pendientes del Gobierno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encuesta - Ultima Hora - Gestión - problemas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El diario Ultima Hora realizo una encuesta a la población para que evaluen los primeros ocho meses de gobierno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cómo a través del recurso de la "encuesta" se aprovechan para plantear "problemas" que aun Lugo no atendió, dejando entrever que no hizo mucho desde su asunción </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hace falta una cancillería que esté al servicio de los intereses de la República </t>
+  </si>
+  <si>
+    <t>Cancillería - Relaciones Exteriores  cambio - embajadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La necesidad de que el Presidente Fernando Lugo realice un cambio en la cancillería y en la posición de algunos embajadores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ya empieza a vislumbrar las primeras críticas a la política exterior de Lugo, planteando que no hay un rumbo claro. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las diferentes responsabilidades entre Gobierno y Estado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión - problemas - internas - responsabilidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta editorial establece que el gobierno de Fernando Lugo debe empezar a tomar responsabilidad por los errores cometidos desde el inicio de su gestión </t>
+  </si>
+  <si>
+    <t>Muy importante para el análisis pq ya empieza a vislumbrar las principales criticas a la gestión de Lugo: por el título sugerente, el tono y la valoración que hace la editorial</t>
+  </si>
+  <si>
+    <t>Hallazgo - petróleo - esperanza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El moderado optimismo que trae el petróleo llega en un momento muy oportuno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hallaron petróleo en la región del Chaco </t>
+  </si>
+  <si>
+    <t>Interesante pq plantean el descubrimiento de petróleo en relación a la mala situacion que atravesaba el país y apelan a valoraciones como la esperanza, la fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inestabilidad - políticos - democracia </t>
+  </si>
+  <si>
+    <t>Plantean las amenazas a la estabilidad democrática por parte de ciertos sectores políticos opositores al gobierno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La inestabilidad es el peor escenario para que el país supere sus grandes dramas </t>
+  </si>
+  <si>
+    <t>Importante porque es la primer editorial que habla sobre la cuestión de la estabilidad presidencial y las amenazas de los sectores opositores a la gestión de Lugo</t>
+  </si>
+  <si>
+    <t>Campesinos - Cepra - conflicto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incumplimiento de la reforma agraria agravará el conflicto con campesinos </t>
+  </si>
+  <si>
+    <t>La falta de cumplimiento de las promesas en torno a la reforma agraria que incluian la creación de Cepra, agravarán el conflicto con el campo</t>
+  </si>
+  <si>
+    <t>Importante por el título y el tono, en especial, por el incumplimiento de las promesas realizadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es urgente preparar agendas precisas en nuestro trato con Brasil </t>
+  </si>
+  <si>
+    <t>Agendas - Brasil - Itaipú</t>
+  </si>
+  <si>
+    <t>Sobre la necesidad de negociaciones con Brasil que preserven y defiendan los intereses paraguayos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es interesante por el tono de la editorial, mas bien prescriptivo y siempre dejando indirectamente la falta de conocimiento de Lugo en cuanto a negociacion y discusión política </t>
+  </si>
+  <si>
+    <t>No a una disolución del Parlamento y también a los excesos de los legisladores</t>
+  </si>
+  <si>
+    <t>Parlamento - legisladores - institucionalidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problemas entre el Congreso y el poder ejecutivo. Unos intentan boicotear las medidas planteadas por el Ejecutivo y otros sectores cercanos al Gobierno intentan disolver el Parlamento </t>
+  </si>
+  <si>
+    <t>Se menciona la cercanía de algunos sectores del Gobierno con las ideas promovidas por los gobiernos izquierdistas de Correa, Chavez y Morales. Siempre de manera indirecta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La pobreza no será erradicada solamente con gasto público y subsidios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pobreza - empleo - inversión </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El aumento de la pobreza en el país obliga a que el gobierno tome las medidas necesarias para mejorar esta situación con la ayuda del sector privado. </t>
+  </si>
+  <si>
+    <t>Se empieza a mencionar la idea del asistencialismo por parte de Lugo  como "mera demagogia, encuadrada en proyectos políticos dispuestos a controlar nuevamente el voto ciudadano y truncar nuestro desarrollo económico y social".</t>
+  </si>
+  <si>
+    <t>Golpe de Estado - Honduras - militares</t>
+  </si>
+  <si>
+    <t>No hay razón alguna que justifique el golpe de estado de los militares en Honduras</t>
+  </si>
+  <si>
+    <t>El golpe de estado en Honduras orquestado por las fuerzas armadas en contra de Manuel Zelaya</t>
+  </si>
+  <si>
+    <t>Es interesante para ver de qué manera entiende esta editorial, el golpe de estado sucedido en Honduras a manos de las FFAA</t>
+  </si>
+  <si>
+    <t>Informe - Lugo - Congreso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El pobre informe de Lugo al Congreso muestra que el cambio todavía es un sueño </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre el informe leído por Lugo ante el Congreso paraguayo haciendo un balance de lo hecho hasta ese momento durante su gestión </t>
+  </si>
+  <si>
+    <t>Editorial muy crítica con lo hecho hasta ahora por Lugo. Plantea que dse dio informacion de lo hecho hasta ahora poco relevante pero sin plantear las estrategias que se van a llevar a cabo para resolver los problemas que "atañen a la ciudadanía"</t>
   </si>
 </sst>
 </file>
@@ -659,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G30"/>
+  <dimension ref="A2:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,7 +1357,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
@@ -1139,86 +1365,672 @@
         <v>83</v>
       </c>
       <c r="C22" s="7">
-        <v>39901</v>
+        <v>39903</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="E22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="7">
+        <v>39908</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="7">
+        <v>39914</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="A25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="7">
+        <v>39917</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="7">
+        <v>39919</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="7">
+        <v>39921</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="7">
+        <v>39923</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="7">
+        <v>39924</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="7">
+        <v>39925</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="7">
+        <v>39935</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="7">
+        <v>39936</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="7">
+        <v>39941</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="7">
+        <v>39946</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="7">
+        <v>39952</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="7">
+        <v>39957</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="7">
+        <v>39974</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="7">
+        <v>39985</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="7">
+        <v>39994</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="7">
+        <v>39996</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="199">
   <si>
     <t>DIARIO</t>
   </si>
@@ -502,6 +502,126 @@
   </si>
   <si>
     <t>Editorial muy crítica con lo hecho hasta ahora por Lugo. Plantea que dse dio informacion de lo hecho hasta ahora poco relevante pero sin plantear las estrategias que se van a llevar a cabo para resolver los problemas que "atañen a la ciudadanía"</t>
+  </si>
+  <si>
+    <t>APC - crisis - institucionalidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La crisis en la Alianza gubernamental es por la falta de institucionalidad </t>
+  </si>
+  <si>
+    <t>La crisis interna que afecta a la APC era evidente incluso antes de la asuncion en el poder y se agrava en los primeros meses de gestión de Lugo</t>
+  </si>
+  <si>
+    <t>Plantea los inconvenientes internos que sufrió la Alianza debido a las diferentes internas entre los partidos que las conforman y deja entrever en la siguiente cita: "El "señalado", por supuesto, aparte de algún desliz como en Ecuador, juraba y perjuraba ser "póncho jurúicha" o "la boca del medio del poncho" (En guaraní es “ubicarse en el centro, como la boca del poncho”. Frase frecuentemente empleada por el destituido presidente paraguayo Fernando Lugo para fijar su confusa y endeble posición política)</t>
+  </si>
+  <si>
+    <t>Hasta ahora, la lucha en contra de la corrupción se circunscribe a lo mediático</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrupción - impunidad - Promesa incumplida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La lucha contra la corrupción enarbolada por el gobierno de Fernando Lugo quedó en una cuestión discursiva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial que continua con el planteamiento de Lugo como un político que "habla mucho pero hace poco". Mencionan en varias oportunidad la inacción o la "falta de voluntad política" para terminar con problemas graves que estaban presentes en los gobiernos colorados anteriores. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Presidente Lugo sigue despilfarrando su imagen y su credibilidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expo 2009 - Fernando Lugo - inasistencia </t>
+  </si>
+  <si>
+    <t>La sorpresiva inasistencia de Fernando Lugo a la Expo 2009 cuando había dicho que iba a asistir a tal evento</t>
+  </si>
+  <si>
+    <t>Interesante por el tono de la editorial, el título y como se describe a Lugo ante un hecho que podria considerarse menor como en este caso. (falta de credibilidad, semejanza a Nicanor Duarte Frutos, falta de coraje para enfrentar a sus detractores)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otra Cumbre del Mercosur que se perfila pasará sin pena ni gloria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumbre del Mercosur - Asunción </t>
+  </si>
+  <si>
+    <t>Sobre la Cumbre del Mercosur a celebrarse en Asunción y qué esperar de la misma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta editorial no habla de Lugo en particular sino que es una crítica al Mercosur como instancia regional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela - Hugo Chavez - Ley de Delitos Mediáticos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con una ley y con la violencia, Chávez busca dar su último golpe a la libertad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La presentación ante el Parlamento de un proyecto de ley de delitos mediaticos que "condena quien manipule la información o la noticia" </t>
+  </si>
+  <si>
+    <t>Editorial que condena el accionar de Chavez en Venezuela contra los medios de comunicación y deja entredicho que "hay que estar atentos a lo que pueda suceder en Paraguay" como si hubiera una relación muy cercana entre Lugo y Chavez y esta "onda bolivariana"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasta ahora, Lugo cumple su promesa de respetar la libertad de expresión </t>
+  </si>
+  <si>
+    <t>Libertad de expresión - Venezuela - declaración de Lugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La postura adoptada por Lugo frente a las acciones ejercidas en Venezuela por Hugo Chavez contra ciertos medios de prensa </t>
+  </si>
+  <si>
+    <t>Importante editorial ya que en líneas generales acuerda con la postura tomada por Lugo, no deja de mencionar que la situacion de Venezuela pueda replicarse en Paraguay y que Lugo esconda sus "verdaderas intenciones". Ademas su titulo es importante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La gestión de Gobierno de Fernando Lugo sigue entre la esperanza y el temor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primer año de gestión - Fernando Lugo </t>
+  </si>
+  <si>
+    <t>Editorial que hace un balance de lo realizado por Lugo durante su primer año de gestión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial muy crítica con la figura del presidente. Desde la idea del cambio, a la supuesta falta de apego a las normas democraticas, su cercanía por los presidentes "izquierdistas" de la región, "falta de oficio y gestión eficiente personal y de equipo". Muy importante </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Gobierno apuesta por el gigantismo estatal, no por el desarrollo del país </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presupuesto General 2009 - Funcionarios públicos </t>
+  </si>
+  <si>
+    <t>El Proyecto de Presupuesto General de Gatos del 2009 mantendrá los mismos gastos que su predecesor en cuanto a la administración pública se refiere</t>
+  </si>
+  <si>
+    <t>Es importante el título y al igual que en otras editoriales, el intento de asemejar el gobierno de Lugo con sus predecesores colorados y tirando por la borda la idea del cambio</t>
+  </si>
+  <si>
+    <t>Ultima Hora apuesta por un país moderno, eficiente, con ciudadanos responsables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aniversario - Ultima Hora </t>
+  </si>
+  <si>
+    <t>Celebración del 36º Aniversario del diario Ultima Hora y el rol que cumple en la politica y la sociedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta bueno para tener presente como se plantea que debe actuar el diario frente a los políticos y como entienden ellos su rol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inseguridad - Secuestro de Fidel Zavala </t>
+  </si>
+  <si>
+    <t>El secuestro de Fidel Zavala no debe ser contemplado en silencio y con miedo</t>
+  </si>
+  <si>
+    <t>A un año del inicio de gestión de gobierno de Fernando Lugo, se produjo una creciente ola de inseguridad y violencia en el país</t>
+  </si>
+  <si>
+    <t>No se menciona directamente a Lugo pero se hace referencia a quienes detentan el poder, a su silencio "ya sea por mediocridad, impunidad o complicidad"</t>
   </si>
 </sst>
 </file>
@@ -887,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,117 +1914,257 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
+      <c r="B41" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="7">
+        <v>39999</v>
+      </c>
       <c r="D41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="E41" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="7">
+        <v>40004</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="7">
+        <v>40008</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="A44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="7">
+        <v>40017</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="7">
+        <v>40029</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="7">
+        <v>40030</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="7">
+        <v>40040</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="7">
+        <v>40072</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="A49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="7">
+        <v>40094</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="7">
+        <v>40104</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="A51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="223">
   <si>
     <t>DIARIO</t>
   </si>
@@ -56,33 +56,18 @@
     <t xml:space="preserve">Información pública- rol de la prensa - gobierno </t>
   </si>
   <si>
-    <t xml:space="preserve">Llaman al Gobierno de Fernando Lugo a que le garantice a la prensa el acceso a la informacion pública, diferenciandose de sus pares de Venezuela y Ecuador </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hace falta que el Gobierno diga como solucionará el problema de la tierra rural </t>
   </si>
   <si>
     <t>Problemática rural - violencia - pobreza - Gobierno</t>
   </si>
   <si>
-    <t>El Gobierno de Lugo debe negociar entre el los campesinos y los propietarios agricolas para evitar el crecimiento de la ola de violencia en el interior del país</t>
-  </si>
-  <si>
     <t xml:space="preserve">Una fluida relación con la prensa sólo puede ser beneficiosa para el país </t>
   </si>
   <si>
-    <t xml:space="preserve">Rol de la prensa - relacion con el gobierno - informacion publica </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El diario exige que el nuevo gobierno tenga una relacion directa con la prensa y permita acceder a la informacion pública </t>
-  </si>
-  <si>
     <t>Por su titulo mas que por su contenido</t>
   </si>
   <si>
-    <t xml:space="preserve">Plantea la relacion de Lugo con venezuela y ciertas sospechas de intereses ocultos por no querer tener una relacion directa con los periodistas </t>
-  </si>
-  <si>
     <t>En cien días, las acciones de Lugo están en deuda con las expectativas ciudadanas</t>
   </si>
   <si>
@@ -92,15 +77,9 @@
     <t xml:space="preserve">La editorial hace un "balance" de la gestión de Lugo durante los primeros cien días de gobierno </t>
   </si>
   <si>
-    <t xml:space="preserve">Muy interesante para el análisis pq ya empiezan a esbozar las principales criticas a la gestion de Lugo que luego continuaran a lo largo del gobierno </t>
-  </si>
-  <si>
     <t>Las tareas pendientes de un Gobierno que necesita mantener viva la esperanza</t>
   </si>
   <si>
-    <t>Deberes - Fernando Lugo - problematicas a resolver</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plantea que ya pasados los cien días en el poder, Lugo no tiene mas excusas para ponerse a resolver los problemas que atañen a Paraguay </t>
   </si>
   <si>
@@ -137,105 +116,45 @@
     <t>Pobreza - Indigencia - Gobierno - Programa de Naciones Unidas</t>
   </si>
   <si>
-    <t xml:space="preserve">Plantea que el gobierno de Fernando Lugo debe disminuir los indices de pobreza e indigencia del país. Si no lo logra, su gestión será un fracaso, a pesar de que solo hace seis meses de asuncion. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Es importante por su titulo, por sus intentos de predicción y por la amenaza que plantea en el sentido del "deber" de Lugo de disminuir la pobreza y la indigencia YA, a como de lugar. </t>
   </si>
   <si>
     <t xml:space="preserve">Políticos - Incapacidad - Corte Suprema </t>
   </si>
   <si>
-    <t xml:space="preserve">La incapacidad de la clase politica de generar consenos en torno a diferentes problematicas, y al mismo, el desinteres de resolver ciertas cuestiones importantes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exponen a Lugo como un politico incapaz de generar alianzas politicas y lo colocan en la misma instancia que legisladores de los partidos tradiciones con los "vicios" que los caracterizan </t>
-  </si>
-  <si>
     <t>La pérdida de legitimidad incidirá en el éxito de la gestión del actual Gobierno</t>
   </si>
   <si>
     <t xml:space="preserve">Los políticos ratifican que no les importa la Justicia, sí la defensa de sus intereses </t>
   </si>
   <si>
-    <t>Legitimidad - Gestion de gobierno - errores</t>
-  </si>
-  <si>
     <t>Enuncia ciertos problemas que refieren a la capacidad de Lugo como presidente de Paraguay e implican una amenaza a su gobierno</t>
   </si>
   <si>
-    <t xml:space="preserve">Muy importante ya que hablan sobre su condicion de outsider, su rol politico a pocos meses de su asuncion. Ademas de la posible amenaza de una crisis presidencial en relacion a su liderazgo político </t>
-  </si>
-  <si>
     <t>El Gobierno debe recordar que la mayoría le votó para sacar del abismo a la nación</t>
   </si>
   <si>
-    <t xml:space="preserve">Establecen una falta de liderazgo de Fernando Lugo, sumado a una incapacidad de generar alianzas partidarias, una enumeracion de ciertos desaciertos que lo pueden llevar a un fracaso político </t>
-  </si>
-  <si>
-    <t>Ausencia de liderazgo - oposicion política - Fernando Lugo - diálogo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muy importante para el análisis: por el titulo, el contenido, la definicion, la valoracion del gobierno y las predicciones a futuro que realizan </t>
-  </si>
-  <si>
     <t xml:space="preserve">El Gobierno debe revisar con urgencia su estilo y su estrategia política </t>
   </si>
   <si>
-    <t xml:space="preserve">Alianza Patriotica para el Cambio - Crisis interna - alta conflictividad </t>
-  </si>
-  <si>
-    <t>Esta editorial formula las diferencias y conflictos al interior de la APC y las problematicas que acarrearía</t>
-  </si>
-  <si>
-    <t>Plantea la incapacidad del sector de Lugo de generar consenos al interior de su propia coalicion partidaria. Muy interesante</t>
-  </si>
-  <si>
     <t xml:space="preserve">El presidente Lugo reedita el amiguismo que criticaba en su campaña electoral </t>
   </si>
   <si>
-    <t>Fernando Lugo - nepotismo - nombramientos - administracion pública</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pone en discusion el nombramiento de dos funcionarios políticos por parte de Lugo debido a su cercanía personal </t>
-  </si>
-  <si>
-    <t>Interesante ya que se compara a Lugo con Nicanor Duarte y el resto de los presidentes colorados pasados haciendo alusion a la idea del nepotismo y el amiguismo en el poder</t>
-  </si>
-  <si>
     <t xml:space="preserve">El Presidente debe adecuar su libertad a las leyes, la ética y el decoro </t>
   </si>
   <si>
     <t xml:space="preserve">Libertad política - pacto constitucional - gobernantes </t>
   </si>
   <si>
-    <t>Realiza una descripcion de las implicancias que lleva el poder en relacion a la libertad de os gobernantes y el respeto de las leyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es importante para el analisis por su titulo y copete ya que en el cuerpo hace una descripcion de los gobernantes en general, como algo que debe ser. </t>
-  </si>
-  <si>
     <t>Clientelismo y nepotismo, dos vicios que resucita el presidente de la ANNP</t>
   </si>
   <si>
-    <t>Nepotismo - corrupcion - idea del "cambio" - ANNP</t>
-  </si>
-  <si>
-    <t>Denuncia los casos de supuesto nepotismo y corrupcion en la nueva adminsitracion de la ANNP con el funcionario a cargo nombrado por el gobierno de Lugo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interesante pq mezcla las ideas del "cambio" y las denuncias de corrupcion y nepotismo del nuevo jefe de la ANNP y la asocia a todo el gobierno de Lugo, incluido él mismo </t>
-  </si>
-  <si>
     <t xml:space="preserve">Al Gobierno se le pide que establezca condiciones que permitan generar riqueza </t>
   </si>
   <si>
     <t>Pobreza - asistencialismo - empleo</t>
   </si>
   <si>
-    <t>Formula que el gobierno debe realizar acciones uficientes para terminar con la pobreza en el país. Pero para ello debe generar condiciones para aumentar el empleo y no a través de subsidios a los "indigentes"</t>
-  </si>
-  <si>
     <t>Es mas importante por el título y el copete que por el contenido de la editorial</t>
   </si>
   <si>
@@ -266,9 +185,6 @@
     <t>Los acuerdos con Ecuador carecen de peso específico para que el país avance</t>
   </si>
   <si>
-    <t>Rafael Correa - acuerdos - politica exterior</t>
-  </si>
-  <si>
     <t>Habla sobre el acuerdo firmado por Lugo con el gobierno de Ecuador</t>
   </si>
   <si>
@@ -284,18 +200,12 @@
     <t xml:space="preserve">Se realiza una critica del viaje del Presidente Fernando Lugo a Qatar en vez de quedarse en el país a resolver importantes problemas </t>
   </si>
   <si>
-    <t>Muy importante para el análisis ya que por la excusa del viaje se desatan criticas varias: la idea del "cambio", de su desinteres social, irresponsabilidad, ineptitud y su falta de apoyo político</t>
-  </si>
-  <si>
     <t xml:space="preserve">Peligrosos síntomas exponen la fragilidad del actual Gobierno </t>
   </si>
   <si>
     <t>Alternancia - hacer política - pasado - gestión de Lugo</t>
   </si>
   <si>
-    <t xml:space="preserve">Formula que a pocos meses de gestion del nuevo gobierno, se empiezan a vislumbrar ciertos "vicios" que predominaron en los anteriores gobiernos colorados </t>
-  </si>
-  <si>
     <t xml:space="preserve">Interesante porque sin hablar de un problema en particular, ya empieza a comparar a Lugo y su alianza con los gobiernos colorados anteriores. </t>
   </si>
   <si>
@@ -305,25 +215,10 @@
     <t xml:space="preserve">PLRA - internismo - Federico Franco </t>
   </si>
   <si>
-    <t>Las internas del PLRA pueden afectar la gobernabilidad de la Alianza Patriotica para el Cambio y generar ciertas incertidumbres</t>
-  </si>
-  <si>
-    <t>Es interesante pq al plantear los problemas internos del PLRA, lo traslada a la coalicion politica de la APC y la falta de direccion politica de Lugo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Con la verdad, Lugo elige el camino más difícil, pero más saludable para el país </t>
   </si>
   <si>
     <t xml:space="preserve">Verdad - paternidad - Fernando Lugo </t>
-  </si>
-  <si>
-    <t>Fernando Lugo admite publicamente la paternidad de un niño que se le atribuye</t>
-  </si>
-  <si>
-    <t>Habla sobre el escandalo de paternindad de Lugo, aunque sin tanto dramatismo. No se lo toma como un "escándalo político"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Más que rostros nuevos, al Gobierno le falta gente que gerencie un cambio </t>
   </si>
   <si>
     <t xml:space="preserve">Gestión - gabinete - cambios </t>
@@ -345,9 +240,6 @@
     <t>Continúa con el tema del cambio de gabinete de Lugo</t>
   </si>
   <si>
-    <t>A pesar de que elogia el cambio de gabinete, al mismo tiempo cuestiona que se lo haya dicho publicamente y de paso, vuelve a criticar la falta de respuestas a otros problemas del país. Es interesante ver cómo, al mismo tiempo, un elogio hacia una medida tomada por Lugo esconde directamente una crítica a su gobierno</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lugo todavía tiene tiempo para cumplir su promesa de cambio en el Paraguay </t>
   </si>
   <si>
@@ -357,30 +249,18 @@
     <t xml:space="preserve">Juega con el cumplimiento del año de la victoria de Lugo y la idea del cambio que llevó a Lugo al poder, para plantear que las diferencias con el gobierno colorado anterior aun no se vislumbraron </t>
   </si>
   <si>
-    <t xml:space="preserve">Al cumplirse un año de la victoria electoral de Lugo, plantea que la idea de "cambio" aun no se cumplió y enumerá los problemas que hay que resolver </t>
-  </si>
-  <si>
     <t>A un año de su elección, el Gobierno se hunde por su improvisación y sus errores</t>
   </si>
   <si>
     <t xml:space="preserve">Aniversario de las elecciones - cambios en el gabinete - indecisión </t>
   </si>
   <si>
-    <t xml:space="preserve">Ante las publicaciones de paternidad de Lugo, hay una indecision por parte del presidente en relacion a los cambios anunciados en el gabinete </t>
-  </si>
-  <si>
-    <t>Editorial muy crítica que plantea la falta de decision del presidente, sus idas y venidas y las criticas en relacion a sus problemas personales. "Con un gobernante sin convicciones ni principios firmes, es imposible llevar adelante una política de Estado estable ya que en cualquier momento puede revisar sus determinaciones y seguir intempestivamente otro rumbo".</t>
-  </si>
-  <si>
     <t xml:space="preserve">La ciudadanía identifica con claridad las deudas pendientes del Gobierno </t>
   </si>
   <si>
     <t xml:space="preserve">Encuesta - Ultima Hora - Gestión - problemas </t>
   </si>
   <si>
-    <t xml:space="preserve">El diario Ultima Hora realizo una encuesta a la población para que evaluen los primeros ocho meses de gobierno </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cómo a través del recurso de la "encuesta" se aprovechan para plantear "problemas" que aun Lugo no atendió, dejando entrever que no hizo mucho desde su asunción </t>
   </si>
   <si>
@@ -417,9 +297,6 @@
     <t xml:space="preserve">Hallaron petróleo en la región del Chaco </t>
   </si>
   <si>
-    <t>Interesante pq plantean el descubrimiento de petróleo en relación a la mala situacion que atravesaba el país y apelan a valoraciones como la esperanza, la fe</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inestabilidad - políticos - democracia </t>
   </si>
   <si>
@@ -438,9 +315,6 @@
     <t xml:space="preserve">Incumplimiento de la reforma agraria agravará el conflicto con campesinos </t>
   </si>
   <si>
-    <t>La falta de cumplimiento de las promesas en torno a la reforma agraria que incluian la creación de Cepra, agravarán el conflicto con el campo</t>
-  </si>
-  <si>
     <t>Importante por el título y el tono, en especial, por el incumplimiento de las promesas realizadas</t>
   </si>
   <si>
@@ -453,9 +327,6 @@
     <t>Sobre la necesidad de negociaciones con Brasil que preserven y defiendan los intereses paraguayos</t>
   </si>
   <si>
-    <t xml:space="preserve">Es interesante por el tono de la editorial, mas bien prescriptivo y siempre dejando indirectamente la falta de conocimiento de Lugo en cuanto a negociacion y discusión política </t>
-  </si>
-  <si>
     <t>No a una disolución del Parlamento y también a los excesos de los legisladores</t>
   </si>
   <si>
@@ -465,9 +336,6 @@
     <t xml:space="preserve">Problemas entre el Congreso y el poder ejecutivo. Unos intentan boicotear las medidas planteadas por el Ejecutivo y otros sectores cercanos al Gobierno intentan disolver el Parlamento </t>
   </si>
   <si>
-    <t>Se menciona la cercanía de algunos sectores del Gobierno con las ideas promovidas por los gobiernos izquierdistas de Correa, Chavez y Morales. Siempre de manera indirecta</t>
-  </si>
-  <si>
     <t xml:space="preserve">La pobreza no será erradicada solamente con gasto público y subsidios </t>
   </si>
   <si>
@@ -501,18 +369,12 @@
     <t xml:space="preserve">Sobre el informe leído por Lugo ante el Congreso paraguayo haciendo un balance de lo hecho hasta ese momento durante su gestión </t>
   </si>
   <si>
-    <t>Editorial muy crítica con lo hecho hasta ahora por Lugo. Plantea que dse dio informacion de lo hecho hasta ahora poco relevante pero sin plantear las estrategias que se van a llevar a cabo para resolver los problemas que "atañen a la ciudadanía"</t>
-  </si>
-  <si>
     <t>APC - crisis - institucionalidad</t>
   </si>
   <si>
     <t xml:space="preserve">La crisis en la Alianza gubernamental es por la falta de institucionalidad </t>
   </si>
   <si>
-    <t>La crisis interna que afecta a la APC era evidente incluso antes de la asuncion en el poder y se agrava en los primeros meses de gestión de Lugo</t>
-  </si>
-  <si>
     <t>Plantea los inconvenientes internos que sufrió la Alianza debido a las diferentes internas entre los partidos que las conforman y deja entrever en la siguiente cita: "El "señalado", por supuesto, aparte de algún desliz como en Ecuador, juraba y perjuraba ser "póncho jurúicha" o "la boca del medio del poncho" (En guaraní es “ubicarse en el centro, como la boca del poncho”. Frase frecuentemente empleada por el destituido presidente paraguayo Fernando Lugo para fijar su confusa y endeble posición política)</t>
   </si>
   <si>
@@ -537,9 +399,6 @@
     <t>La sorpresiva inasistencia de Fernando Lugo a la Expo 2009 cuando había dicho que iba a asistir a tal evento</t>
   </si>
   <si>
-    <t>Interesante por el tono de la editorial, el título y como se describe a Lugo ante un hecho que podria considerarse menor como en este caso. (falta de credibilidad, semejanza a Nicanor Duarte Frutos, falta de coraje para enfrentar a sus detractores)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Otra Cumbre del Mercosur que se perfila pasará sin pena ni gloria </t>
   </si>
   <si>
@@ -552,30 +411,15 @@
     <t xml:space="preserve">Esta editorial no habla de Lugo en particular sino que es una crítica al Mercosur como instancia regional </t>
   </si>
   <si>
-    <t xml:space="preserve">Venezuela - Hugo Chavez - Ley de Delitos Mediáticos </t>
-  </si>
-  <si>
     <t xml:space="preserve">Con una ley y con la violencia, Chávez busca dar su último golpe a la libertad </t>
   </si>
   <si>
-    <t xml:space="preserve">La presentación ante el Parlamento de un proyecto de ley de delitos mediaticos que "condena quien manipule la información o la noticia" </t>
-  </si>
-  <si>
-    <t>Editorial que condena el accionar de Chavez en Venezuela contra los medios de comunicación y deja entredicho que "hay que estar atentos a lo que pueda suceder en Paraguay" como si hubiera una relación muy cercana entre Lugo y Chavez y esta "onda bolivariana"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hasta ahora, Lugo cumple su promesa de respetar la libertad de expresión </t>
   </si>
   <si>
     <t>Libertad de expresión - Venezuela - declaración de Lugo</t>
   </si>
   <si>
-    <t xml:space="preserve">La postura adoptada por Lugo frente a las acciones ejercidas en Venezuela por Hugo Chavez contra ciertos medios de prensa </t>
-  </si>
-  <si>
-    <t>Importante editorial ya que en líneas generales acuerda con la postura tomada por Lugo, no deja de mencionar que la situacion de Venezuela pueda replicarse en Paraguay y que Lugo esconda sus "verdaderas intenciones". Ademas su titulo es importante</t>
-  </si>
-  <si>
     <t xml:space="preserve">La gestión de Gobierno de Fernando Lugo sigue entre la esperanza y el temor </t>
   </si>
   <si>
@@ -585,9 +429,6 @@
     <t>Editorial que hace un balance de lo realizado por Lugo durante su primer año de gestión</t>
   </si>
   <si>
-    <t xml:space="preserve">Editorial muy crítica con la figura del presidente. Desde la idea del cambio, a la supuesta falta de apego a las normas democraticas, su cercanía por los presidentes "izquierdistas" de la región, "falta de oficio y gestión eficiente personal y de equipo". Muy importante </t>
-  </si>
-  <si>
     <t xml:space="preserve">El Gobierno apuesta por el gigantismo estatal, no por el desarrollo del país </t>
   </si>
   <si>
@@ -606,9 +447,6 @@
     <t xml:space="preserve">Aniversario - Ultima Hora </t>
   </si>
   <si>
-    <t>Celebración del 36º Aniversario del diario Ultima Hora y el rol que cumple en la politica y la sociedad</t>
-  </si>
-  <si>
     <t xml:space="preserve">Esta bueno para tener presente como se plantea que debe actuar el diario frente a los políticos y como entienden ellos su rol </t>
   </si>
   <si>
@@ -622,6 +460,241 @@
   </si>
   <si>
     <t>No se menciona directamente a Lugo pero se hace referencia a quienes detentan el poder, a su silencio "ya sea por mediocridad, impunidad o complicidad"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La republica requiere mayor compromiso y honestidad de su clase dirigente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democracia - gobierno - oposición </t>
+  </si>
+  <si>
+    <t>Plantea los problemas entre el gobierno con la oposición y los conflictos internos entre los diferentes sectores de la APC que llevan a entorpecer las medidas necesarias para Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llaman al Gobierno de Fernando Lugo a que le garantice a la prensa el acceso a la información pública, diferenciándose de sus pares de Venezuela y Ecuador </t>
+  </si>
+  <si>
+    <t>El Gobierno de Lugo debe negociar entre el los campesinos y los propietarios agrícolas para evitar el crecimiento de la ola de violencia en el interior del país</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rol de la prensa - relación con el gobierno - información publica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El diario exige que el nuevo gobierno tenga una relación directa con la prensa y permita acceder a la información pública </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantea la relación de Lugo con Venezuela y ciertas sospechas de intereses ocultos por no querer tener una relación directa con los periodistas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muy interesante para el análisis pq ya empiezan a esbozar las principales criticas a la gestión de Lugo que luego continuaran a lo largo del gobierno </t>
+  </si>
+  <si>
+    <t>Deberes - Fernando Lugo - problemáticas a resolver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantea que el gobierno de Fernando Lugo debe disminuir los índices de pobreza e indigencia del país. Si no lo logra, su gestión será un fracaso, a pesar de que solo hace seis meses de asunción. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La incapacidad de la clase política de generar consenso en torno a diferentes problemáticas, y al mismo, el desinterés de resolver ciertas cuestiones importantes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exponen a Lugo como un político incapaz de generar alianzas políticas y lo colocan en la misma instancia que legisladores de los partidos tradiciones con los "vicios" que los caracterizan </t>
+  </si>
+  <si>
+    <t>Legitimidad - Gestión de gobierno - errores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muy importante ya que hablan sobre su condición de outsider, su rol político a pocos meses de su asunción. Además de la posible amenaza de una crisis presidencial en relación a su liderazgo político </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alianza Patriótica para el Cambio - Crisis interna - alta conflictividad </t>
+  </si>
+  <si>
+    <t>Esta editorial formula las diferencias y conflictos al interior de la APC y las problemáticas que acarrearía</t>
+  </si>
+  <si>
+    <t>Plantea la incapacidad del sector de Lugo de generar consenso al interior de su propia coalición partidaria. Muy interesante</t>
+  </si>
+  <si>
+    <t>Ausencia de liderazgo - oposición política - Fernando Lugo - diálogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establecen una falta de liderazgo de Fernando Lugo, sumado a una incapacidad de generar alianzas partidarias, una enumeración de ciertos desaciertos que lo pueden llevar a un fracaso político </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muy importante para el análisis: por el titulo, el contenido, la definición, la valoración del gobierno y las predicciones a futuro que realizan </t>
+  </si>
+  <si>
+    <t>Fernando Lugo - nepotismo - nombramientos - administración pública</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pone en discusión el nombramiento de dos funcionarios políticos por parte de Lugo debido a su cercanía personal </t>
+  </si>
+  <si>
+    <t>Interesante ya que se compara a Lugo con Nicanor Duarte y el resto de los presidentes colorados pasados haciendo alusión a la idea del nepotismo y el amiguismo en el poder</t>
+  </si>
+  <si>
+    <t>Realiza una descripción de las implicancias que lleva el poder en relación a la libertad de os gobernantes y el respeto de las leyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es importante para el análisis por su titulo y copete ya que en el cuerpo hace una descripción de los gobernantes en general, como algo que debe ser. </t>
+  </si>
+  <si>
+    <t>Nepotismo - corrupción - idea del "cambio" - ANNP</t>
+  </si>
+  <si>
+    <t>Denuncia los casos de supuesto nepotismo y corrupción en la nueva administración de la ANNP con el funcionario a cargo nombrado por el gobierno de Lugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interesante pq mezcla las ideas del "cambio" y las denuncias de corrupción y nepotismo del nuevo jefe de la ANNP y la asocia a todo el gobierno de Lugo, incluido él mismo </t>
+  </si>
+  <si>
+    <t>Formula que el gobierno debe realizar acciones suficientes para terminar con la pobreza en el país. Pero para ello debe generar condiciones para aumentar el empleo y no a través de subsidios a los "indigentes"</t>
+  </si>
+  <si>
+    <t>Rafael Correa - acuerdos - política exterior</t>
+  </si>
+  <si>
+    <t>Muy importante para el análisis ya que por la excusa del viaje se desatan criticas varias: la idea del "cambio", de su desinterés social, irresponsabilidad, ineptitud y su falta de apoyo político</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula que a pocos meses de gestión del nuevo gobierno, se empiezan a vislumbrar ciertos "vicios" que predominaron en los anteriores gobiernos colorados </t>
+  </si>
+  <si>
+    <t>Las internas del PLRA pueden afectar la gobernabilidad de la Alianza Patriótica para el Cambio y generar ciertas incertidumbres</t>
+  </si>
+  <si>
+    <t>Es interesante pq al plantear los problemas internos del PLRA, lo traslada a la coalición política de la APC y la falta de dirección política de Lugo</t>
+  </si>
+  <si>
+    <t>Fernando Lugo admite públicamente la paternidad de un niño que se le atribuye</t>
+  </si>
+  <si>
+    <t>Habla sobre el escandalo de paternidad de Lugo, aunque sin tanto dramatismo. No se lo toma como un "escándalo político"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Más que rostros nuevos, al Gobierno le falta gente que gerencia un cambio </t>
+  </si>
+  <si>
+    <t>A pesar de que elogia el cambio de gabinete, al mismo tiempo cuestiona que se lo haya dicho públicamente y de paso, vuelve a criticar la falta de respuestas a otros problemas del país. Es interesante ver cómo, al mismo tiempo, un elogio hacia una medida tomada por Lugo esconde directamente una crítica a su gobierno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al cumplirse un año de la victoria electoral de Lugo, plantea que la idea de "cambio" aun no se cumplió y enumera los problemas que hay que resolver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ante las publicaciones de paternidad de Lugo, hay una indecisión por parte del presidente en relación a los cambios anunciados en el gabinete </t>
+  </si>
+  <si>
+    <t>Editorial muy crítica que plantea la falta de decisión del presidente, sus idas y venidas y las criticas en relación a sus problemas personales. "Con un gobernante sin convicciones ni principios firmes, es imposible llevar adelante una política de Estado estable ya que en cualquier momento puede revisar sus determinaciones y seguir intempestivamente otro rumbo".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El diario Ultima Hora realizo una encuesta a la población para que evalúen los primeros ocho meses de gobierno </t>
+  </si>
+  <si>
+    <t>Interesante pq plantean el descubrimiento de petróleo en relación a la mala situación que atravesaba el país y apelan a valoraciones como la esperanza, la fe</t>
+  </si>
+  <si>
+    <t>La falta de cumplimiento de las promesas en torno a la reforma agraria que incluían la creación de Cepra, agravarán el conflicto con el campo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es interesante por el tono de la editorial, mas bien prescriptivo y siempre dejando indirectamente la falta de conocimiento de Lugo en cuanto a negociación y discusión política </t>
+  </si>
+  <si>
+    <t>Se menciona la cercanía de algunos sectores del Gobierno con las ideas promovidas por los gobiernos izquierdistas de Correa, Chávez y Morales. Siempre de manera indirecta</t>
+  </si>
+  <si>
+    <t>Editorial muy crítica con lo hecho hasta ahora por Lugo. Plantea que dse dio información de lo hecho hasta ahora poco relevante pero sin plantear las estrategias que se van a llevar a cabo para resolver los problemas que "atañen a la ciudadanía"</t>
+  </si>
+  <si>
+    <t>La crisis interna que afecta a la APC era evidente incluso antes de la asunción en el poder y se agrava en los primeros meses de gestión de Lugo</t>
+  </si>
+  <si>
+    <t>Interesante por el tono de la editorial, el título y como se describe a Lugo ante un hecho que podría considerarse menor como en este caso. (falta de credibilidad, semejanza a Nicanor Duarte Frutos, falta de coraje para enfrentar a sus detractores)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela - Hugo Chávez - Ley de Delitos Mediáticos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La presentación ante el Parlamento de un proyecto de ley de delitos mediáticos que "condena quien manipule la información o la noticia" </t>
+  </si>
+  <si>
+    <t>Editorial que condena el accionar de Chávez en Venezuela contra los medios de comunicación y deja entredicho que "hay que estar atentos a lo que pueda suceder en Paraguay" como si hubiera una relación muy cercana entre Lugo y Chávez y esta "onda bolivariana"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La postura adoptada por Lugo frente a las acciones ejercidas en Venezuela por Hugo Chávez contra ciertos medios de prensa </t>
+  </si>
+  <si>
+    <t>Importante editorial ya que en líneas generales acuerda con la postura tomada por Lugo, no deja de mencionar que la situación de Venezuela pueda replicarse en Paraguay y que Lugo esconda sus "verdaderas intenciones". Además su titulo es importante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial muy crítica con la figura del presidente. Desde la idea del cambio, a la supuesta falta de apego a las normas democráticas, su cercanía por los presidentes "izquierdistas" de la región, "falta de oficio y gestión eficiente personal y de equipo". Muy importante </t>
+  </si>
+  <si>
+    <t>Celebración del 36º Aniversario del diario Ultima Hora y el rol que cumple en la política y la sociedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo mas interesante de la editorial es cuando se menciona la idea: "Se constata una ausencia de diálogo que impulsa la siniestra presencia del fascismo, los leninismos o cualquier otro extremismo que presagia un desastre para la democracia y el Estado de Derecho". La pregunta sería cual le compete a Lugo. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuestionamientos - gobierno - autocrítica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La autocrítica del Gobierno puede ayudar a rectificar rumbos a favor del país </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 15 meses del inicio de gestión de Lugo, esta editorial llama aque el gobierno realice una autocritica y rebele su accionar en relación a la solución de determinadas problemáticas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muy importante ya que se mencionan las amenazas de juicio poítico. No se lo menciona a Lugo directamente pero se habla de soberbia, de falta de una dirección política, la idea del "cambio" nuevamente y la necesidad que el gobierno realice una autocrítica. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El manejo irresponsable de la información pública causa un grave perjuicio al país </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informacion pública - cancillería - Venezuela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La falta de informacion precisa sobre un vuelo de un avion venezolano que operó desde el aeropuerto de Asunción </t>
+  </si>
+  <si>
+    <t>Editorial que menciona la similitud de Lugo con los gobiernos colorados anteriores, sumado a que presenta contradicciones, irresponsabilidad y ausencia del sentido de profesionalismo. Lo interesante es ver cómo de un problema puntual se traslada a una critica solapada de Lugo como político</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un cambio de mentalidad ayudará a combatir con mayor eficacia la pobreza </t>
+  </si>
+  <si>
+    <t>Pobreza - calidad de vida - prácticas clientelistas</t>
+  </si>
+  <si>
+    <t>El nivel de pobreza en el país varía entre los números oficiales y el informe de la Cepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se plantea las denuncias de las "prácticas clientelistas de Lugo" y esa "estrategia populista"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un nuevo escándalo que arrastra sospechas de tráfico de influencia y nepotismo </t>
+  </si>
+  <si>
+    <t>Escándalo - Fernando Lugo - nepotismo</t>
+  </si>
+  <si>
+    <t>Controversia en relacion al nombramiento de funcionario de Yaciretá  el despido de otro que tomo estado público y se relaciona directamente con la figura del Presidente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se menciona la noción de escándalo en el título, además de la idea de nepotismo, corrupción y la vida publica y privada del presidente </t>
+  </si>
+  <si>
+    <t>Buena perspectiva económica pese a los desencuentros de la dirigencia política y social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perspectiva económica 2010 - dirigencia política </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre la buena perspectiva económica para el año 2010 a cargo del sector privado y la "falta de colaboración" de la dirigencia política </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial que vuelve a plantear la falta de rumbo del gobierno, que no tiene una idea clara y menciona la idea de que quienes detentan el poder tienen el deseo de eternizarse en el mismo. Mencionando indirectamente la cuestion de la reelección tan polémica en Paraguay </t>
   </si>
 </sst>
 </file>
@@ -674,7 +747,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -697,11 +770,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -725,6 +809,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1144,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -1068,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7">
         <v>39730</v>
@@ -1077,13 +1162,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1091,7 +1176,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7">
         <v>39737</v>
@@ -1100,13 +1185,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1114,7 +1199,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7">
         <v>39775</v>
@@ -1123,13 +1208,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1137,7 +1222,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7">
         <v>39776</v>
@@ -1146,13 +1231,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1160,7 +1245,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>39780</v>
@@ -1169,13 +1254,13 @@
         <v>8</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1183,7 +1268,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7">
         <v>39819</v>
@@ -1192,13 +1277,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1206,7 +1291,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
         <v>39832</v>
@@ -1215,13 +1300,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
@@ -1229,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C11" s="7">
         <v>39836</v>
@@ -1238,13 +1323,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1252,7 +1337,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C12" s="7">
         <v>39838</v>
@@ -1261,13 +1346,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1275,7 +1360,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
         <v>39864</v>
@@ -1284,13 +1369,13 @@
         <v>8</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1298,7 +1383,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7">
         <v>39866</v>
@@ -1307,13 +1392,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1321,7 +1406,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C15" s="7">
         <v>39871</v>
@@ -1330,13 +1415,13 @@
         <v>8</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1344,7 +1429,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C16" s="7">
         <v>39873</v>
@@ -1353,13 +1438,13 @@
         <v>8</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1367,7 +1452,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>39874</v>
@@ -1376,13 +1461,13 @@
         <v>8</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1390,7 +1475,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7">
         <v>39879</v>
@@ -1399,13 +1484,13 @@
         <v>8</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -1413,7 +1498,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7">
         <v>39888</v>
@@ -1422,13 +1507,13 @@
         <v>8</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1436,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>39891</v>
@@ -1445,13 +1530,13 @@
         <v>8</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
@@ -1459,7 +1544,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C21" s="7">
         <v>39896</v>
@@ -1468,13 +1553,13 @@
         <v>8</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -1482,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C22" s="7">
         <v>39903</v>
@@ -1491,13 +1576,13 @@
         <v>8</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,7 +1590,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7">
         <v>39908</v>
@@ -1514,13 +1599,13 @@
         <v>8</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1528,7 +1613,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C24" s="7">
         <v>39914</v>
@@ -1537,13 +1622,13 @@
         <v>8</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1551,7 +1636,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C25" s="7">
         <v>39917</v>
@@ -1560,13 +1645,13 @@
         <v>8</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1574,7 +1659,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="C26" s="7">
         <v>39919</v>
@@ -1583,13 +1668,13 @@
         <v>8</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -1597,7 +1682,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="C27" s="7">
         <v>39921</v>
@@ -1606,13 +1691,13 @@
         <v>8</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
@@ -1620,7 +1705,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C28" s="7">
         <v>39923</v>
@@ -1629,13 +1714,13 @@
         <v>8</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
@@ -1643,7 +1728,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="C29" s="7">
         <v>39924</v>
@@ -1652,13 +1737,13 @@
         <v>8</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1666,7 +1751,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="C30" s="7">
         <v>39925</v>
@@ -1675,13 +1760,13 @@
         <v>8</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1689,7 +1774,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="C31" s="7">
         <v>39935</v>
@@ -1698,13 +1783,13 @@
         <v>8</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1712,7 +1797,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="C32" s="7">
         <v>39936</v>
@@ -1721,13 +1806,13 @@
         <v>8</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1735,7 +1820,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="C33" s="7">
         <v>39941</v>
@@ -1744,13 +1829,13 @@
         <v>8</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1758,7 +1843,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="C34" s="7">
         <v>39946</v>
@@ -1767,13 +1852,13 @@
         <v>8</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1781,7 +1866,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="C35" s="7">
         <v>39952</v>
@@ -1790,13 +1875,13 @@
         <v>8</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1804,7 +1889,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C36" s="7">
         <v>39957</v>
@@ -1813,13 +1898,13 @@
         <v>8</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1827,7 +1912,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="C37" s="7">
         <v>39974</v>
@@ -1836,13 +1921,13 @@
         <v>8</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1850,7 +1935,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="C38" s="7">
         <v>39985</v>
@@ -1859,13 +1944,13 @@
         <v>8</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1873,7 +1958,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C39" s="7">
         <v>39994</v>
@@ -1882,13 +1967,13 @@
         <v>8</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1896,7 +1981,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="C40" s="7">
         <v>39996</v>
@@ -1905,13 +1990,13 @@
         <v>8</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1919,7 +2004,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="C41" s="7">
         <v>39999</v>
@@ -1928,13 +2013,13 @@
         <v>8</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1942,7 +2027,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="C42" s="7">
         <v>40004</v>
@@ -1951,13 +2036,13 @@
         <v>8</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -1965,7 +2050,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="C43" s="7">
         <v>40008</v>
@@ -1974,13 +2059,13 @@
         <v>8</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1988,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="C44" s="7">
         <v>40017</v>
@@ -1997,13 +2082,13 @@
         <v>8</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2011,7 +2096,7 @@
         <v>6</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="C45" s="7">
         <v>40029</v>
@@ -2020,13 +2105,13 @@
         <v>8</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2034,7 +2119,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="C46" s="7">
         <v>40030</v>
@@ -2043,13 +2128,13 @@
         <v>8</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2057,7 +2142,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="C47" s="7">
         <v>40040</v>
@@ -2066,13 +2151,13 @@
         <v>8</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2080,7 +2165,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="C48" s="7">
         <v>40072</v>
@@ -2089,13 +2174,13 @@
         <v>8</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2103,7 +2188,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="C49" s="7">
         <v>40094</v>
@@ -2112,13 +2197,13 @@
         <v>8</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2126,7 +2211,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="C50" s="7">
         <v>40104</v>
@@ -2135,79 +2220,163 @@
         <v>8</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="B51" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="7">
+        <v>40118</v>
+      </c>
       <c r="D51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="E51" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="7">
+        <v>40120</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="7">
+        <v>40135</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="A54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="7">
+        <v>40138</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" s="7">
+        <v>40143</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C56" s="7">
+        <v>40146</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="57" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="A57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="5"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -1093,7 +1093,7 @@
   <dimension ref="A2:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="235">
   <si>
     <t>DIARIO</t>
   </si>
@@ -695,6 +695,42 @@
   </si>
   <si>
     <t xml:space="preserve">Editorial que vuelve a plantear la falta de rumbo del gobierno, que no tiene una idea clara y menciona la idea de que quienes detentan el poder tienen el deseo de eternizarse en el mismo. Mencionando indirectamente la cuestion de la reelección tan polémica en Paraguay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La compra de edificios por vía de la excepción genera sospecha de corrupción </t>
+  </si>
+  <si>
+    <t>compra de edificios - corrupción - transparencia</t>
+  </si>
+  <si>
+    <t>Sobre la compra de edificios por parte de funcionarios importantes de la APC que genera ciertas controversias y sospechas de corrupción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vuelve a plantear la idea de la semejanza entre el gobierno de Lugo y los anteriores colorados, dejando entrever que se prometió mucho pero se hizo poco. Es interesante por el tíutlo y el tono prescriptivo de la editorial </t>
+  </si>
+  <si>
+    <t>Los cambios en Itaipú y Yaciretá son un desafío para la integridad política del Gobierno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombramiento - represas - nepotismo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polemica en torno al nombramiento de dos personas cercanas a Lugo, al frente de las represas de Yaciretá  e Itaipú </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial que vuelve a remarcar la semejanza entre lugo y los gobiernos colorados al hablar de nombramientos de personas cercanas a su entorno que le facilitarian el control sobre ciertos recursos económicos y la aparicion de prácticas clientelares </t>
+  </si>
+  <si>
+    <t>El Presidente Lugo huye de los problemas en los momentos en los que más se lo necesita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumento de temperaturas - viaje de Lugo - Unasur </t>
+  </si>
+  <si>
+    <t>Controversia por el viaje realizado por el Presidente Fernando Lugo a la cumbre de Unasur durante los problemas en torno a los aumentos de temperatura que sufría el país</t>
+  </si>
+  <si>
+    <t>Editorial muy critica sobre Lugo ya que plantea que le interesa mas lo que pasa afuera que lo de adentro del país, además del titulo y el tono de la editorial que alude a lo que "un buen gobernante, preocupado por los intereses de su pueblo" debería hacer</t>
   </si>
 </sst>
 </file>
@@ -1092,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2367,42 +2403,84 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
+      <c r="B57" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="7">
+        <v>40194</v>
+      </c>
       <c r="D57" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="E57" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C58" s="7">
+        <v>40208</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" s="7">
+        <v>40220</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="60" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="271">
   <si>
     <t>DIARIO</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Critica el nuevo programa de transferencias condicionadas de recursos por parte del gobierno de Lugo</t>
   </si>
   <si>
-    <t>Interesante pq a la hora de criticar el "asistencialismo" de Lugo utiliza el concepto de populismo y aclara que en el gobierno de Lugo, "es una versión mal entendida" del mismo</t>
-  </si>
-  <si>
     <t xml:space="preserve">El PE demuestra debilidad y alienta la corrupción al dar dinero a sesameros </t>
   </si>
   <si>
@@ -227,10 +224,6 @@
     <t>Plantea la lentitud de Lugo para cambiar a ciertos miembros de su gabinete que no estaban cumpliendo con los resultados esperados</t>
   </si>
   <si>
-    <t xml:space="preserve">Interesante pq vuelve a tomar la idea de "cambio" y menciona la falta de experiencia política de Lugo y algunos de sus funcionarios. "La falta de muñeca política hizo que gran parte de sus buenas intenciones naufragaran". Frase muy interesante de análisis 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cambios en el gabinete - ministros - resistencia </t>
   </si>
   <si>
@@ -285,9 +278,6 @@
     <t xml:space="preserve">Esta editorial establece que el gobierno de Fernando Lugo debe empezar a tomar responsabilidad por los errores cometidos desde el inicio de su gestión </t>
   </si>
   <si>
-    <t>Muy importante para el análisis pq ya empieza a vislumbrar las principales criticas a la gestión de Lugo: por el título sugerente, el tono y la valoración que hace la editorial</t>
-  </si>
-  <si>
     <t>Hallazgo - petróleo - esperanza</t>
   </si>
   <si>
@@ -486,9 +476,6 @@
     <t xml:space="preserve">Plantea la relación de Lugo con Venezuela y ciertas sospechas de intereses ocultos por no querer tener una relación directa con los periodistas </t>
   </si>
   <si>
-    <t xml:space="preserve">Muy interesante para el análisis pq ya empiezan a esbozar las principales criticas a la gestión de Lugo que luego continuaran a lo largo del gobierno </t>
-  </si>
-  <si>
     <t>Deberes - Fernando Lugo - problemáticas a resolver</t>
   </si>
   <si>
@@ -546,9 +533,6 @@
     <t>Denuncia los casos de supuesto nepotismo y corrupción en la nueva administración de la ANNP con el funcionario a cargo nombrado por el gobierno de Lugo</t>
   </si>
   <si>
-    <t xml:space="preserve">Interesante pq mezcla las ideas del "cambio" y las denuncias de corrupción y nepotismo del nuevo jefe de la ANNP y la asocia a todo el gobierno de Lugo, incluido él mismo </t>
-  </si>
-  <si>
     <t>Formula que el gobierno debe realizar acciones suficientes para terminar con la pobreza en el país. Pero para ello debe generar condiciones para aumentar el empleo y no a través de subsidios a los "indigentes"</t>
   </si>
   <si>
@@ -564,9 +548,6 @@
     <t>Las internas del PLRA pueden afectar la gobernabilidad de la Alianza Patriótica para el Cambio y generar ciertas incertidumbres</t>
   </si>
   <si>
-    <t>Es interesante pq al plantear los problemas internos del PLRA, lo traslada a la coalición política de la APC y la falta de dirección política de Lugo</t>
-  </si>
-  <si>
     <t>Fernando Lugo admite públicamente la paternidad de un niño que se le atribuye</t>
   </si>
   <si>
@@ -591,9 +572,6 @@
     <t xml:space="preserve">El diario Ultima Hora realizo una encuesta a la población para que evalúen los primeros ocho meses de gobierno </t>
   </si>
   <si>
-    <t>Interesante pq plantean el descubrimiento de petróleo en relación a la mala situación que atravesaba el país y apelan a valoraciones como la esperanza, la fe</t>
-  </si>
-  <si>
     <t>La falta de cumplimiento de las promesas en torno a la reforma agraria que incluían la creación de Cepra, agravarán el conflicto con el campo</t>
   </si>
   <si>
@@ -601,9 +579,6 @@
   </si>
   <si>
     <t>Se menciona la cercanía de algunos sectores del Gobierno con las ideas promovidas por los gobiernos izquierdistas de Correa, Chávez y Morales. Siempre de manera indirecta</t>
-  </si>
-  <si>
-    <t>Editorial muy crítica con lo hecho hasta ahora por Lugo. Plantea que dse dio información de lo hecho hasta ahora poco relevante pero sin plantear las estrategias que se van a llevar a cabo para resolver los problemas que "atañen a la ciudadanía"</t>
   </si>
   <si>
     <t>La crisis interna que afecta a la APC era evidente incluso antes de la asunción en el poder y se agrava en los primeros meses de gestión de Lugo</t>
@@ -643,21 +618,9 @@
     <t xml:space="preserve">La autocrítica del Gobierno puede ayudar a rectificar rumbos a favor del país </t>
   </si>
   <si>
-    <t xml:space="preserve">A 15 meses del inicio de gestión de Lugo, esta editorial llama aque el gobierno realice una autocritica y rebele su accionar en relación a la solución de determinadas problemáticas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muy importante ya que se mencionan las amenazas de juicio poítico. No se lo menciona a Lugo directamente pero se habla de soberbia, de falta de una dirección política, la idea del "cambio" nuevamente y la necesidad que el gobierno realice una autocrítica. </t>
-  </si>
-  <si>
     <t xml:space="preserve">El manejo irresponsable de la información pública causa un grave perjuicio al país </t>
   </si>
   <si>
-    <t xml:space="preserve">Informacion pública - cancillería - Venezuela </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La falta de informacion precisa sobre un vuelo de un avion venezolano que operó desde el aeropuerto de Asunción </t>
-  </si>
-  <si>
     <t>Editorial que menciona la similitud de Lugo con los gobiernos colorados anteriores, sumado a que presenta contradicciones, irresponsabilidad y ausencia del sentido de profesionalismo. Lo interesante es ver cómo de un problema puntual se traslada a una critica solapada de Lugo como político</t>
   </si>
   <si>
@@ -667,9 +630,6 @@
     <t>Pobreza - calidad de vida - prácticas clientelistas</t>
   </si>
   <si>
-    <t>El nivel de pobreza en el país varía entre los números oficiales y el informe de la Cepal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se plantea las denuncias de las "prácticas clientelistas de Lugo" y esa "estrategia populista"  </t>
   </si>
   <si>
@@ -679,9 +639,6 @@
     <t>Escándalo - Fernando Lugo - nepotismo</t>
   </si>
   <si>
-    <t>Controversia en relacion al nombramiento de funcionario de Yaciretá  el despido de otro que tomo estado público y se relaciona directamente con la figura del Presidente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se menciona la noción de escándalo en el título, además de la idea de nepotismo, corrupción y la vida publica y privada del presidente </t>
   </si>
   <si>
@@ -694,9 +651,6 @@
     <t xml:space="preserve">Sobre la buena perspectiva económica para el año 2010 a cargo del sector privado y la "falta de colaboración" de la dirigencia política </t>
   </si>
   <si>
-    <t xml:space="preserve">Editorial que vuelve a plantear la falta de rumbo del gobierno, que no tiene una idea clara y menciona la idea de que quienes detentan el poder tienen el deseo de eternizarse en el mismo. Mencionando indirectamente la cuestion de la reelección tan polémica en Paraguay </t>
-  </si>
-  <si>
     <t xml:space="preserve">La compra de edificios por vía de la excepción genera sospecha de corrupción </t>
   </si>
   <si>
@@ -706,21 +660,12 @@
     <t>Sobre la compra de edificios por parte de funcionarios importantes de la APC que genera ciertas controversias y sospechas de corrupción</t>
   </si>
   <si>
-    <t xml:space="preserve">Vuelve a plantear la idea de la semejanza entre el gobierno de Lugo y los anteriores colorados, dejando entrever que se prometió mucho pero se hizo poco. Es interesante por el tíutlo y el tono prescriptivo de la editorial </t>
-  </si>
-  <si>
     <t>Los cambios en Itaipú y Yaciretá son un desafío para la integridad política del Gobierno</t>
   </si>
   <si>
     <t xml:space="preserve">Nombramiento - represas - nepotismo </t>
   </si>
   <si>
-    <t xml:space="preserve">Polemica en torno al nombramiento de dos personas cercanas a Lugo, al frente de las represas de Yaciretá  e Itaipú </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editorial que vuelve a remarcar la semejanza entre lugo y los gobiernos colorados al hablar de nombramientos de personas cercanas a su entorno que le facilitarian el control sobre ciertos recursos económicos y la aparicion de prácticas clientelares </t>
-  </si>
-  <si>
     <t>El Presidente Lugo huye de los problemas en los momentos en los que más se lo necesita</t>
   </si>
   <si>
@@ -731,6 +676,170 @@
   </si>
   <si>
     <t>Editorial muy critica sobre Lugo ya que plantea que le interesa mas lo que pasa afuera que lo de adentro del país, además del titulo y el tono de la editorial que alude a lo que "un buen gobernante, preocupado por los intereses de su pueblo" debería hacer</t>
+  </si>
+  <si>
+    <t>Allanamientos - EPP - fuerzas de seguridad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los allanamientos sin éxito muestran el fracaso de las operaciones contra el EPP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marca la sospecha de que no hay verdaderas intenciones por parte de Lugo y su gobierno de derrotar al EPP ya sea por cercanía o intereses, además de dejar planteado esa idea constante de que se "habla mucho y se hace poco". </t>
+  </si>
+  <si>
+    <t>Una administración eficiente en un año y medio debería marcar una diferencia</t>
+  </si>
+  <si>
+    <t>Crisis energética - Fernando Lugo - 18 meses de gestión</t>
+  </si>
+  <si>
+    <t>Ante la situación de crisis energética en el país, la editorial plantea que no se plantean soluciones por parte del gobierno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muy interesante para el análisis porque ya empiezan a esbozar las principales criticas a la gestión de Lugo que luego continuaran a lo largo del gobierno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interesante porque mezcla las ideas del "cambio" y las denuncias de corrupción y nepotismo del nuevo jefe de la ANNP y la asocia a todo el gobierno de Lugo, incluido él mismo </t>
+  </si>
+  <si>
+    <t>Interesante porque a la hora de criticar el "asistencialismo" de Lugo utiliza el concepto de populismo y aclara que en el gobierno de Lugo, "es una versión mal entendida" del mismo</t>
+  </si>
+  <si>
+    <t>Es interesante porque al plantear los problemas internos del PLRA, lo traslada a la coalición política de la APC y la falta de dirección política de Lugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interesante porque vuelve a tomar la idea de "cambio" y menciona la falta de experiencia política de Lugo y algunos de sus funcionarios. "La falta de muñeca política hizo que gran parte de sus buenas intenciones naufragaran". Frase muy interesante de análisis 
+</t>
+  </si>
+  <si>
+    <t>Muy importante para el análisis porque ya empieza a vislumbrar las principales criticas a la gestión de Lugo: por el título sugerente, el tono y la valoración que hace la editorial</t>
+  </si>
+  <si>
+    <t>Interesante porque plantean el descubrimiento de petróleo en relación a la mala situación que atravesaba el país y apelan a valoraciones como la esperanza, la fe</t>
+  </si>
+  <si>
+    <t>Editorial muy crítica con lo hecho hasta ahora por Lugo. Plantea que se dio información de lo hecho hasta ahora poco relevante pero sin plantear las estrategias que se van a llevar a cabo para resolver los problemas que "atañen a la ciudadanía"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 15 meses del inicio de gestión de Lugo, esta editorial llama a que el gobierno realice una autocritica y rebele su accionar en relación a la solución de determinadas problemáticas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muy importante ya que se mencionan las amenazas de juicio político. No se lo menciona a Lugo directamente pero se habla de soberbia, de falta de una dirección política, la idea del "cambio" nuevamente y la necesidad que el gobierno realice una autocrítica. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información pública - cancillería - Venezuela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La falta de información precisa sobre un vuelo de un avión venezolano que operó desde el aeropuerto de Asunción </t>
+  </si>
+  <si>
+    <t>El nivel de pobreza en el país varía entre los números oficiales y el informe de la CEPAL</t>
+  </si>
+  <si>
+    <t>Controversia en relación al nombramiento de funcionario de Yaciretá  el despido de otro que tomo estado público y se relaciona directamente con la figura del Presidente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial que vuelve a plantear la falta de rumbo del gobierno, que no tiene una idea clara y menciona la idea de que quienes detentan el poder tienen el deseo de eternizarse en el mismo. Mencionando indirectamente la cuestión de la reelección tan polémica en Paraguay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vuelve a plantear la idea de la semejanza entre el gobierno de Lugo y los anteriores colorados, dejando entrever que se prometió mucho pero se hizo poco. Es interesante por el título y el tono prescriptivo de la editorial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polémica en torno al nombramiento de dos personas cercanas a Lugo, al frente de las represas de Yaciretá  e Itaipú </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial que vuelve a remarcar la semejanza entre Lugo y los gobiernos colorados al hablar de nombramientos de personas cercanas a su entorno que le facilitarían el control sobre ciertos recursos económicos y la aparición de prácticas clientelares </t>
+  </si>
+  <si>
+    <t>A pesar de la extensa movilización de miembros de las fuerzas de seguridad por parte de la gestión de Lugo, aun no se han podido detener a miembros operativos del EPP</t>
+  </si>
+  <si>
+    <t>Interesante por el título y el tono de la edtorial. Ya en el copete, se plantea la idea "del cambio" o, más bien, la falta de ella. Plantea que el gobierno de Lugo miente en relación a lo que hace, no le interesa cooperar con otros sectores políticos, se menciona la idea de "oportunismo demagógico". Además de realizar vaticinios sobre lo que sucederá si Lugo no cambia su accionar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las contradicciones y paradojas que hacen retroceder al Paraguay </t>
+  </si>
+  <si>
+    <t>Jose Mujica - Fernando Lugo - diferencias</t>
+  </si>
+  <si>
+    <t>Diferencias en el accionar de Fernando Lugo y José Mujica al asumir en sus cargos</t>
+  </si>
+  <si>
+    <t>Editorial muy crítica con Lugo ya que lo compara con Mujica planteando que no tiene un rumbo fijo, se alinea con personas cercanas a su gobierno que solo tienen como fin la pelea directa con la oposicion y a quien no le interesa las mejoras en la sociedad."Mujica y Lugo, con claridad, evidencian la diferencia entre un estadista sensato y un dinosaurio político que solo busca la holgura sibarita del poder". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El fracaso de la reforma agraria es el reflejo de la falta de liderazgo de Lugo </t>
+  </si>
+  <si>
+    <t>Reforma Agraria- Indert - Cepra</t>
+  </si>
+  <si>
+    <t>La renuncia del presidente del Indert se suma a las problematicas en torno a la reforma agraria. Para ello, el gobierno relanza la Coordinadora Ejecutiva para la Reforma Agraria (Cepra)</t>
+  </si>
+  <si>
+    <t>Se vuelve a mencionar la idea del cambio, o la falta de ella, ahora, en relación a la reforma agraria y la falta de politicas por parte de la gestión de Lugo. Al final de la editorial se plantea que hay una "falta de liderazgo" por parte del ex obispo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un gobierno sin firmeza no despierta credibilidad y pierde liderazgo </t>
+  </si>
+  <si>
+    <t>Liderazgo - internas - APC</t>
+  </si>
+  <si>
+    <t>Problemas internos entre el Ministro de defensa con el Vicepresidente que genera rispideces al interior de la coalicion gobernante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vuelve a formular la falta de liderazgo de Lugo al no poder generar un cierto orden entre sus funcionarios debido a las diferencias ideológicas entre izquierda y derecha. Cierra la editorial con esta idea "Si le es imposible al presidente Lugo dotar a su Gobierno de una estrategia, o su estrategia es no tener ninguna para tratar de quedar bien con todos, vale la pena recordarle que es un estilo político peligroso y que puede costar caro a todos".
+</t>
+  </si>
+  <si>
+    <t>Lugo reedita los vicios que en su campaña electoral había prometido combatir</t>
+  </si>
+  <si>
+    <t>Nombramientos - nepotismo - Fernando Lugo</t>
+  </si>
+  <si>
+    <t>Controversia en torno al nombramiento de una conocida de Lugo al frente de un importante cargo de Itaipú</t>
+  </si>
+  <si>
+    <t>Se vuelve a mencionar la idea de nepotismo al nombrar a personas cercanas a Lugo, lo que lo asemeja a los gobiernos colorados anteriores, pierde credibilidad frente a la ciudadanía y no cumple las promesas que realizó en la campaña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urge debatir el modelo que nos hará triunfar sobre la pobreza, la ignorancia y el atraso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">desigualdades - desarrollo económico - </t>
+  </si>
+  <si>
+    <t>Cuales son los mecanismos mediantes los cuales se soluciona los problemas económicos y desigualdad en el país, qué modelo adoptar</t>
+  </si>
+  <si>
+    <t>Se menciona por primera vez la idea del "buen estadista" (una especie de ideal de político) que por supuesto no refiere a Lugo. Además es una editorial que menciona una crítica muy indirecta y bastante oculta en relación a la presencia de nepotismo y compadrazgo en el gobierno de Lugo</t>
+  </si>
+  <si>
+    <t>A dos años del triunfo de la APC, se espera todavía el cumplimiento de promesas</t>
+  </si>
+  <si>
+    <t>Gestión de gobierno - dos años de gobierno</t>
+  </si>
+  <si>
+    <t>Realiza un balance de lo hecho hasta el momento por la gestión de Lugo a dos años de haber vencido en las elecciones presidenciales</t>
+  </si>
+  <si>
+    <t>Texto que realiza una fuerte crítica a Lugo y a la coalición de gobierno en los primeros 20 meses de gobierno. Plantea la idea de promesas incumplidas, deudas que aun tiene Lugo y su gobierno para con el pueblo paraguayo, y enumera todas las cuestiones que quedan por resolver en el país. Se menciona fuertemente la conflictividad interna en el interior de la APC.</t>
+  </si>
+  <si>
+    <t>Periodismo - Control - denuncias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celebración del día del periodista </t>
+  </si>
+  <si>
+    <t>El rol que debe cumplir el periodismo en la sociedad. Está bueno para tenerlo presente en el análisis sobre la manera en que el diario comprende que deben actuar frente al accionar político</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estar al servicio de la verdad, una obligación ineludible para la prensa </t>
   </si>
 </sst>
 </file>
@@ -1126,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G66"/>
+  <dimension ref="A2:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1248,7 @@
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
     <col min="6" max="6" width="51.42578125" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
@@ -1180,7 +1289,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -1201,7 +1310,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>13</v>
@@ -1221,13 +1330,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,7 +1359,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1267,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>18</v>
@@ -1339,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>30</v>
@@ -1362,10 +1471,10 @@
         <v>31</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1382,13 +1491,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1405,13 +1514,13 @@
         <v>8</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1428,13 +1537,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1451,13 +1560,13 @@
         <v>8</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1477,10 +1586,10 @@
         <v>39</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,13 +1606,13 @@
         <v>8</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1523,7 +1632,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>43</v>
@@ -1549,7 +1658,7 @@
         <v>46</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1557,7 +1666,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>39891</v>
@@ -1566,13 +1675,13 @@
         <v>8</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
@@ -1580,7 +1689,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="7">
         <v>39896</v>
@@ -1589,13 +1698,13 @@
         <v>8</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -1603,7 +1712,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="7">
         <v>39903</v>
@@ -1612,13 +1721,13 @@
         <v>8</v>
       </c>
       <c r="E22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="G22" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1626,7 +1735,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="7">
         <v>39908</v>
@@ -1635,13 +1744,13 @@
         <v>8</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1649,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="7">
         <v>39914</v>
@@ -1658,13 +1767,13 @@
         <v>8</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1672,7 +1781,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="7">
         <v>39917</v>
@@ -1681,13 +1790,13 @@
         <v>8</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1695,7 +1804,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C26" s="7">
         <v>39919</v>
@@ -1704,13 +1813,13 @@
         <v>8</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="G26" s="9" t="s">
-        <v>67</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -1718,7 +1827,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C27" s="7">
         <v>39921</v>
@@ -1727,13 +1836,13 @@
         <v>8</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="G27" s="9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
@@ -1741,7 +1850,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28" s="7">
         <v>39923</v>
@@ -1750,13 +1859,13 @@
         <v>8</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
@@ -1764,7 +1873,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="7">
         <v>39924</v>
@@ -1773,13 +1882,13 @@
         <v>8</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1787,7 +1896,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" s="7">
         <v>39925</v>
@@ -1796,13 +1905,13 @@
         <v>8</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1810,7 +1919,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" s="7">
         <v>39935</v>
@@ -1819,13 +1928,13 @@
         <v>8</v>
       </c>
       <c r="E31" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1833,7 +1942,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C32" s="7">
         <v>39936</v>
@@ -1842,13 +1951,13 @@
         <v>8</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>86</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1856,7 +1965,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C33" s="7">
         <v>39941</v>
@@ -1865,13 +1974,13 @@
         <v>8</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1879,7 +1988,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C34" s="7">
         <v>39946</v>
@@ -1888,13 +1997,13 @@
         <v>8</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1902,7 +2011,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C35" s="7">
         <v>39952</v>
@@ -1911,13 +2020,13 @@
         <v>8</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1925,7 +2034,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C36" s="7">
         <v>39957</v>
@@ -1934,13 +2043,13 @@
         <v>8</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1948,7 +2057,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C37" s="7">
         <v>39974</v>
@@ -1957,13 +2066,13 @@
         <v>8</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1971,7 +2080,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C38" s="7">
         <v>39985</v>
@@ -1980,13 +2089,13 @@
         <v>8</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1994,7 +2103,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C39" s="7">
         <v>39994</v>
@@ -2003,13 +2112,13 @@
         <v>8</v>
       </c>
       <c r="E39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2017,7 +2126,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C40" s="7">
         <v>39996</v>
@@ -2026,13 +2135,13 @@
         <v>8</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2040,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C41" s="7">
         <v>39999</v>
@@ -2049,13 +2158,13 @@
         <v>8</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2063,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C42" s="7">
         <v>40004</v>
@@ -2072,13 +2181,13 @@
         <v>8</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -2086,7 +2195,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C43" s="7">
         <v>40008</v>
@@ -2095,13 +2204,13 @@
         <v>8</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2109,7 +2218,7 @@
         <v>6</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C44" s="7">
         <v>40017</v>
@@ -2118,13 +2227,13 @@
         <v>8</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2132,7 +2241,7 @@
         <v>6</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C45" s="7">
         <v>40029</v>
@@ -2141,13 +2250,13 @@
         <v>8</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2155,7 +2264,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C46" s="7">
         <v>40030</v>
@@ -2164,13 +2273,13 @@
         <v>8</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2178,7 +2287,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C47" s="7">
         <v>40040</v>
@@ -2187,13 +2296,13 @@
         <v>8</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2201,7 +2310,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C48" s="7">
         <v>40072</v>
@@ -2210,13 +2319,13 @@
         <v>8</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2224,7 +2333,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C49" s="7">
         <v>40094</v>
@@ -2233,13 +2342,13 @@
         <v>8</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2247,7 +2356,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C50" s="7">
         <v>40104</v>
@@ -2256,13 +2365,13 @@
         <v>8</v>
       </c>
       <c r="E50" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2270,7 +2379,7 @@
         <v>6</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C51" s="7">
         <v>40118</v>
@@ -2279,13 +2388,13 @@
         <v>8</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2293,7 +2402,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C52" s="7">
         <v>40120</v>
@@ -2302,13 +2411,13 @@
         <v>8</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2316,7 +2425,7 @@
         <v>6</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C53" s="7">
         <v>40135</v>
@@ -2325,13 +2434,13 @@
         <v>8</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2339,7 +2448,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C54" s="7">
         <v>40138</v>
@@ -2348,13 +2457,13 @@
         <v>8</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2362,7 +2471,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C55" s="7">
         <v>40143</v>
@@ -2371,13 +2480,13 @@
         <v>8</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2385,7 +2494,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C56" s="7">
         <v>40146</v>
@@ -2394,13 +2503,13 @@
         <v>8</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -2408,7 +2517,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C57" s="7">
         <v>40194</v>
@@ -2417,13 +2526,13 @@
         <v>8</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2431,7 +2540,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C58" s="7">
         <v>40208</v>
@@ -2440,13 +2549,13 @@
         <v>8</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2454,7 +2563,7 @@
         <v>6</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="C59" s="7">
         <v>40220</v>
@@ -2463,81 +2572,711 @@
         <v>8</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="7">
+        <v>40221</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="7">
+        <v>40223</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C62" s="7">
+        <v>40230</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" s="7">
+        <v>40248</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C64" s="7">
+        <v>40251</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="7">
+        <v>40255</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C66" s="7">
+        <v>40272</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C67" s="7">
+        <v>40288</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C68" s="7">
+        <v>40294</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="307">
   <si>
     <t>DIARIO</t>
   </si>
@@ -840,13 +840,141 @@
   </si>
   <si>
     <t xml:space="preserve">Estar al servicio de la verdad, una obligación ineludible para la prensa </t>
+  </si>
+  <si>
+    <t>Falta de liderazgo de Lugo deja dudas sobre la captura de los delincuentes del EPP</t>
+  </si>
+  <si>
+    <t>EPP - Ley de estado de excepción - medidas adoptadas</t>
+  </si>
+  <si>
+    <t>La falta de medidas adoptadas por el Poder Ejecutivo para derrotar al EPP luego de la promulgacion de la ley de estado de excepcion de varios estados del país</t>
+  </si>
+  <si>
+    <t>Plantea nuevamente la falta de liderazgo de Lugo junto a sus ideas poco claras. Además de dejar instalada las "verdaderas intenciones" que puede tener Lugo con respecto al EPP y por qué aun no se lo logró derrotar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al hacer tan poco en un año, el presidente Lugo queda en deuda con el país </t>
+  </si>
+  <si>
+    <t>Informe anual - Fernando Lugo - Congreso</t>
+  </si>
+  <si>
+    <t>Sobre el informe presentado por Lugo ante el Congreso sobre lo hecho durante los primeros doce meses de gobierno</t>
+  </si>
+  <si>
+    <t>Editorial que plantea las falencias de lo hecho por el gobierno de Lugo ante lo expuesto en el Congreso. Se vuelve a mencionar la idea del asistencialismo y la busqueda de caudal de votos a través de la entrega de planes sociales. Se dejó planteado nuevamente la idea de que el presidente "habla mucho y hace poco" que "edulcora la realidad"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El gobierno carece de argumentos para creerle que derrotará a la pobreza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pobreza - declaración - Ministro de Hacienda </t>
+  </si>
+  <si>
+    <t>Criticas al anuncio por parte del Ministro de Hacienda de que el objetivo del gobierno de Fernando Lugo es reducir la pobreza un 50% para el año 2013</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Muy interesante ya que se menciona la idea de que el gobierno de Lugo ya perdio credibilidad y confianza en la población según el diario. Deja planteado que no se está ante un gobierno serio y responsable sino poco transparente y poco eficiente. Además se expresa: "Si se actúa por el mero afán de declarar una intención rimbombante sin el sustento de la capacidad cierta de cumplir, se cae en la pura demagogia, un instrumento de regímenes que solo buscan distraer la atención para encubrir su incompetencia".</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Este es el momento de una autocrítica del Gobierno para superar sus gruesos errores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autocrítica - Cambios - gestión </t>
+  </si>
+  <si>
+    <t>Se plantea que el gobierno debería realizar ciertos cambios en su gestión si quiere solucionar los problemas sociales y políticos que atañen al país</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El país necesita que el Gobierno incremente su capacidad de gestión </t>
+  </si>
+  <si>
+    <t>Crecimiento económico - políticas públicas - pobreza</t>
+  </si>
+  <si>
+    <t>A pesar del auge en el comercio de la soja y la carne y en el sector de la contrucción, el problema de la pobreza y la indigencia aun son muy importantes</t>
+  </si>
+  <si>
+    <t>Vuelve a mencionar la idea del cambio para decir que aun permanecen los problemas en relacion a la pobreza y la integridad social. Además deja entrever que el gobierno no sabe lo que hace planteando "improvisaciones y desprolijidades".</t>
+  </si>
+  <si>
+    <t>Editorial que plantea que el gobierno de Lugo no tiene un proyecto de gobierno, designo a funcionarios que no tenian experiencia para esos cargo, " hay ineptitud, desprolijidad y hasta la persistencia de los viejos vicios de corrupción y nepotismo". La editorial tiene un fuerte tono prescriptivo y un título interesante para el análisis</t>
+  </si>
+  <si>
+    <t>Pobreza - Tekoporá - Secretaría de Acción Social</t>
+  </si>
+  <si>
+    <t>A pesar del aumento de beneficiarios de planes sociales promovidos por el gobierno, el nivel de pobreza e indigencia sigue creciendo y se mantiene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hace una crítica en relación al programa asistencialista Tekoporá. Si bien no es una crítica dirigida especialmente a Lugo, se menciona su programa con un tono prescriptivo aludiendo que de ésta manera no se resolverá el problema de la pobreza en Paraguay. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los dos años de vaivenes políticos no impiden el crecimiento de la economía </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dos años de gestión - economía - política </t>
+  </si>
+  <si>
+    <t>Hace un balance de los dos años de gestión de Lugo, realizando proyecciones económicas y políticas a futuro</t>
+  </si>
+  <si>
+    <t>Lo interesante en esta editorial refiere a lo "no resuelto" aun por Lugo lugo de dos años de gestión, y la incapacidad que refleja la editorial de generar alianzas y diálogo con otros sectores políticos y con partidos al interior de su propia Alianza. "Sus problemas íntimos, su creencia original de que podía gobernar sin los partidos políticos y la influencia de un pequeño entorno de izquierda, hicieron que Lugo generara decepciones, cometiera errores estratégicos y perdiera el tiempo".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El asistencialismo de la SAS es pernicioso porque carece de estímulos para trabajar </t>
+  </si>
+  <si>
+    <t>La reforma estructural del Ejecutivo es muy necesaria, pero para mejorar su eficiencia</t>
+  </si>
+  <si>
+    <t>Reforma estructural - Administración Pública - Poder Ejecutivo</t>
+  </si>
+  <si>
+    <t>Sostiene que es necesario un cambio estructural en el Poder Ejecutivo, más precisamente en el funcionamiento de la Administración pública</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo es útil cuando se menciona que la reforma del ejecutivo tiene que responder a un modelo de país y, en este caso, el gobierno de Lugo no lo tiene ya que "posee una conformacion muy heterogenea y anárquica y tampoco sabe hacia donde se dirige". </t>
+  </si>
+  <si>
+    <t>Tras la incertidumbre, ahora es el momento de trabajar por la buena salud de la República</t>
+  </si>
+  <si>
+    <t>Fernando Lugo - problemas de salud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El camino que debe seguir el gobierno paraguayo lugo de atravesada la dificultad de salud sufrida por el presidente. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo interesante de esta editorial refiere a las opiniones que esboza el diario en relacion a las amenazas de remocion del presidente ante sus problemas de salud. Esta bueno para pensar como entendían en este momento la apelacion a algun tipo de maniobra "constitucional" de la oposicion para alzarse con el poder. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,6 +1000,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -930,7 +1065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -955,6 +1090,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1237,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2788,216 +2926,342 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
+      <c r="B69" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C69" s="7">
+        <v>40295</v>
+      </c>
       <c r="D69" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="E69" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" s="7">
+        <v>40361</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C71" s="7">
+        <v>40362</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C72" s="7">
+        <v>40370</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C73" s="7">
+        <v>40398</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C74" s="7">
+        <v>40401</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C75" s="7">
+        <v>40405</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C76" s="7">
+        <v>40446</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C77" s="7">
+        <v>40457</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="78" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="A78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
     </row>
     <row r="81" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
     </row>
     <row r="83" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
     </row>
     <row r="84" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
     </row>
     <row r="85" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
     </row>
     <row r="87" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
     </row>
     <row r="89" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="391">
   <si>
     <t>DIARIO</t>
   </si>
@@ -969,12 +969,277 @@
   <si>
     <t xml:space="preserve">Lo interesante de esta editorial refiere a las opiniones que esboza el diario en relacion a las amenazas de remocion del presidente ante sus problemas de salud. Esta bueno para pensar como entendían en este momento la apelacion a algun tipo de maniobra "constitucional" de la oposicion para alzarse con el poder. </t>
   </si>
+  <si>
+    <t>La política que hoy se acepta es la que acorta la brecha de las desigualdades sociales</t>
+  </si>
+  <si>
+    <t>Democracia - elecciones municipales - ciencia política</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analiza el rol de la política y de la teorización de la misma ante las dos últimas elecciones municipales.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vuelve a mencionar la idea del cambio "frustrado" o inconcluso. "Pero se la ha vaciado en el poder. Al representar las expectativas de la mayoría, su falta de implementación conduce a la frustración. Los nuevos rostros de la política repiten los mismos vicios de los gobiernos anteriores. Y con la grave consecuencia de profundizar los problemas. Los de abajo siguen igual o peor que antes".
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un estado es más que la burocracia, la Policía y las Fuerzas Armadas </t>
+  </si>
+  <si>
+    <t>Policía y Fuerzas Armadas - modernización - infraestructura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se hace una crítica a las intenciones de Lugo y su gobierno en relacion al gasto que van a destinar a la Policía y las Fuerzas Armadas en relación a su rearme armamentista y modernización. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vuelve a mencionar la idea del "buen estadista" y qué cosas debería realizar. En este caso, Lugo no lo es y se plantea que Lugo no tiene idea de las necesidades prioritarias de la nacion y de la "radiografía nacional". Es decir, se vuelve a mencionar, con esta crítica, la falta de preparacion política y de experiencia en la administracion pública de Lugo y su gobierno. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para que el crecimiento beneficie al país, necesitamos un gobierno eficiente, obras y equidad social </t>
+  </si>
+  <si>
+    <t>Balance - Ano 2010 - problemáticas pendientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realiza un balance de lo hecho, o no, durante el año 2010 por el gobierno de Fernando Lugo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial interesante que hace mención a los problemas que Lugo no pudo resolver durante el año 2010 a pesar del crecimiento económico. Deja entredicho la incapacidad de darle solucion, de generar alianzas políticas con otros sectores, que no cuenta con un plan de gobierno ya que se menciona la idea de improvisación, y de un actitud demagogica ya que se realizaron promesas que aun no se cumplieron. </t>
+  </si>
+  <si>
+    <t>Reforma agraria - Indert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El mayor obstáculo que afronta hoy la reforma agraria es el propio Lugo </t>
+  </si>
+  <si>
+    <t>El problema de la reforma agraria, la situacion de la población rural y las amenazas en relacion al cambio de mando en el Indert</t>
+  </si>
+  <si>
+    <t>Se plantea a la reforma agraria como la deuda mas importante que tiene Lugo para con el pueblo paraguayo. E incluso se lo señala directamente al presidente como el principal obstaculo para que una reforma pueda darse. Claramente visualizado en el título</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el problema de la tierra, lo único que el Gobierno demuestra es incapacidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reforma agraria - invasion propiedad privada - </t>
+  </si>
+  <si>
+    <t>La problemática del campo se acrecienta con el aumento de las invasiones a propiedades privadas por parte de los campesinos como métodos de protesta por la reforma agraria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se vuelve a utilizar al problema de la reforma agraria para dejar entrever la "incapacidad" de Lugo para dirigir el gobierno, además de "las promesas incumplidas" y la falta de una "verdadera intención" por parte de Lugo de llevar adelante una reforma agraria. El título es muy interesante y la sutil critica a lo largo de toda la nota. </t>
+  </si>
+  <si>
+    <t>Los viajes del presidente son gastos improductivos que pagan los ciudadanos</t>
+  </si>
+  <si>
+    <t>Fernando Lugo - Política exterior - viajes presidenciales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre los viajes realizados por Lugo a Taiwán y Vietnam. Además sobre su política exterior y su economía exportadora </t>
+  </si>
+  <si>
+    <t>En esta editorial se hace mencion a otra critica recurrente que refiere a la incapacidad del gobierno de Lugo en terminos de política exterior. Se plantea la falta de voluntad política o ineficiencia , además de un "estilo de administración mendicante" .  "A no ser que sea para proyectar la imagen de un gobierno tan inconsecuente, mendaz y a veces hasta servil, a tal punto de desconocer nuestras prioridades nacionales y aun exponer nuestra soberanía".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al presidente Lugo le sobra poco tiempo para cumplir sus promesas electorales </t>
+  </si>
+  <si>
+    <t>Gestión de gobierno - planes - problemáticas</t>
+  </si>
+  <si>
+    <t>Se hace un recuento de los problemas que persisten en Paraguay a dos años  y medio del fin del mandato de Lugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muy importante para el análisis ya que se mencionan los problemas no resueltos por Lugo, además de apelar a citar lo expuesto por Lugo cuando asumió para demostrar que no cumplió con sus promesas. Idea que se repite en muchas editoriales. </t>
+  </si>
+  <si>
+    <t>La inacción y la demagogia gubernamentales comienzan a generar tensiones en el pueblo</t>
+  </si>
+  <si>
+    <t>Inacción - gestión gubernamental - demagogia</t>
+  </si>
+  <si>
+    <t>Ante el cumplimiento de los tres años de gestión de Lugo, esta editorial realiza una critica importante a los problemas que ún persisten en la administración de Lugo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El título ya marca el tono de la editorial. Se vuelven a mencionar las "promesas incumplidas", la demagogia, la inacción, la falta de un plan de gobierno, la idea de que se "apaga incendios" antes que adelantarse a los hechos y la falta de gobernabilidad. </t>
+  </si>
+  <si>
+    <t>Se cuestiona desde el poder al “Estado Papá”, pero se apoya al “Estado Policial”</t>
+  </si>
+  <si>
+    <t>"Estado papá" - "Estado policial" - Gobierno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ante los dichos de un secretario de gobierno, por la expectativa y la necesidad de ciertos sectores de la sociedad, de la ayuda economica brindada por el estado, se desataron varias críticas desde otros sectores y del mismo diario en esta editorial. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interesante ya que a partir de los comentarios de un funcionario de Lugo que hace mención a la idea del "estado papá", el diario aprovecha para señalar todos los problemas no resueltos por el gobierno, y aludiendo nuevamente a la "política asistencialista de Lugo" y la aparición de este "estado policial", es decir, "tutor de los sectores privilegiados, represivo y además inútil para reducir la delincuencia". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Gobierno lleva al país a una imprevisibilidad que atenta contra la economía </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Lugo - imprevisibilidad - funcionarios de gobierno </t>
+  </si>
+  <si>
+    <t>Las amenezas constantes de cambios en las secretarias o en los ministerios hacen que el gobierno de Lugo resulte imprevisible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantea la impresibilidad de Lugo, dejandolo ver como una figura que actúa ante presiones ajenas e internas de la coalición, que genera dudas, inconsecuencias y como un político débil. </t>
+  </si>
+  <si>
+    <t>No se puede desperdiciar el tiempo discutiendo sobre la reelección presidencial</t>
+  </si>
+  <si>
+    <t>Reelección presidencial - reforma consitucional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empiezan a surgir los primeros rumores en relacion a los intereses del gobierno de Lugo, en reformar la constitucion para lograr una reelección presidencial. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial muy crítica con Lugo y su gobierno ya que plantea que se focaliza en cuestiones políticas y clientelistas antes de brindarle atencion a problemas prioritarios en Paraguay. "la percepción mayoritaria es que la gestión resulta deficiente. Peor aún: repite y profundiza los vicios de sus antecesores, en corrupción al premiar lealtades y relegar la capacidad, y en la antidemocrática exclusión por motivos políticos. A esto, Lugo agregó la improvisación y el nepotismo impúdico". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Secretaría de la Función Pública ampara a los parientes del presidente </t>
+  </si>
+  <si>
+    <t>Secretaría de la Función Pública - nepotismo - Fernando Lugo</t>
+  </si>
+  <si>
+    <t>Se realiza una crítica a la Secretaría de la Función Pública por no controlar el nombramientos de personas cercanas a Lugo en la administración pública paraguaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es importante por el título y la repetición de la idea de nepotismo por parte de Lugo. Plantea semejanzas entre Lugo y los gobiernos anteriores y el nombramiento de personas no idóneas en ciertos puestos gubernamentales. </t>
+  </si>
+  <si>
+    <t>Es la hora de consolidar el crecimiento, no de plantear la reelección presidencial</t>
+  </si>
+  <si>
+    <t>Reelección presidencial - Fernando Lugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El intento por parte de algunos sectores del gobierno de intentar lograr la reelección de Lugo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se vuelve a mencionar el intento de reelección de Lugo, comparandolo con los gobiernos colorados anteriores. Además vuelve a mencionar la falta de resultados positivos durante sus tres años de gestión y recordando que antes de asumir, el ex obispo se pronunciaba en contra de una posible reelección.  </t>
+  </si>
+  <si>
+    <t>La informalidad de Lugo arriesga la estabilidad política y el crecimiento económico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reelección presidencial - reforma consitucional - enmienda política </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El intento de sectores de la izquierda que forman parte de la APC de lograr una enmienda para que Lugo pueda ser reelecto, a través del deseo popular. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se vuelve a discutir el intento de la reelección por parte de sectores de la izquierda y se pone en discusion la posición tomada por Lugo ya que no lo rechaza directamente, se lo compara con Stroessner cuando se menciona que "aceptará la voluntad del pueblo". Además, vuelven a mencionarse la falta de resultados positivos durante su gestión; en materia económica y política. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con los cambios, Lugo no apuesta a favor del país sino de sus intereses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambios en el gabinete - reelección presidencial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El cambio de dos ministros por parte de Lugo desató numerosas críticas tanto al interior de su gobierno (principalmente con el PLRA) y hacia afuera, debido a las opiniones que estos ministros salientes tenían en relacion a la busqueda de una reelección presidencial </t>
+  </si>
+  <si>
+    <r>
+      <t>Nuevamente el tema de la reelección en el tapete. La idea de "afan de poder", y de cerrar el círculo en torno a la alianza con sectores izquierdistas. "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con la destitución de los dos ministros, a los que acusa de hacer proselitismo desde sus cargos y están en contra de su reelección, el presidente Lugo muestra su carta verdadera: todos los que se oponen al continuismo serán radiados como pide la izquierda, mientras él -para no caer en contradicción supuestamente- seguirá haciéndose el inocente. Es lo que se llama una postura ética de fachada". </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">El presidente Lugo tiene que dejar de lado su cinismo y definirse ya </t>
+  </si>
+  <si>
+    <t>Fernando Lugo - reelelección presidencial- ministerios</t>
+  </si>
+  <si>
+    <t>Ante la destitucion de dos ministros del gobierno de Lugo, la editorial cuestiona que el presidente no se exprese publicamente y tome una posición definitiva en relación a los rumores e intentos de lograr una reelección</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este caso, en el tema de la reelección, la crítica es directamente a Lugo, tratandolo de mentiroso, de que falta a la verdad, no se preocupa por los "verdaderos intereses" paraguayos. Elimina a aquellos funcionarios que cuestionan la reelección, persigue un afán de poder y antepone intereses personales frente a objetivos generales. Vuelve a compararlo con Stroessner, en esta idea de "aceptar el sacrificio" si la sociedad dispone el sí a la reelección. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El parlamento se juega el desafío de salvar o de quebrar la institucionalidad </t>
+  </si>
+  <si>
+    <t>Parlamento - reelección - enmienda constitucional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre la decisión que tomará el Parlamento paraguayo en relación a aaceptar la enmienda constitucional en relacion a la reelección de Fernando Lugo </t>
+  </si>
+  <si>
+    <t>Vuelve a retomar el tema de la reelección presidencial. Si bien no ataca directamente a Lugo, menciona ideas como el "vitaliciado presidencial", además de que a Lugo lo sedujeron las mieles del poder y esto puede atentar contra la "debil democracia paraguaya". Además aceptar una posible reelección de Lugo llevaría a "retrotraer al país a la nefasta época del patrimonialismo dictatorial".</t>
+  </si>
+  <si>
+    <t>Lugo, del crecimiento hacia la desaceleración económica y la tensión política y social</t>
+  </si>
+  <si>
+    <t>El informe anual presentado por Lugo ante el Congreso paraguayo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial que critica el informe anual presentado por Lugo ante el congreso haciendo un listado de los problemas que aun no se han resuelto en su gestión y cuáles son las cosas que el gobierno debería hacer. Además lo menciona como "el gobierno del cambio" y cuestiones como la reforma agraria son sólo demagogia. Además al finalizar vuelve a mencionar el tema de la reelección "infesta de contradicción, que no tolerará a "aquellos que tienen expectativa de un liderazgo autoritario", con sus pretensiones de reelección".  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La ambigüedad del gobierno en el conflicto del Alto Paraná puede empeorar la situación </t>
+  </si>
+  <si>
+    <t>Reforma agraria - campesinos - violencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El aumento de la violencia en las zonas campesinos agrava el problema en relación a la reforma agraria. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo relevante en esta editorial es la sutil duda que deja planteado el diario en relación a un posible vinculo entre el sector gubernamental con aquellos que protestan en  zonas campesinas en relación a una reforma agraria, aunque no se menciona el nombre de Lugo directamente. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hace falta que el gobierno de Lugo transforme el crecimiento en un desarrollo sustentable </t>
+  </si>
+  <si>
+    <t>Crecimiento económico - desarrollo sustentable - Fernando Lugo</t>
+  </si>
+  <si>
+    <t>Realiza una evaluación de lo hecho o no por el Gobierno de Fernando Lugo durante sus tres años de gestión.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial que hace alusión a "Los que comenzaron con improvisaciones. Las ineptitudes se agravaron con el nepotismo y con el patrimonialismo de los gobiernos anteriores. A la vez, con una visible falta de liderazgo del presidente y su inescrutable veleidad personal". En esta oración se ejemplifica las principales críticas que este diario venía haciéndole al gobierno de Lugo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un cambio pensado para favorecer al Frente Guasú y no a la ciudadanía </t>
+  </si>
+  <si>
+    <t>Ministerio del Interior - Frente Guasú - coyuntura política</t>
+  </si>
+  <si>
+    <t>El cambio al frente del Ministerio del Interior por un referente del Frente Guasú, sector que alienta fuertemente por la reelección de Lugo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este cambio de ministro vuelve a poner en el tapete la idea de la reelección de Lugo a partir del apoyo de sectores de la izquierda que quieren estar bien posicionados politicamente al momento de la elección en el 2013. </t>
+  </si>
+  <si>
+    <t>El perverso juego de la falta de definición en los cambios perjudica los intereses del país</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,6 +1272,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1065,7 +1337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1091,6 +1363,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1375,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3133,308 +3411,606 @@
         <v>306</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
+      <c r="B78" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C78" s="7">
+        <v>40495</v>
+      </c>
       <c r="D78" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-    </row>
-    <row r="79" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-    </row>
-    <row r="80" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="81" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-    </row>
-    <row r="86" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-    </row>
-    <row r="87" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-    </row>
-    <row r="88" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-    </row>
-    <row r="89" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-    </row>
-    <row r="90" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-    </row>
-    <row r="92" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E78" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C79" s="7">
+        <v>40540</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C80" s="7">
+        <v>40546</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C81" s="7">
+        <v>40575</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C82" s="7">
+        <v>40610</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C83" s="7">
+        <v>40613</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C84" s="7">
+        <v>40624</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C85" s="7">
+        <v>40630</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C86" s="7">
+        <v>40647</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C87" s="7">
+        <v>40658</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C88" s="7">
+        <v>40661</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C89" s="7">
+        <v>40670</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C90" s="7">
+        <v>40695</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C91" s="7">
+        <v>40698</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C92" s="7">
+        <v>40712</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C93" s="7">
+        <v>40713</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C94" s="7">
+        <v>40725</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C95" s="7">
+        <v>40727</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C96" s="7">
+        <v>40731</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C97" s="7">
+        <v>40769</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C98" s="7">
+        <v>40781</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C99" s="7">
+        <v>40783</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3443,7 +4019,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3452,7 +4028,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3461,7 +4037,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3470,7 +4046,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3479,7 +4055,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3488,7 +4064,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3497,7 +4073,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3506,7 +4082,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3515,7 +4091,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3524,7 +4100,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3533,7 +4109,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="454">
   <si>
     <t>DIARIO</t>
   </si>
@@ -1233,6 +1233,195 @@
   </si>
   <si>
     <t>El perverso juego de la falta de definición en los cambios perjudica los intereses del país</t>
+  </si>
+  <si>
+    <t>Gabinete de ministros - Fernando Lugo - Cambios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La amenaza constante que sienten determinados ministros ante los rumores de cambios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial que plantea la incertidumbre que genera Lugo a la hora de administrar su gabinete de ministros, además de que plantea  poca seriedad y una imagen de impresibilidad del presidente Lugo. Además deja entrever que estos cambios responden a cuestiones políticas y no por razones de mejoras en las administraciones. Vuelve aplantear indirectamente la contradicción de Lugo entre lo que dice y lo que hace. </t>
+  </si>
+  <si>
+    <t>Este gobierno tampoco tomó en serio el problema de la tierra pese a las promesas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reforma agraria - catastro nacional </t>
+  </si>
+  <si>
+    <t>El mantenimiento de la problemática de la reforma agraria se agrava por la ausencia de un catastro nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo mas interesante es el título de la editorial y la tonalidad que utiliza a lo largo de la misma. Se menciona nuevamente las promesas incumplidas de Lugo en relación a este tema y su falta de seriedad al no cumplir lo que había dicho. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urge que la política sirva al pueblo y no a los intereses mezquinos de los políticos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democracia - clase política - La política </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habla sobre qué es la verdadera política y cuál debería ser el rol que debieran cumplir los políticos para representar correctamente a los ciudadanos que los votaron. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es una editorial que plantea una crítica al gobierno de Lugo de manera muy inteligente ya que no lo menciona directamente pero sí plantea ideas como: "en nuestro país, a pesar de que la mayoría del pueblo ha votado por la alternancia y no por la tradición, el ejercicio de la política sigue con el más descarado y anticuado patrimonialismo. Es decir, el sistema por el cual quienes llegan al poder se apropian de la cosa pública, en exclusivo uso del interés personal, sectorial, partidario o de la clase gobernante". Es decir, vuelve a jugar con la idea del cambio y la comparacion de Lugo con los gobiernos anteriores dejando entrever que no hay muchas diferencias. </t>
+  </si>
+  <si>
+    <t>Las advenedizas que emergen denuncian la carencia e ineptitud de los partidos políticos</t>
+  </si>
+  <si>
+    <t>Partidos políticos - Candidaturas - Outsiders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ante las proximas elecciones paraguayas, la mayoría de las candidaturas que se barajan en el interior de los principales partidos políticos responden a figuras que aperecen por fuera de la clase política tradicional. </t>
+  </si>
+  <si>
+    <t>Se critica la intencion de los partidos políticos de promover candidaturas de outisiders, haciendo alusión de que carecen de la correcta formacion necesaria para gobernar como así también de su capacidad de "estadista" tan mencionada en este diario. Esto deja entrever las reservas que tiene el diario en relación a Lugo y su llegada al poder sin haber tenido ninguna experiencia previa en la política. Editorial para tener presente ya que las críticas que se realizan son sutiles pero interesantes.</t>
+  </si>
+  <si>
+    <t>Lugo y el Congreso hacen todo para destruir lo poco que se ha logrado en el país</t>
+  </si>
+  <si>
+    <t>Poder Ejecutivo - Poder Legislativo - Conflicto</t>
+  </si>
+  <si>
+    <t>La guerra que se mantiene presente entre el presidente Fernando Lugo y el Congreso paraguayo en cuestiones de intereses políticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es importante por el título que presenta además de que se menciona al Poder Ejecutivo como un "Poder ejercido por un presidente reaccionario, sin la visión de estadista y con reflejos plenos de anacronismo y de infantilismo". Además se pone en duda el estado "emocional o espititual de Lugo" ya que se cuestiona las maneras en las que toma las decisiones de desplazar a un funcionario de su cargo. Además se menciona la irracionalidad, que presenta algun "desequilibrio espiritual" y una postura de soberbia al no querer gobernar junto a alianzas con otros partidos. Lo interesante es que a pesar de que sea una crítica al poder político en general, se hace mucho hincapié en la figura del presidente y cuando se lo menciona se hace alusion a todo su período presidencial, y no a los últimos meses en los que podría haberse incrementado el problema. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La incompetencia del Gobierno en el manejo de las relaciones internacionales está a la vista </t>
+  </si>
+  <si>
+    <t>Relaciones internacionales - Mercosur - Cumbre Iberoamericana</t>
+  </si>
+  <si>
+    <t>La incapacidad del gobierno de Lugo en lo que a las relaciones internacionales se refiere, en especial, con sus socios del Mercosur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se vuelve a poner en el tapete la "falta de capacidad diplomática" del gobierno de Fernando Lugo debido a la no asistencia de sus principales socios del Mercosur en la Cumbre organizada por el Paraguay. Además su título es importante como su tono. Se menciona "ratificar la incompetencia del Gobierno para manejar los asuntos de verdadera importancia" dando por aludido no sólo este tema sino otros también. </t>
+  </si>
+  <si>
+    <t>El estado de excepción solo sirve hasta ahora para mostrar incapacidad para vencer al EPP</t>
+  </si>
+  <si>
+    <t>Estado de excepción - EPP</t>
+  </si>
+  <si>
+    <t>Sobre el estado de excepcion aplicado por el presidente Lugo en pos de lograr detener a los miembros del EPP</t>
+  </si>
+  <si>
+    <t>Lo mas relevante en esta editorial es cuando al final se hace referencia a la incapacidad del gobierno de Lugo de terminar con el problema del EPP y se menciona "Si no lo alcanza, no habrá excusa que valga: su descrédito será mayor y se acrecentará más la sospecha de que su verdadera intención no es encontrar al EPP, sino tan solo hacer que el tiempo transcurra", dejando entrever esa sospecha que luego se utilizará como uno de los argumentos para su destitución, aquella que aludía a la relación entre Lugo y el EPP.</t>
+  </si>
+  <si>
+    <t>El necio enfrentamiento entre el Ejecutivo y los liberales perjudica al país</t>
+  </si>
+  <si>
+    <t>Poder ejecutivo - Partido Liberal - APC</t>
+  </si>
+  <si>
+    <t>Los continuos enfrentamientos entre el Poder Ejecutivo, más precisamente el presidente Fernando Lugo y sus allegados con los principales representantes del PLRA, partido que forma parte de la Alianza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se hace mención a las diferencias y conflictos entre Lugo y el vicepresidente y otros líderes importantes del PLRA. Además se menciona "su política errática y su absoluta falta de capacidad para integrar un gobierno meritocrático son problemas que alientan la disgregación. Su desprolijidad, originada en una práctica parroquiana y jerárquica, le lleva a una política autosuficiente, sin serlo. A raíz de esa incultura y deficiencia orgánica, ejerce el poder sin buscar la mayoría en las representaciones, tan necesaria para la gobernabilidad democrática". Se vuelve a mencionar la incapacidad de Lugo de generar alianzas políticas con otros sectores. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es necesario apostar a un perfil de estadista </t>
+  </si>
+  <si>
+    <t>Candidatos - Presidencia - partidos políticos</t>
+  </si>
+  <si>
+    <t>Sobre las caracteristicas que debe reunir un buen candidato presidencial y el rol que deben jugar los partidos políticos para ello</t>
+  </si>
+  <si>
+    <t>En el título se vuelve a hacer mención a esta idea del "estadista" que debe conocer las problematicas sociales y tener una buena formación intelectual teórica y práctica. Además se expresa que debe contar con una "clara trayectoria moral" que de cierto grado de responsabilidad y honestidad a la hora de gobernar. En esta editorial se hace referencia que hasta ese momento (incluido Lugo) no se siguió con estos ideales. Por ende Lugo, no responde a ninguna de estas características.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La preocupación por lo social tiene fuerte dosis proselitista </t>
+  </si>
+  <si>
+    <t>Pobreza - Campaña proselitista - Fernando Lugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El presidente Lugo le ha solicitado a sus funcionarios que actuen en pos de mejorar el factor social. </t>
+  </si>
+  <si>
+    <t>Para el diario este pedido del presidente tiene un carácter proselitista debido a que se solicita después de tres años de gestión. Vuelve a mencionar que Lugo se quedó en el discurso ya que plantea "De haber tenido un rumbo definido en la materia -lo cual hubiera implicado que la preocupación pasase del ámbito del discurso al de los hechos, con resultados que hoy hubieran estado a la vista".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay que impedir que el electoralismo paralice al país </t>
+  </si>
+  <si>
+    <t>Elecciones 2013 - campañas - clase política</t>
+  </si>
+  <si>
+    <t>Hace un planteo de cuales son las problemáticas que deberían ser tratadas en 2012 en vez de realizar campañas electorales</t>
+  </si>
+  <si>
+    <t>Esta bueno para pensar qué piensa el diario al inicio del año sobre el rol que debe jugar la clase política para después ver cómo actúa al momento del juicio político de Lugo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La ineficiencia de Aduanas es responsabilidad del Ejecutivo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aduanas - Fernando Lugo - corrupción </t>
+  </si>
+  <si>
+    <t>Dudas y críticas en relación al cambio que hubo en la figura del director de Aduanas durante el mandato de Fernando Lugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En esta editorial se pone en cuestión cuáles fueron los verdaderos motivos que tuvo Lugo para cambiar al director de Aduanas cuando el que se encontraba en el cargo estaba realizando "una buena gestión". Deja entrever una sospecha de corrupción y nepotismo en torno a la figura del ex presidente. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La desidia gubernamental facilita los abusos externos </t>
+  </si>
+  <si>
+    <t>Medias proteccionistas - Argentina - Importaciones</t>
+  </si>
+  <si>
+    <t>Sobre la medida tomada por el gobierno argentino de gravar las importaciones atenta contra los cimientos mismos del Mercosur.</t>
+  </si>
+  <si>
+    <t>Es interesante porque tanto el diario ABC como éste hacen hincapié en esta noticia para manifestar la poca capacidad de Lugo de ejercer una buena política exterior, en especial, con sus socios del Mercosur. Es ineteresante en esta nota como menciona que Lugo "no es un hombre de Gobierno" ya que "En los asuntos del Estado no tener capacidad de pensar en perspectiva y planear acciones ante eventuales contingencias puede ser fatal. El verdadero hombre de Estado es aquel que no solamente reacciona ante los hechos, sino que tiene la inteligencia de adelantarse a las circunstancias mismas y de reconocer los daños y beneficios que puede acarrear la situación".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democracia de baja calidad y con muchas incertidumbres </t>
+  </si>
+  <si>
+    <t>Democracia - Calidad - Poderes del Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luego de 28 años de la culminación del golpe militar, en la nota se hace un balance en relación a la calidad de la democracia en Paraguay y al desempeño de los tres poderes del estado. </t>
+  </si>
+  <si>
+    <t>Es interesante porque hace una revisión de la calidad democrática en Paraguay que puede servir luego para el análisis del juicio político. Cuando se analiza al poder ejecutivo, se vuelven a mencionar cuestiones como la corrupción, el nepotismo, la ineptitud y la carencia de "estadistas". tan importante para este diario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay injustificada dilación para cumplir una orden de desalojo en Ñacunday </t>
+  </si>
+  <si>
+    <t>Ñacunday - desalojo - carperos</t>
+  </si>
+  <si>
+    <t>Sobre la demora en la concreción de la orden de desalojo sobre unos carperos que ocupaban terrenos privados en la zona de Ñacunday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta editorial sólo me parece relevante cuando deja entrever una leve sospecha sobre el gobierno ante la demora de efectuar la orden de desalojo y sobre una acción dispuesta por el gobierno que pretendía contar con la misma participación de esos carperos. </t>
+  </si>
+  <si>
+    <t>Es obligación de los órganos del estado ofrecer seguridad sin favorecer a ningún sector</t>
+  </si>
+  <si>
+    <t>Ñacunday - carperos - violencia</t>
+  </si>
+  <si>
+    <t>Sobre la capacidad o no del Estado, más bien del gobierno, de garantizar la seguridad de los ciudadanos paraguayos, tanto los carperos como los colonos.</t>
+  </si>
+  <si>
+    <t>Lo relevante en esta nota, es el dejo de duda que deja sobre el gobierno de Lugo en relación a favorecer a los "violentos" que ocupan tierras en vez de ejecutar una orden de desalojo que tiene tiempo siendo promulgada</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1369,6 +1558,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1653,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3894,7 +4086,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>6</v>
       </c>
@@ -3907,216 +4099,436 @@
       <c r="D99" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-    </row>
-    <row r="100" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-    </row>
-    <row r="102" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-    </row>
-    <row r="103" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-    </row>
-    <row r="104" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-    </row>
-    <row r="105" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-    </row>
-    <row r="106" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-    </row>
-    <row r="107" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-    </row>
-    <row r="108" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-    </row>
-    <row r="109" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-    </row>
-    <row r="110" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-    </row>
-    <row r="111" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-    </row>
-    <row r="113" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-    </row>
-    <row r="114" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
+      <c r="E99" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C100" s="7">
+        <v>40812</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="232.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C101" s="7">
+        <v>40826</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C102" s="7">
+        <v>40835</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="279" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C103" s="7">
+        <v>40843</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C104" s="7">
+        <v>40845</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C105" s="7">
+        <v>40858</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="231.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C106" s="7">
+        <v>40861</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C107" s="7">
+        <v>40883</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C108" s="7">
+        <v>40905</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C109" s="7">
+        <v>40910</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C110" s="7">
+        <v>40917</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C111" s="7">
+        <v>40939</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C112" s="7">
+        <v>40941</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C113" s="7">
+        <v>40943</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C114" s="7">
+        <v>40950</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="115" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
+      <c r="A115" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
     </row>
     <row r="116" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
     </row>
     <row r="118" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
     </row>
     <row r="120" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="494">
   <si>
     <t>DIARIO</t>
   </si>
@@ -1422,6 +1422,126 @@
   </si>
   <si>
     <t>Lo relevante en esta nota, es el dejo de duda que deja sobre el gobierno de Lugo en relación a favorecer a los "violentos" que ocupan tierras en vez de ejecutar una orden de desalojo que tiene tiempo siendo promulgada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay que evitar complicaciones y enfrentamientos estériles </t>
+  </si>
+  <si>
+    <t>Problemas económicos - conflicto rural - Gobierno</t>
+  </si>
+  <si>
+    <t>Se le solicita un mejor accionar al Gobierno para reducir los problemas economicos y coyunturales que afronta Paraguay en ese momento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo interesante en esta editorial es que asocia al Gobierno del presidente Lugo directamente con "estos grupos de presión" que violentan en las zonas rurales. "el propio presidente de la República da señales muy claras de haber contribuido activamente a avivar conflictos donde debió haber buscado soluciones institucionales, como el caso Ñacunday, que ayudó a instalar", "se ha agregado la expansión del conflicto rural promovido por el propio Ejecutivo, con su desembozado apoyo a un grupo de presión que opera al margen de todo miramiento institucional". Además de volver a mencionar que al Poder Eejecutivo como al resto de la clase política lo único que le interesa son las próximas elecciones presidenciales. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es necesario que el discurso del gobierno coincida con la acción </t>
+  </si>
+  <si>
+    <t>Ñacunday - Constitución - Presidente Lugo</t>
+  </si>
+  <si>
+    <t>Sobre los dichos del Presidente Lugo en relación a la manera en la que el conflicto de Ñacunday debe resolverse.</t>
+  </si>
+  <si>
+    <t>Es interesante el título y el tono de la editorial. Además, basa sus dichos en artículos constitucionales como para darle veracidad a las afirmaciones y al final, vuelve a mencionar la cuestión de que Lugo "afirma mucho pero hace poco", sumado a que vuelve a decir que el Gobierno de Lugo toma partido en favor de un sector en detrimento de otro. En este caso, de estos famosos grupos violentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La reaparición del EPP habla de la ineficacia del Gobierno </t>
+  </si>
+  <si>
+    <t>EPP - Gobierno - Violencia</t>
+  </si>
+  <si>
+    <t>Sobre el nuevo ataque emprendido por este grupo denominado EPP al establecimiento de un productor brasileño</t>
+  </si>
+  <si>
+    <t>Lo que se puede sacar de esta editorial es el título y el tono de la editorial, y además la relación que se establece ya mas claramente entre el gobierno de Fernando Lugo y este grupo denominado EPP que luego será un elemento fundamental para justificar la destitución. "Lo que la gente colige de la realidad que se presenta es que el Gobierno de Fernando Lugo no tiene la intención de combatir en serio a los que secuestran, extorsionan, asesinan y generan temor entre los pobladores que viven en su zona de influencia."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La reforma agraria fracasa por la falta de voluntad política </t>
+  </si>
+  <si>
+    <t>Reforma agraria - Indert - Voluntad política</t>
+  </si>
+  <si>
+    <t>La inacapacidad gubernamental de dar respuestas a los problemas de los campesinos sin tierra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es importante el título y la reiteración nuevamente en la comparación de la "facta de acción" del gobierno de Lugo que se asemeja a los gobiernos colorados anteriores, planteandolo como "falta de voluntad política". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El gobierno tiene que hacer cumplir las órdenes judiciales </t>
+  </si>
+  <si>
+    <t>Ordenamiento jurídico - desalojo - grupos campesinos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La necesidad de que el gobierno cumpla con el ordenamiento vigente en relacion a la detencion de los grupos campesinos que atentan contra propiedades privadas, manteniendo siempre el accionar jurídico. </t>
+  </si>
+  <si>
+    <t>Lo interesante en esta editorial es que plantea que el gobierno del presidente Lugo se comporta de maneras variadas dependiendo del sector campesino que esté involucrado y de acuerdo a determinados intereses políticos y económicos. Por ejemplo menciona "La disparidad de criterios es evidente: cuando se trata de agrupaciones con protectores dentro del Gobierno, se utilizan todas las estrategias posibles para dilatar el cumplimiento de una orden judicial; cuando son afines a movimientos campesinos no incluidos en el proyecto oficial, se actúa conforme a lo que debe hacerse en todos los casos".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El dinero público se usa sin sentido de responsabilidad </t>
+  </si>
+  <si>
+    <t>Dinero público - Ministerio de Interior - irresponsabilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre el abuso de dinero público por parte de ciertos funcionarios gubernamentales en la compra de bienes a precios irrisorios y sin hacer un relevamiento de los gastos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo que se puede utilizar de esta nota editorial es el título, y cuando se menciona que se "creía que el abuso de recursos públicos quedaba en manos de gobiernos colorados, ya no es así" haciendo alusión nuevamente a la similitud en los gobiernos. </t>
+  </si>
+  <si>
+    <t>Diputados de nuevo apuesta por el atraso y contra la gente</t>
+  </si>
+  <si>
+    <t>Metrobús - diputados - rechazo</t>
+  </si>
+  <si>
+    <t>Sobre el rechazo de diputados al proyecto de instauración de un Metrobús</t>
+  </si>
+  <si>
+    <t>Me parece útil esta editorial ya que se diferencia de la visión que tiene ABC sobre el proyecto del Metrobus. Releer para el análisis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los jóvenes muestran el rostro de la marginación campesina </t>
+  </si>
+  <si>
+    <t>Jóvenes - reforma agraria - desempleo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La incapacidad de los sucesivos gobiernos democráticos en dar respuestas a los problemas de los campesinos, en especial en lo competente a la reforma agraria. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menciona que los gobiernos han brindado discursos demagógicos en relación a este tema sin generar respuestas concretas para solucionarlos. No se hace una mención directa al gobierno de Fernando Lugo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este gobierno también abusa de su poder con el nepotismo </t>
+  </si>
+  <si>
+    <t>Nombramientos - Aduanas - nepotismo</t>
+  </si>
+  <si>
+    <t>Sobre el nombramiento de familiares de altos funcionarios de aduanas para ocupar determinados cargos públicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo interesante acá es que otra vez se vuelven sobre temas como el nepotismo en el gobierno de Lugo y la semejanza con los gobiernos colorados. La idea "del cambio" que quedó solo en promesas de campaña. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debilidad de aduanas en el combate a corrupción interna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aduanas - corrupción interna </t>
+  </si>
+  <si>
+    <t>La corrupción descubierta por la Fiscalía en el Aeropuerto de Ciudad del Este en el cobro de ciertos artículos importados</t>
+  </si>
+  <si>
+    <t>Lo que me parece relevante acá es que a pesar de que es un caso que cae sobre el funcionario responsable de Aduanas, en la nota se hace una relación directa por ser funcionario del gobierno de Lugo, es decir,  a pesar de que Lugo prometió honestidad y terminar con la corrupción en su gobierno pasan estas cosas...</t>
   </si>
 </sst>
 </file>
@@ -1843,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G122"/>
+  <dimension ref="A2:G172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4454,81 +4574,671 @@
         <v>453</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
+      <c r="B115" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C115" s="7">
+        <v>40952</v>
+      </c>
       <c r="D115" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-    </row>
-    <row r="116" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-    </row>
-    <row r="117" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-    </row>
-    <row r="118" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-    </row>
-    <row r="119" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-    </row>
-    <row r="120" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-    </row>
-    <row r="121" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-    </row>
-    <row r="122" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
+      <c r="E115" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C116" s="7">
+        <v>40958</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C117" s="7">
+        <v>40968</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C118" s="7">
+        <v>40975</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="217.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C119" s="7">
+        <v>40976</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C120" s="7">
+        <v>40990</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C121" s="7">
+        <v>40993</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C122" s="7">
+        <v>40998</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C123" s="7">
+        <v>41010</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C124" s="7">
+        <v>41017</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+    </row>
+    <row r="128" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+    </row>
+    <row r="129" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+    </row>
+    <row r="133" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+    </row>
+    <row r="134" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -2,29 +2,36 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\TESIS\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="631">
   <si>
     <t>DIARIO</t>
   </si>
@@ -1542,6 +1549,417 @@
   </si>
   <si>
     <t>Lo que me parece relevante acá es que a pesar de que es un caso que cae sobre el funcionario responsable de Aduanas, en la nota se hace una relación directa por ser funcionario del gobierno de Lugo, es decir,  a pesar de que Lugo prometió honestidad y terminar con la corrupción en su gobierno pasan estas cosas...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El cambio prometido se va transformando en frustración </t>
+  </si>
+  <si>
+    <t>Cambio - Fernando Lugo - gestión de gobierno</t>
+  </si>
+  <si>
+    <t>Hace un balance sobre casi los cuatro meses de gestión del presidnte Fernando Lugo</t>
+  </si>
+  <si>
+    <t>Editorial muy importante no sólo por el título sino tambien por su contenido. En ella se mencionan cuestiones como: Ineficiencia, improvisación, entiende a la democracia como el simple voto al igual que el resto de los políticos. Clientelismo político, nepotismo y además vuelve a jugar con la idea "del cambio prometido" que no se dió y esa "esperanza que generó su llegada al poder se opaca con una gestión irrelevante".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El gobierno de Lugo castiga de nuevo a los más pobres </t>
+  </si>
+  <si>
+    <t>Pobres - Aumentos en transporte - gobierno de Lugo</t>
+  </si>
+  <si>
+    <t>Las consecuencias economicas que traerá para los sectores más pobres el aumento en el pasaje del transporte interurbano</t>
+  </si>
+  <si>
+    <t>Es importante el título y de qué manera el diario le otroga una responsabilidad directa al gobierno de Lugo (casi que al presidente mismo) en el aumento del pasaje del colectivo realizado por ente autárquico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Senado pasó por alto la indignación de la ciudadanía </t>
+  </si>
+  <si>
+    <t>Senado - proyecto de ley - TSJE</t>
+  </si>
+  <si>
+    <t>Sobre el proyecto de ley a favor del TSJE que pretende destinar una partida presupuestaria para operadores políticos electorales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En esta editorial lo importante es que e esta acusación que se realiza a los miembros del Senado en general, se hace mención a los pertenecientes al oficialismo volviendo a recurrir a la idea de la similitud con la oposición y los gobiernos colorados anteriores, además de instalar una idea de "incoherencia interna en la Alianza" entre algunos de sus miembros políticos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El estado es bolsa de trabajo y rico botín de los ricos </t>
+  </si>
+  <si>
+    <t>Declaración de Oviedo Matto - Cepal - estado</t>
+  </si>
+  <si>
+    <t>Ante el informe presentado por la Cepal y los dichos del titular del Senado Oviedo Matto, en esta editorial se hace alusión a los problemas económicos y el desempeño de los legisladores en Paraguay.</t>
+  </si>
+  <si>
+    <t>Otra vez se vuelve sobre la semejanza entre Lugo y sus antecesores, casi como un tema recurrente no importe la temática de la cual se esté hablando. En este caso, plantea que "A casi 4 años de haber asumido el mando del país, sin embargo, no solo no se nota una diferencia con sus predecesores sino que se comporta exactamente igual que ellos".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El lujo en el Senado es una ofensa para los ciudadanos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senado - TSJE </t>
+  </si>
+  <si>
+    <t>Sobre las millonarias sumas de dinero que el Congreso destina a gastons internos y al TSJE</t>
+  </si>
+  <si>
+    <t>Realiza una crítica a la clase política en general, pero no se menciona directamente al gobierno de Fernando Lugo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No volver a votar por tan indignos representantes </t>
+  </si>
+  <si>
+    <t>Legisladores - corrupción - ciudadanía</t>
+  </si>
+  <si>
+    <t>Sobre las críticas recibidas por los diputados que rechazaron el veto a la ampliación de una cierta partida económica destinada al TSJE</t>
+  </si>
+  <si>
+    <t>Editorial que realiza una fuerte crítica a la clase política en general sin hacer una distinción partidaria. Releer, interesante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Está acabando el tiempo de los abusos de poder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protestas ciudadanas - Legisladores - renovación </t>
+  </si>
+  <si>
+    <t>El aumento de las protestas ciudadanas en rechazo al accionar de los legisladores y de la clase política en general.</t>
+  </si>
+  <si>
+    <t>En esta editorial plantea la necedidad de una renovación de la clase política incluyendo a la gestión de Lugo, planteando que el "cambio no quede en sólo una retórica" y que ahora se necesitará verdaderamente una administración eficiente, aluciendo a esta cuestión del conocimiento para estar en la política y la condición de estadista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Instituto del Cáncer agrega nuevos dolores a sus pacientes </t>
+  </si>
+  <si>
+    <t>Instituto del Cáncer - servicio - presupuesto</t>
+  </si>
+  <si>
+    <t>El Estado en el que se encuentra el Instituto del Cáncer en Paraguay y la poca partida presupuestaria que se le destina</t>
+  </si>
+  <si>
+    <t>Lo mas relevante en esta editorial para el análisis refiere a que en la primera oración se menciona "Una de las banderas de las que se jacta este Gobierno es el avance en salud pública. Su principal argumento es la gratuidad, que ha permitido el incremento del índice de atenciones en los centros hospitalarios. En los últimos días, sin embargo, apareció de nuevo en escena el Instituto del Cáncer, cuyo servicio deja mucho que desear por su ineficiencia administrativa.." Es un mecanismo constante que utiliza el diario para mencionar algo positivo que está haciendo la gestión de Lugo pero despretigiándolo con otra cosa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diputados no tuvo en cuenta el reclamo popular de desbloqueo </t>
+  </si>
+  <si>
+    <t>Congreso - Listas sabanas - proyecto de ley</t>
+  </si>
+  <si>
+    <t>Sobre la postergación por parte de diputados del proyecto de ley que pretende terminar con las listas sabanas.</t>
+  </si>
+  <si>
+    <t>En esta editorial lo que se puede rescatar es que al final de la misma se afirma que "con seguridad" el presidente Fernando Lugo se convertirá en cómplice de la mayoría del Congreso sin exponer cuáles son las razones por las que afirman esta idea luego de que en el desarrollo de la nota se realicen críticas muy profundas a los diputados que votaron la postergación de la ley.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin infraestructura no puede haber desarrollo campesino </t>
+  </si>
+  <si>
+    <t>Reforma agraria - Federación Nacional Campesina - gestión de gobierno</t>
+  </si>
+  <si>
+    <t>Realiza un balance sobre la situación de los campesinos y la reforma agraria durante los cuatro años de gestión de Lugo</t>
+  </si>
+  <si>
+    <t>Se plantea a la reforma agraria como uno de los grandes fracasos durante la gestión de Lugo, además de promesas incumplidas por parte del presidente y su falta de eficacia para resolver los problemas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No es momento para que primen intereses particulares </t>
+  </si>
+  <si>
+    <t>Curuguaty - violencia - grupos radicalizados</t>
+  </si>
+  <si>
+    <t>Sobre la violencia que se desató en Curuguaty, en el desalojo de propiedades que dejó el saldo de once muertos.</t>
+  </si>
+  <si>
+    <t>Es una nota muy importante para el análisis porque refiere al principal hecho por el cual se lo destituye a Lugo y además se puede vislumbrar cómo de manera indirecta se relaciona al presidente con los grupos radicalizados violentos y los posibles intereses políticos que esto tendría en cuenta. Releer, importante.</t>
+  </si>
+  <si>
+    <t>Ahora queda saber la verdad y castigar a los culpables</t>
+  </si>
+  <si>
+    <t>Curuguaty - respuestas - justicia</t>
+  </si>
+  <si>
+    <t>La necesidad de encontrar respuestas a lo acontecido en Curuguaty y que se haga justicia por la violencia desatada</t>
+  </si>
+  <si>
+    <t>Editorial que vuelve a tratar el tema de Cuaruguaty pero en este caso no se hace una referencia directa ni indirecta al presidente ni a su gestión, sino que se exige que deben obtenerse respuestas sobre lo sucedido e incita a hacer cumplir la ley.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los aparatos de espionaje abren una razonable sospecha </t>
+  </si>
+  <si>
+    <t>Escuhas telefónicas -Democracia - dictadura</t>
+  </si>
+  <si>
+    <t>Sobre la existencia de un equipo de espionaje telefónico en el Ministerio del Interior y las discusiones que esto conlleva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial relevante para el análisis ya que es la primera vez que se relaciona a la gestión de Lugo con la dictadura stronista a partir de estas sospechas que la nota deja entrever en relación a posibles escuchas telefónicas que nunca fueron provadas. Además de plantear la ilegalidad de esta actividad y la sospecha que deja instalada de que el gobierno la utiliza con la oposicion o sectores ajenos al mismo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es la hora de mantener la calma pensando en el país </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juicio político - Fernando Lugo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Congreso aprobó el inicio del proceso de juicio político a Fernando Lugo cuyo principal motivo fue la masacre de Curuguaty. </t>
+  </si>
+  <si>
+    <t>Es la nota editorial del día de inicio de juicio político a Lugo. Resulta interesante ver cómo el diario no se manifiesta ni a favor ni en contra del proceso, lo único que repite constantemente es la idea del respeto de las "garantías constitucionales" en las que se incluye la defensa del presidente. Igualmente, a lo largo de la nota se plantea claramente que el juicio político es una herramienta constitucional que se da en ese momento de acuerdo a lo pactado en la ley.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urge que la clase política se reconcilie con el país </t>
+  </si>
+  <si>
+    <t>Destitución de Fernando Lugo - Federico Franco</t>
+  </si>
+  <si>
+    <t>La destitución de Fernando Lugo y la llegada a la presidencia de su vice Federico Franco</t>
+  </si>
+  <si>
+    <t>Al principio parecería que rechaza la manera en la cual concluyó el juicio político, sin embargo en el desarrollo de la nota hace una crítica a la clase política en general por los problemas que persisten en Paraguay pero empieza a enumerar cuáles fueron las promesas inclumplidas del ex presidente Lugo como si estuviera intentando justificar el desenlace del mandatario. A pesar de lo expresado en la nota del día anterior, en níngun momento se pregunta por la rapidez del proceso y el respeto de las garantías constitucionales para con Lugo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECCIÓN (N° DE PÁG.) </t>
+  </si>
+  <si>
+    <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>Abc Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metrobus, un elefante blanco para Asunción </t>
+  </si>
+  <si>
+    <t>Editorial</t>
+  </si>
+  <si>
+    <t>Metrobús - transporte público - financiamiento</t>
+  </si>
+  <si>
+    <t>Sobre las intenciones del Gobierno de Fernando Lugo de que se apruebe el credito necesario para llevar adelante el proyecto de Metrobús.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial muy crítica con respecto al gobierno de Lugo ya que plantea que desconoce la realidad de lo que se vive en Paraguay en relación al transporte público, que el proyecto oculta intereses privados y que insiste con la implementación del proyecto porque cuando las consecuencias se vean, ellos ya no estarán en el poder. Se contrapone con la opinión que tiene el diario Ultima Hora en relación a este tema. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Estado tiene la culpa, no el campesino </t>
+  </si>
+  <si>
+    <t>Reforma agraria - proyecto de ley - sanciones</t>
+  </si>
+  <si>
+    <t>La cámara de senadores intenta sancionar un proyecto de ley que penaliza con la cárcel a todos aquellos campesinos que enajenen sus derechos sobre el inmueble, es decir, sobre el lote otorgado por el estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En esta nota se realiza una fuerte crítica a todos aquellos legisladores que intentan sancionar esta ley, además se pone la atención sobre las autoridades del Indert y del IBR que no tienen ningún control sobre la cantidad de campesinos beneficiarios ni datos sobre ellos. En este caso, las críticas no son exclusivamente hacia la gestión de Lugo pero deja entrever que durante su gobierno poco se hixo en relación a la reforma agraria y a la situación de los campesinos.  </t>
+  </si>
+  <si>
+    <t>Unasur - integración regional - Declaraciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unasur, el cuento chino de la integración regional </t>
+  </si>
+  <si>
+    <t>La cumbre de Unasur que se celebró en Paraguay y las repercusiones de la misma.</t>
+  </si>
+  <si>
+    <t>Es una nota que deja en claro cuál es la posición del diario en relación a la "integración latinoamericana" y la participación de Paraguay en este tipo de "fantasmas burocráticos" como los llama. Además tiene fuertes críticas para con Hugo Chávez y considera al gobierno de Cristina Fernandez como un "régimen". Además, plantea que el gobierno de Lugo no sabe exigir que se respeten los derechos de los paraguayos. "no se trata más que de otro armatoste político obeso, oneroso e inútil, que vino a sumarse a los varios ejemplares del mismo tipo que ya tenemos que sostener financieramente los contribuyentes" (en relación a Unasur).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El manual del Che se está aplicando en Paraguay </t>
+  </si>
+  <si>
+    <t>Che Guevara - Tendencia bolivariana - Fernando Lugo</t>
+  </si>
+  <si>
+    <t>Fuerte denuncia sobre un "supuesto camino" dictado por el Che Guevara que estaría siguiendo Fernando Lugo.</t>
+  </si>
+  <si>
+    <t>Editorial muy importante para el análisis ya que considera a Lugo como una figura autoritaria que tiene intenciones de perpetrarse en el poder luego de finalizado su mandato constitucional. Además de relacionarlo directamente con el EPP, diciendo que es un mecanismo que utiliza siguiendo los parametros establecidos por el Che Guevara. Además menciona que su entorno es marxista y que intenta establecer una dictadura personal que pondría en peligro la democracia paraguaya. Releer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Están sedientos de dinero fresco </t>
+  </si>
+  <si>
+    <t>Plan Anticíclico 2012 - Fernando Lugo - clientelismo político</t>
+  </si>
+  <si>
+    <t>Sobre el Plan Antíciclio 2012 presentado por el Jefe de Gabinete Civil de la presidencia que utlizaría las reservas internacionales y determinados recursos económicos para inversiones a largo plazo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial que plantea nuevamente las supuestas intenciones de Lugo de perpetuarse en el poder, en este caso, a partir del control de ciertos recursos económicos que le permitiría "comprar los votos de la gente más necesitada en los comicios del año 2013". Es importante por el título, el tono de la nota y su contenido. Vuelve a mencionarse la idea de que Lugo intenta instalar una izquierda bolivariana. </t>
+  </si>
+  <si>
+    <t>Somos un país indefenso</t>
+  </si>
+  <si>
+    <t>Política internacional - Medidas proteccionistas - Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La situación económica del sector industrial paraguayo debido a las medidas proteccionistas aplicadas por el gobierno argentino. </t>
+  </si>
+  <si>
+    <t>En esta nota se hace mención a la falta de capacidad del gobierno de Lugo en términos de política internacional y de "defender los derechos paraguayos". Además se menciona la "falta de capacidad política de los gobernantes actuales" que no están preparados para llevar adelante lo que se necesita en estos casos. Se menciona a Paraguay como "un país indefenso" y se hace mención a la firma de Lugo al Protocolo de Ushuaia II.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay en marcha atrás </t>
+  </si>
+  <si>
+    <t>Carperos - ocupaciones - productores agrícolas</t>
+  </si>
+  <si>
+    <t>Los llamados "carperos" o "sin tierra" empezaron a ocupar propiedad muy prósperas e incluso las más ricas del país y amenzan con una huída de futuros inversores y productores extranjeros</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Esta editorial es importante ya que vuelve a hacer una relación directa entre el luguismo y estos grupos denominados "sintierra" (que el diario conoce como EPP) que tienen supuestamente fuertes inclinaciones chavistas. En la nota se hace mención a Lugo como "el obispo" y su pasado en la Iglesia Católica, además de afirmar que  "castro-chavismo marxista lo ganó a el para su causa". Al final de la nota también se hace un vaticinio casi trágico de lo que secederá con la economía paraguaya y sobre cómo la gente debe actuar en las próximas elecciones presidenciales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A las Malvinas no se las puede bloquear, al Paraguay sí. </t>
+  </si>
+  <si>
+    <t>Protocolo de Montevideo - bloqueo económico - Islas Malvinas</t>
+  </si>
+  <si>
+    <t>Las declaraciones de Luis Almagro, canciller uruguayo sobre la decisión de la Cámara de Comercio Británica de su país de mantener el intercambio de mercaderías con las islas Malvinas.</t>
+  </si>
+  <si>
+    <t>Editorial muy interesante que hace mención al Protocolo de Montevideo adelantandose a los hechos y planeando la "hipotética situación" en la que los países vecinos al Paraguay conisderen que se alteró el orden político durante la gestión de Fernando Lugo. Resulta interesante analizar el motivo de esta nota editorial y la posición que tomaría el diario en el caso de llevarse a cabo la destitución del presidente.</t>
+  </si>
+  <si>
+    <t>Partido Liberal - luguismo bolivariano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trampa luguista Fractura al Partido Liberal </t>
+  </si>
+  <si>
+    <t>Las fracturas internas al interior del Partido Liberal Radical Auténtico beneficiarían al luguismo en las próximas elecciones presidenciales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevamente vuelve a mencionarse la supuesta influencia de las corrientes "castro-chavistas" que influyen sobre Lugo y su gestión, además de realizar vaticinios sobre las futuras situaciones que se darían en Paraguay si Lugo o alguien allegado a él ganaran nuevamente las elecciones presidenciales. Lo interesante de esta nota, además del título y del tono de la misma, es la "futurología" que constantemente viene realizando el diario en comparación con otros países de la región. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un país azotado por el flagelo de la corrupción </t>
+  </si>
+  <si>
+    <t>Corrupción - Semana Santa - Fernando Lugo</t>
+  </si>
+  <si>
+    <t>En el día de conmemoración de la "pasión de Jesús", la nota hace un fuerte descargo en relación a la corrupción que sufre el Paraguay.</t>
+  </si>
+  <si>
+    <t>Es interesante ver cómo, al igual que en el diario Ultima Hora, se hace mención a la idea del "gobierno del cambio" que Lugo venía a encarnar que "finalmente no se dio" en el sentido de que se asemeja a los gobiernos anteriores colorados, en ese caso, en temas de corrupción. Además, también hace mención al supuesto nepostimo en su gestión contratando a personas cercanas a su entorno y a su falta de preparación política para el cargo. Al final se hace mención que ningún "mesías salvador" podrá solucionar los problemas paraguayos (considero que indirectamente hace referencia a Lugo por su condición de clérigo y la utilización del  término católico).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Lugo le conviene un candidato liberal “trucho” </t>
+  </si>
+  <si>
+    <t>Partido Liberal - candidato "trucho" - elecciones</t>
+  </si>
+  <si>
+    <t>La victoria del senador Blas Llano en las elecciones internas del Partido Liberal y su relación con el gobierno de Lugo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En esta nota vuelve a mencionarse las intenciones políticas de Lugo de ganar las próximas elecciones presidenciales. En este caso, aparece de manera interesante la supuesta intención de Lugo de dividir los dos prinicipales partidos políticos tradicionales para su propio provecho electorialista. Se vuelve a mencionar la idea "bolivariana" y vuelve a hacerse futurología. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Los generales mienten” </t>
+  </si>
+  <si>
+    <t>Sobre las intenciones que podría tener el gobierno de Lugo frente al intento de proyecto de ley que generaría la figura del soldado temporal voluntario</t>
+  </si>
+  <si>
+    <t>Proyecto de Ley - Soldado temporal voluntario - FFAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevamente vuelve a insistirse con la idea de que el gobierno de Lugo se encuentra influido por las ideologías propuestas por el gobierno de Hugo Chávez, y se hace una comparación con el gobierno del último dictajdor paraguayo Alfredo Stroessner. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscan amarrar a los pobres para pedirles el voto </t>
+  </si>
+  <si>
+    <t>Tekopora - transferencias monetarias - programas asistencialistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las intenciones políticas que tendría el gobierno de Fernando Lugo en la implementación de programas asistencialistas como el denominado Tekopora. </t>
+  </si>
+  <si>
+    <t>Editorial importante no sólo por su título sino también por el contenido de la misma que vuelve a mencionar las intenciones políticas de Fernando Lugo de perpetuarse en el poder, en este caso,  a través de la compra de votos de los sectores más pobres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lugo debe denunciar ante el continente los atropellos de que somos objeto </t>
+  </si>
+  <si>
+    <t>Cumbre de las Américas - medidas proteccionistas - comercio exterior</t>
+  </si>
+  <si>
+    <t>Ante la proximidad del inicio de la Cumbre de las Américas, la necesidad que el presidente Fernando Lugo se pronuncie sobre las medidas proteccionistas aplicadas por el gobierno argentino y cómo repercutirían en el comercio exterior paraguayo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En esta nota, se vuelve a hacer mención sobre la poca utilidad que reuniones como la Cumbre de las Américas tiene para con los problemas reales de las naciones latinoamericanas. Además se hace mención al supuesto estado de "indefensión" del que se encuentra Paraguay debido a la incapacidad o indolencia de sus gobernantes, en este caso, Lugo y sus funcionarios. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Otro golpe de Lugo al sistema republicano” </t>
+  </si>
+  <si>
+    <t>Corte Suprema de Justicia - resolución - ministros</t>
+  </si>
+  <si>
+    <t>Sobre la aprobación por el Senado de una resolución que declara vacantes siete de los nueve cargos de ministros que componen la Corte Suprema de Justicia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como en casi todas las editoriales analizadas vuelve a mencionarse la idea de la ideología bolivariana. En este caso se menciona que Lugo en vez dce contar con una izquierda que apunta al desarrollo, se encuentra con una "izquierda fanatizada, fundamentalista y profundamente ideologizada, la que se adhiere a los principios del socialismo bolivariano del siglo XXI". Además hace mención por primera vez a la idea de un "golpe político" por parte del luguismo para hacerse con el control del sector juridisccional. </t>
+  </si>
+  <si>
+    <t>derecho a elegir - listas sabanas - democracia</t>
+  </si>
+  <si>
+    <t>El pueblo soberano debe exigir su derecho a elegir</t>
+  </si>
+  <si>
+    <t>El intento de promulgación de una ley que pondría fin a las llamadas "listas sábanas"</t>
+  </si>
+  <si>
+    <t>En esta nota no se hace, por primera vez, ninguna referencia directa a Lugo o a su gobierno sino que se habla de la clase política en general, pero pone a todos en "la misma bolsa" planteando que la ley aún no fue promulgada porque a los políticos les interesa colocar a sus "operadores políticos" antes que "mejorar el sistema democrático paraguayo". De esta manera, al igual que el diario Ultima Hora, asemeja el gobierno de Lugo con los gobiernos colorados anteriores.</t>
+  </si>
+  <si>
+    <t>Política exterior - Argentina - medidas proteccionistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay sumido en el desamparo </t>
+  </si>
+  <si>
+    <t>La falta de acción de los funcionarios a cargo del Ministerior de Relaciones Exteriores frente a las medidas proteccionistas aplicadas por el gobierno argentino.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta editorial vuelve a mencionar el tema de las trabas económicas aplicadas por Argentina y se hace mención a la inacción y a la falta de capacidad de los políticos paraguayos en reclamar por sus propios derechos. Además se vuelve a mencionar la afinidad ideológica de Lugo con el gobierno argentino que explicaría la ausencia de un pronunciamiento ante esta situación. De manera indirecta vuelve a criticarse la figura del Mercosur. </t>
+  </si>
+  <si>
+    <t>ANÁLISIS</t>
+  </si>
+  <si>
+    <t>La corrupción prostituye la democracia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrupción - democracia </t>
+  </si>
+  <si>
+    <t>El mantenimiento del despilfarro de recursos públicos aun después de la caída de Stroessner y cómo atenta contra la democracia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este caso, se vuelve a hacer mención a la corrupción como uno de los principales males que afectan a Paraguay, haciendo alusión a algunos sectores sociales. En la nota no se hace una mención directa ni a Lugo ni a su gobierno pero plantea que las actividades corruptas se encuentran tan presentes o más que durante el ultimo gobierno dictatorial. </t>
   </si>
 </sst>
 </file>
@@ -1565,14 +1983,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1588,6 +1998,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1646,42 +2064,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1965,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,1218 +2402,1220 @@
     <col min="7" max="7" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="16" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>39683</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>39730</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>39737</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>39775</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>39776</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>39780</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>39819</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>39832</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>39836</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>39838</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>39864</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>39866</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>39871</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>39873</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>39874</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>39879</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>39888</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>39891</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>39896</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>39903</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>39908</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>39914</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>39917</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>39919</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>39921</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>39923</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>39924</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>39925</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>39935</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>39936</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>39941</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>39946</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>39952</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>39957</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="D36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>39974</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="8" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>39985</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="D38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>39994</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="9" t="s">
+      <c r="A40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>39996</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="D40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="8" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>39999</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="9" t="s">
+      <c r="D41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="8" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>40004</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>40008</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>40017</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="D44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>40029</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="9" t="s">
+      <c r="D45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>40030</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>40040</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="9" t="s">
+      <c r="D47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="8" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>40072</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="9" t="s">
+      <c r="D48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>40094</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="5" t="s">
+      <c r="D49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>40104</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="9" t="s">
+      <c r="D50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>40118</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>40120</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="9" t="s">
+      <c r="D52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="8" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>40135</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="9" t="s">
+      <c r="D53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>40138</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="D54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="8" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3198,1750 +3623,1956 @@
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>40143</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>40146</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="9" t="s">
+      <c r="D56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="8" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="9" t="s">
+      <c r="A57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>40194</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="9" t="s">
+      <c r="D57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="8" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="9" t="s">
+      <c r="A58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>40208</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="9" t="s">
+      <c r="D58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="8" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="A59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>40220</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="9" t="s">
+      <c r="D59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="8" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="9" t="s">
+      <c r="A60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <v>40221</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="9" t="s">
+      <c r="D60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G60" s="8" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="9" t="s">
+      <c r="A61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>40223</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="9" t="s">
+      <c r="D61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G61" s="8" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="9" t="s">
+      <c r="A62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>40230</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="9" t="s">
+      <c r="D62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="8" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="9" t="s">
+      <c r="A63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="6">
         <v>40248</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="9" t="s">
+      <c r="D63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="8" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="9" t="s">
+      <c r="A64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <v>40251</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="5" t="s">
+      <c r="D64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="8" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="6">
         <v>40255</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="9" t="s">
+      <c r="D65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="9" t="s">
+      <c r="A66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <v>40272</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="9" t="s">
+      <c r="D66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="9" t="s">
+      <c r="A67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <v>40288</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="9" t="s">
+      <c r="D67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="8" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="9" t="s">
+      <c r="A68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <v>40294</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="9" t="s">
+      <c r="D68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G68" s="8" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="9" t="s">
+      <c r="A69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="6">
         <v>40295</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="9" t="s">
+      <c r="D69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="8" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" s="9" t="s">
+      <c r="A70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <v>40361</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="9" t="s">
+      <c r="D70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G70" s="8" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" s="9" t="s">
+      <c r="A71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <v>40362</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="9" t="s">
+      <c r="D71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="G71" s="12" t="s">
+      <c r="G71" s="11" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" s="9" t="s">
+      <c r="A72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="6">
         <v>40370</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="9" t="s">
+      <c r="D72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="G72" s="8" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="9" t="s">
+      <c r="A73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="6">
         <v>40398</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="9" t="s">
+      <c r="D73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G73" s="8" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" s="9" t="s">
+      <c r="A74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="6">
         <v>40401</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="9" t="s">
+      <c r="D74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G74" s="8" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="171" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="9" t="s">
+      <c r="A75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="6">
         <v>40405</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="9" t="s">
+      <c r="D75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G75" s="8" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" s="9" t="s">
+      <c r="A76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <v>40446</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="9" t="s">
+      <c r="D76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="G76" s="8" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="9" t="s">
+      <c r="A77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="6">
         <v>40457</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="9" t="s">
+      <c r="D77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="G77" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" s="9" t="s">
+      <c r="A78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="6">
         <v>40495</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="9" t="s">
+      <c r="D78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="G78" s="13" t="s">
+      <c r="G78" s="12" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="9" t="s">
+      <c r="A79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="6">
         <v>40540</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="9" t="s">
+      <c r="D79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="G79" s="8" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" s="9" t="s">
+      <c r="A80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="6">
         <v>40546</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="9" t="s">
+      <c r="D80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="G80" s="8" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="9" t="s">
+      <c r="A81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="6">
         <v>40575</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="5" t="s">
+      <c r="D81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F81" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G81" s="8" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" s="9" t="s">
+      <c r="A82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="6">
         <v>40610</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="9" t="s">
+      <c r="D82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="G82" s="8" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="9" t="s">
+      <c r="A83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="6">
         <v>40613</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="9" t="s">
+      <c r="D83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G83" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" s="9" t="s">
+      <c r="A84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="6">
         <v>40624</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="9" t="s">
+      <c r="D84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F84" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="G84" s="9" t="s">
+      <c r="G84" s="8" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="9" t="s">
+      <c r="A85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="6">
         <v>40630</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="9" t="s">
+      <c r="D85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="G85" s="8" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" s="9" t="s">
+      <c r="A86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="6">
         <v>40647</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="9" t="s">
+      <c r="D86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="G86" s="8" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" s="9" t="s">
+      <c r="A87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="6">
         <v>40658</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="9" t="s">
+      <c r="D87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="G87" s="8" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" s="9" t="s">
+      <c r="A88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="6">
         <v>40661</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="9" t="s">
+      <c r="D88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="G88" s="13" t="s">
+      <c r="G88" s="12" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="9" t="s">
+      <c r="A89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="6">
         <v>40670</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="9" t="s">
+      <c r="D89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="G89" s="9" t="s">
+      <c r="G89" s="8" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" s="9" t="s">
+      <c r="A90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="6">
         <v>40695</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="9" t="s">
+      <c r="D90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="F90" s="9" t="s">
+      <c r="F90" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="G90" s="9" t="s">
+      <c r="G90" s="8" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="9" t="s">
+      <c r="A91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="6">
         <v>40698</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="9" t="s">
+      <c r="D91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="F91" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="G91" s="9" t="s">
+      <c r="G91" s="8" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" s="9" t="s">
+      <c r="A92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="6">
         <v>40712</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="9" t="s">
+      <c r="D92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="F92" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="G92" s="9" t="s">
+      <c r="G92" s="8" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" s="9" t="s">
+      <c r="A93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="6">
         <v>40713</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="9" t="s">
+      <c r="D93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="G93" s="9" t="s">
+      <c r="G93" s="8" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" s="9" t="s">
+      <c r="A94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="6">
         <v>40725</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="9" t="s">
+      <c r="D94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="G94" s="9" t="s">
+      <c r="G94" s="8" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" s="9" t="s">
+      <c r="A95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="6">
         <v>40727</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="9" t="s">
+      <c r="D95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="G95" s="9" t="s">
+      <c r="G95" s="8" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" s="9" t="s">
+      <c r="A96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="6">
         <v>40731</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="9" t="s">
+      <c r="D96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="G96" s="14" t="s">
+      <c r="G96" s="13" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" s="9" t="s">
+      <c r="A97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="6">
         <v>40769</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="9" t="s">
+      <c r="D97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G97" s="8" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" s="9" t="s">
+      <c r="A98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="6">
         <v>40781</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="9" t="s">
+      <c r="D98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="G98" s="9" t="s">
+      <c r="G98" s="8" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="9" t="s">
+      <c r="A99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="6">
         <v>40783</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="9" t="s">
+      <c r="D99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="F99" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="G99" s="9" t="s">
+      <c r="G99" s="8" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" s="15" t="s">
+      <c r="A100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="6">
         <v>40812</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="9" t="s">
+      <c r="D100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="F100" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="G100" s="8" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="232.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" s="9" t="s">
+      <c r="A101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C101" s="6">
         <v>40826</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="9" t="s">
+      <c r="D101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="F101" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="G101" s="9" t="s">
+      <c r="G101" s="8" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" s="9" t="s">
+      <c r="A102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="6">
         <v>40835</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="9" t="s">
+      <c r="D102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="F102" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="G102" s="9" t="s">
+      <c r="G102" s="8" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="279" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" s="9" t="s">
+      <c r="A103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="C103" s="7">
+      <c r="C103" s="6">
         <v>40843</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="9" t="s">
+      <c r="D103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="F103" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="G103" s="13" t="s">
+      <c r="G103" s="12" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" s="9" t="s">
+      <c r="A104" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="6">
         <v>40845</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="9" t="s">
+      <c r="D104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="F104" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="G104" s="9" t="s">
+      <c r="G104" s="8" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105" s="9" t="s">
+      <c r="A105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105" s="6">
         <v>40858</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="5" t="s">
+      <c r="D105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="F105" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="G105" s="9" t="s">
+      <c r="G105" s="8" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="231.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B106" s="9" t="s">
+      <c r="A106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106" s="6">
         <v>40861</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="9" t="s">
+      <c r="D106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F106" s="9" t="s">
+      <c r="F106" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="G106" s="9" t="s">
+      <c r="G106" s="8" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B107" s="9" t="s">
+      <c r="A107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107" s="6">
         <v>40883</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="9" t="s">
+      <c r="D107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="F107" s="9" t="s">
+      <c r="F107" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="G107" s="9" t="s">
+      <c r="G107" s="8" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" s="9" t="s">
+      <c r="A108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108" s="6">
         <v>40905</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="9" t="s">
+      <c r="D108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="F108" s="9" t="s">
+      <c r="F108" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="G108" s="9" t="s">
+      <c r="G108" s="8" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B109" s="9" t="s">
+      <c r="A109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="C109" s="7">
+      <c r="C109" s="6">
         <v>40910</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="9" t="s">
+      <c r="D109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="F109" s="9" t="s">
+      <c r="F109" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="G109" s="9" t="s">
+      <c r="G109" s="8" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B110" s="9" t="s">
+      <c r="A110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="C110" s="7">
+      <c r="C110" s="6">
         <v>40917</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="9" t="s">
+      <c r="D110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="F110" s="9" t="s">
+      <c r="F110" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="G110" s="9" t="s">
+      <c r="G110" s="8" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B111" s="9" t="s">
+      <c r="A111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="C111" s="7">
+      <c r="C111" s="6">
         <v>40939</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" s="9" t="s">
+      <c r="D111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="F111" s="9" t="s">
+      <c r="F111" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="G111" s="9" t="s">
+      <c r="G111" s="8" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B112" s="9" t="s">
+      <c r="A112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="C112" s="7">
+      <c r="C112" s="6">
         <v>40941</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="9" t="s">
+      <c r="D112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="F112" s="9" t="s">
+      <c r="F112" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="G112" s="9" t="s">
+      <c r="G112" s="8" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B113" s="9" t="s">
+      <c r="A113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C113" s="6">
         <v>40943</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="9" t="s">
+      <c r="D113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="F113" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="G113" s="9" t="s">
+      <c r="G113" s="8" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114" s="9" t="s">
+      <c r="A114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114" s="6">
         <v>40950</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="9" t="s">
+      <c r="D114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="F114" s="9" t="s">
+      <c r="F114" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="G114" s="9" t="s">
+      <c r="G114" s="8" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B115" s="9" t="s">
+      <c r="A115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115" s="6">
         <v>40952</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115" s="9" t="s">
+      <c r="D115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="F115" s="9" t="s">
+      <c r="F115" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="G115" s="9" t="s">
+      <c r="G115" s="8" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116" s="9" t="s">
+      <c r="A116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116" s="6">
         <v>40958</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" s="9" t="s">
+      <c r="D116" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="F116" s="9" t="s">
+      <c r="F116" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="G116" s="9" t="s">
+      <c r="G116" s="8" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" s="9" t="s">
+      <c r="A117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C117" s="6">
         <v>40968</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" s="5" t="s">
+      <c r="D117" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="F117" s="9" t="s">
+      <c r="F117" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="G117" s="9" t="s">
+      <c r="G117" s="8" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" s="9" t="s">
+      <c r="A118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118" s="6">
         <v>40975</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="9" t="s">
+      <c r="D118" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="F118" s="9" t="s">
+      <c r="F118" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="G118" s="9" t="s">
+      <c r="G118" s="8" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="217.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119" s="9" t="s">
+      <c r="A119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="C119" s="7">
+      <c r="C119" s="6">
         <v>40976</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="9" t="s">
+      <c r="D119" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="F119" s="9" t="s">
+      <c r="F119" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="G119" s="9" t="s">
+      <c r="G119" s="8" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" s="9" t="s">
+      <c r="A120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="C120" s="7">
+      <c r="C120" s="6">
         <v>40990</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" s="9" t="s">
+      <c r="D120" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="F120" s="9" t="s">
+      <c r="F120" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="G120" s="9" t="s">
+      <c r="G120" s="8" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" s="9" t="s">
+      <c r="A121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="C121" s="7">
+      <c r="C121" s="6">
         <v>40993</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" s="9" t="s">
+      <c r="D121" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="F121" s="9" t="s">
+      <c r="F121" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="G121" s="9" t="s">
+      <c r="G121" s="8" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122" s="9" t="s">
+      <c r="A122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="C122" s="7">
+      <c r="C122" s="6">
         <v>40998</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" s="9" t="s">
+      <c r="D122" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="F122" s="9" t="s">
+      <c r="F122" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="G122" s="9" t="s">
+      <c r="G122" s="8" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B123" s="9" t="s">
+      <c r="A123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="C123" s="7">
+      <c r="C123" s="6">
         <v>41010</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="9" t="s">
+      <c r="D123" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="F123" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="G123" s="9" t="s">
+      <c r="G123" s="8" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124" s="9" t="s">
+      <c r="A124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C124" s="6">
         <v>41017</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" s="9" t="s">
+      <c r="D124" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="F124" s="9" t="s">
+      <c r="F124" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="G124" s="9" t="s">
+      <c r="G124" s="8" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-    </row>
-    <row r="126" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-    </row>
-    <row r="127" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-    </row>
-    <row r="128" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-    </row>
-    <row r="129" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-    </row>
-    <row r="130" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-    </row>
-    <row r="131" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-    </row>
-    <row r="132" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-    </row>
-    <row r="133" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-    </row>
-    <row r="134" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-    </row>
-    <row r="137" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-    </row>
-    <row r="138" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-    </row>
-    <row r="139" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
+    <row r="125" spans="1:7" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="C125" s="6">
+        <v>41021</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C126" s="6">
+        <v>41022</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="C127" s="6">
+        <v>41027</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C128" s="6">
+        <v>41034</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C129" s="6">
+        <v>41035</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C130" s="6">
+        <v>41056</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C131" s="6">
+        <v>41063</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="219.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C132" s="6">
+        <v>41067</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C133" s="6">
+        <v>41075</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="C134" s="6">
+        <v>41076</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="C135" s="6">
+        <v>41077</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="C136" s="6">
+        <v>41080</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="141" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C137" s="6">
+        <v>41081</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C138" s="6">
+        <v>41082</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C139" s="6">
+        <v>41083</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="140" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
@@ -5244,4 +5875,884 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="C2" s="6">
+        <v>40990</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="C3" s="6">
+        <v>40991</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C4" s="6">
+        <v>40992</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C5" s="6">
+        <v>40993</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C6" s="6">
+        <v>40996</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C7" s="6">
+        <v>40998</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C8" s="6">
+        <v>41000</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="C9" s="6">
+        <v>41001</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C10" s="6">
+        <v>41002</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="C11" s="6">
+        <v>41004</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C12" s="6">
+        <v>41007</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C13" s="6">
+        <v>41009</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C14" s="6">
+        <v>41011</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="C15" s="6">
+        <v>41012</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="C16" s="6">
+        <v>41013</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C17" s="6">
+        <v>41014</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C18" s="6">
+        <v>41018</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="C19" s="6">
+        <v>41020</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="160" verticalDpi="72" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="655">
   <si>
     <t>DIARIO</t>
   </si>
@@ -1960,6 +1960,78 @@
   </si>
   <si>
     <t xml:space="preserve">En este caso, se vuelve a hacer mención a la corrupción como uno de los principales males que afectan a Paraguay, haciendo alusión a algunos sectores sociales. En la nota no se hace una mención directa ni a Lugo ni a su gobierno pero plantea que las actividades corruptas se encuentran tan presentes o más que durante el ultimo gobierno dictatorial. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acabemos con la desesperante inmoralidad que asuela al país” </t>
+  </si>
+  <si>
+    <t>Poderes del Estado - clase política - crisis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una serie de hechos sucedidos en el ultimo mes dan cuenta del esta de descrédito que afecta a los miembros de los tres poderes estatales. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial muy crítica con la clase política en general, más precisamente aquella que forma parte de los poderes estatales. En el caso de Lugo, vuelve a mencionarse la cuestión del nepotismo en su gestión, de su similitud con los gobiernos anteriores, su pasado con la Iglesia Católica y cómo esto no influyó en su gestión. También se hace mención a los casos de filiación que lo señalan planteando que lo colocan en una situación de descrédito constante. </t>
+  </si>
+  <si>
+    <t>Libertad de expresión, protectora de todas las otras libertades</t>
+  </si>
+  <si>
+    <t>Libertad de expresión - Prensa - Conmemoración</t>
+  </si>
+  <si>
+    <t>Ante el aniversario del Dia Mundial de Libertad de Prensa, la nota plantea la importancia de la libertad de expresión en una sociedad como la paraguaya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo interesante de esta nota es que se vuelve a mencionar esta "supuesta amenaza" que implica el avance "bolivariano" en la región con presidentes como Hugo Chavez o Cristina Fernandez, y el rol que estaría teniendo Lugo en Paraguay. Sorprende que a pesar de que no se haya realizado ninguna maniobra precisa que de a entender de un avasallamiento frente a la prensa, el diario deja entrever supuestos actos de hostilidad a medios "independientes" que nunca antes fueron mencionados. </t>
+  </si>
+  <si>
+    <t>Manifestemos nuestra indignación</t>
+  </si>
+  <si>
+    <t>Manifestación - problemas - "12 M-Paraguay"</t>
+  </si>
+  <si>
+    <t>Esta nota exhorta a la población a manifestarse en función de exigir la solución a una serie de problemas que e diario considera de suma importancia.</t>
+  </si>
+  <si>
+    <t>En esta nota lo fundamental es que el diario exhorta a la población a salir a las calles a manifestarse por problemas que supuestamente son de suma importancia para todos. Lo interesante acá es que esta manifestación perjudica al gobierno de turno, en este caso, al de Lugo por problemas que en realidad refieren a todos los estamentos políticos y a funcionarios de todos los partidos, sin dejar de tener en cuenta la cercanía de la misma frente a las próximas elecciones.</t>
+  </si>
+  <si>
+    <t>Gobernador Ledesma promueve atropellos y caos</t>
+  </si>
+  <si>
+    <t>Gobernador Ledesma - "pacto de no agresión" - carperos</t>
+  </si>
+  <si>
+    <t>Sobre el pacto de no agresión firmado por el Gobernador Ledesma frente a los carperos que habían ocupado propiedades privadas en su territorio.</t>
+  </si>
+  <si>
+    <t>Lo interesante de la nota es que a pesar de que en su desarrollo general se hace una crítica directa y personal frente al Gobernador Ledesma, al final de la misma se hace alusión a la cercanía del mismo con el presidente de la república mencionando nuevamente esta cuestión "bolivariana-marxista" de Lugo que promueve el desacato de la ley, la violación de la propiedad privada y la discordia entre los paraguayos. Finalmente, al igual que en las editoriales anteriores, vuele a hacer mención sobre la manera en la que los paraguayos deben actuar en las próximas elecciones presidenciales. Temas muy recurrentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se proclaman revolucionarios pero viven como grandes burgueses </t>
+  </si>
+  <si>
+    <t>Burguesía - "progresismo" criollo - Políticos de izquierda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las actitudes contradictorias que presentarían los llamados "políticos de izquierda" en las cuales sus dichos no irían de la mano con su formas de vida. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta nota hace mención nuevamente a estos líderes de izquierda que tanta crítica despierta en el diario como son Chavez, Kirchner, Correa, Castro. Resulta interesante las maneras de definirlo, por ejemplo: bolivarianismo criollo , la izquierda caviar del país, los "auténticos" progresistas. Vuelve a mencionarse la "hipocresía" de Lugo entre lo que decía cuando asumió y sus actitudes actuales, además de recordar su pasado religioso. </t>
+  </si>
+  <si>
+    <t>Que no sea otro viaje turístico más</t>
+  </si>
+  <si>
+    <t>Giras presidenciales - Fernando Lugo</t>
+  </si>
+  <si>
+    <t>El Presidente Lugo está a punto de emprender una gira presidencial por cinco países asiáticos con el propósito de visibilizar la realidad paraguaya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la nota se hace una crítica muy profunda a Lugo en relación a su política exterior y a los numerosos viajes que emprendió como mandatario. Además vuelve a mencionarse las trabas ejercidas por el gobierno argentino y su inacapacidad de dar soluciones a una serie de problemas. Resulta interesante ver que se lo llama como "santo cohete Fernando Lugo", siempre jugando con términos relacionados a su condición de ex obispo. </t>
   </si>
 </sst>
 </file>
@@ -5881,8 +5953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6333,162 +6405,248 @@
         <v>630</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="C20" s="6">
+        <v>41028</v>
+      </c>
       <c r="D20" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="E20" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="C21" s="6">
+        <v>41032</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="C22" s="6">
+        <v>41038</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="C23" s="6">
+        <v>41040</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="C24" s="6">
+        <v>41042</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="C25" s="6">
+        <v>41046</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="6">
+        <v>41048</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="667">
   <si>
     <t>DIARIO</t>
   </si>
@@ -2032,6 +2032,42 @@
   </si>
   <si>
     <t xml:space="preserve">En la nota se hace una crítica muy profunda a Lugo en relación a su política exterior y a los numerosos viajes que emprendió como mandatario. Además vuelve a mencionarse las trabas ejercidas por el gobierno argentino y su inacapacidad de dar soluciones a una serie de problemas. Resulta interesante ver que se lo llama como "santo cohete Fernando Lugo", siempre jugando con términos relacionados a su condición de ex obispo. </t>
+  </si>
+  <si>
+    <t>Indecoroso manoseo de la política exterior</t>
+  </si>
+  <si>
+    <t>Política Exterior - vacantes - Poder Ejecutivo y Legislativo</t>
+  </si>
+  <si>
+    <t>Las vacantes que aun persisten en algunas sedes paraguayas en el esterior por las discrepancias que existen entre los poderes ejecutivo y lesgislativo para el nombramiento de representantes.</t>
+  </si>
+  <si>
+    <t>En esta nota se vuelve a mencionar la incapacidad de Lugo de llevar una buena política exterior durante su gestión. Para destacar son algunas de las maneras en las cuales se nombra a la clase política: tribu cavernaria y dirigencia inmadura y camorrera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El cuco del pasado para justificar el fracaso </t>
+  </si>
+  <si>
+    <t>Discurso - Fernando Lugo - Conmemoración Independencia Nacional</t>
+  </si>
+  <si>
+    <t>Sobre el discurso brindado por el presidente Fernando Lugo en el día de conmemoración de la Independencia Nacional</t>
+  </si>
+  <si>
+    <t>Esta nota vuelve a reunir las principales críticas a Fernando Lugo. Que no tiene presente la realidad del país, que habla mucho y actúa poco, que los únicos beneficiarios del "supuesto cambio" son el y su sector político. y Enumera muchos temas que según el diario se mantuvieron y no se lograron resolver. Además de asemejarlo con los gobiernos colorados anteriores. Se menciona a sus dichos como un "lírico discurso".  "Cada vez que habla demuestra lo incompetente que es. Cayó presidente por una más del destino, y por su mentalidad atrasada perdió la excelente oportunidad que tenía de producir algún cambio beneficioso también para el país, porque lo que es “cambio”, parece que solo les llegó a él y a los miembros de su séquito"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El manotazo final de los piratas </t>
+  </si>
+  <si>
+    <t>Cámara de Diputados - veto presidencial - TSJE</t>
+  </si>
+  <si>
+    <t>El rechazo de la Cámara de Diputados al veto presidencial a la ley que dispone un aumento de más de 34 millones de dólares para el TSJE.</t>
+  </si>
+  <si>
+    <t>Lo interesante en esta nota es que a partir del rechazo del congreso al veto presidencial, el diario asume y da por sentado que se transformará en un beneficio para Lugo ya que su mayor deseo, al igual que otros gobiernos latinoamericanos es terminar con las instituciones democráticas como el Parlamento. Al final se menciona "esta amenaza totalitaria! que Lugo vendría a encarnar que terminaría con la naciente democracia paraguaya. Finalmente se vuelve a mencionar el tema de las próximas elecciones y la manera en la que el pueblo paraguayo debería actuar.</t>
   </si>
 </sst>
 </file>
@@ -5953,8 +5989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6543,44 +6579,84 @@
         <v>654</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="8" t="s">
+        <v>655</v>
+      </c>
       <c r="C26" s="6">
         <v>41048</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="E26" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="C27" s="6">
+        <v>41049</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="C28" s="6">
+        <v>41054</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>556</v>
+      </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>558</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\TESIS\Tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4B3428-7C70-4DE4-B0C2-460EA75D15D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="735">
   <si>
     <t>DIARIO</t>
   </si>
@@ -1764,9 +1759,6 @@
     <t>La cámara de senadores intenta sancionar un proyecto de ley que penaliza con la cárcel a todos aquellos campesinos que enajenen sus derechos sobre el inmueble, es decir, sobre el lote otorgado por el estado.</t>
   </si>
   <si>
-    <t xml:space="preserve">En esta nota se realiza una fuerte crítica a todos aquellos legisladores que intentan sancionar esta ley, además se pone la atención sobre las autoridades del Indert y del IBR que no tienen ningún control sobre la cantidad de campesinos beneficiarios ni datos sobre ellos. En este caso, las críticas no son exclusivamente hacia la gestión de Lugo pero deja entrever que durante su gobierno poco se hixo en relación a la reforma agraria y a la situación de los campesinos.  </t>
-  </si>
-  <si>
     <t>Unasur - integración regional - Declaraciones</t>
   </si>
   <si>
@@ -2068,13 +2060,220 @@
   </si>
   <si>
     <t>Lo interesante en esta nota es que a partir del rechazo del congreso al veto presidencial, el diario asume y da por sentado que se transformará en un beneficio para Lugo ya que su mayor deseo, al igual que otros gobiernos latinoamericanos es terminar con las instituciones democráticas como el Parlamento. Al final se menciona "esta amenaza totalitaria! que Lugo vendría a encarnar que terminaría con la naciente democracia paraguaya. Finalmente se vuelve a mencionar el tema de las próximas elecciones y la manera en la que el pueblo paraguayo debería actuar.</t>
+  </si>
+  <si>
+    <t>Manifestación - Congreso - Proyecto de ley</t>
+  </si>
+  <si>
+    <t>El Congreso Nacional en peligro de muerte</t>
+  </si>
+  <si>
+    <t>La manifestación que se dio en frente del Congreso paraguayo en reclamo a la sanción que tuvo la ley que otorga una mayor partida presupuestaria para el Tribunal Electoral</t>
+  </si>
+  <si>
+    <t>Lo interesante en esta nota es que se vuelve a repetir la amenaza de Lugo sobre el Congreso y sobre la idea de terminar con el mismo. "la democracia representativa sufra una herida mortal de la que mucho se beneficiarán los que en el gobierno de Lugo abominan de ella, pretendiendo suplantarla por una nueva forma de autoritarismo".</t>
+  </si>
+  <si>
+    <t>Evo Morales - asilo político - senador opositor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde que la izquierda está en el poder, ya no se defiende a los perseguidos políticos </t>
+  </si>
+  <si>
+    <t>Sobre el pedido de asilo político del senador opositor al gobierno de Evo Morales que denunció a personas cercanas al presidente por estar relacionadas con el narcotráfico.</t>
+  </si>
+  <si>
+    <t>Siguiendo un tema recurrente el de "los presidentes que gobiernan bajo la férula del chavismo marxista bolivariano", vuelve a hacerse una crítica, en este caso, al gobierno boliviano mas precisamente a Evo Morales por las supuestas persecuciones políticas a opositores en su gobierno. Además se vuelve a mencionar la cuestión del Mercosur y Unasur como organismos que no tienen ningún tipo de injerencia en la política de los países.</t>
+  </si>
+  <si>
+    <t>Turistas VIP</t>
+  </si>
+  <si>
+    <t>Gira presidencial - Fernando Lugo - Representantes diplomáticos - Países asiáticos</t>
+  </si>
+  <si>
+    <t>Sobre los beneficios que podría traer consigo el presidente Fernando Lugo en su paso por los principales países asiáticos como Japón, Corea, Taiwán e India.</t>
+  </si>
+  <si>
+    <t>Editorial importante por el título, por el contenido y por el tono de la misma. Vuelve a plantear la idea de que los viajes de Lugo son puramente turísticos y que no representan ningún beneficio para el país. Además, utiliza recursos como preguntas retóricas, oraciones con signos de exclamación y afirmaciones sin ningún tipo de prueba.</t>
+  </si>
+  <si>
+    <t>Los líderes de la izquierda se olvidaron de los derechos humanos</t>
+  </si>
+  <si>
+    <t>Persecución política - derechos humanos - líderes de izquierda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre la persecución política que supuestamente muchos gobiernos latinoamericanos están cometiendo contra periodistas y políticos opositores que hacen entender, que cometen los mismos delitos de los cuales ellos fueron víctimas en épocas dictatoriales. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vuelve a mencionarse el tema de la persecucion política en Latinoamérica y de la falta de solidaridad para con aquellos por parte de los presidentes latinoamericanos debido a su alianza ideológica. Tema muy recurrente en este diario. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretender concretar el sueño dorado de los dictadores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIDH - Derechos humanos - Unasur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los gobiernos de Venezuela, Ecuador y Bolivia anunciaron la creación de una instancia de Derechos Humanos en el marco de la UNASUR mientras que realizaron  fuertes críticas a la Comisión Interamericana de Derechos Humanos. </t>
+  </si>
+  <si>
+    <t>Nuevamente se vuelve  a mencionar el tema de los derechos humanos y los gobiernos "bolivarianos" de América Latina. En este caso se los nombra como: "un club de gobernantes autoritarios, enemigos de la libertad y violadores de los derechos humanos de los pueblos a los que miserablemente subyugan".</t>
+  </si>
+  <si>
+    <t>Denunciar a los infiltrados en las protestas ciudadanas</t>
+  </si>
+  <si>
+    <t>Manifestaciones ciudadanas - actos vandálicos - partidos políticos</t>
+  </si>
+  <si>
+    <t>Los actos de violencia y vandalismo que sufrieron las instalaciones de los dos partidos políticos tradicionales de Paraguay durante las manifestaciones que tuvieron lugar en Asunción con el fin de rechazar la postergacion de la ley que terminaría con las listas sábanas.</t>
+  </si>
+  <si>
+    <t>Lo interesante en esta editorial es cómo a partir de actos de violencia que desataron un grupo de personas que aun no fueron identificados, se asocia que podrían responder al gobierno de Lugo en función de generar crisis internas al interior de los partidos políticos tradicionales. Todas muestras de "futurismo", predicciones, vaticinios casi trágicos para la democracia paraguay. Por ejemplo:"podrían constituir el ariete de un eficiente intento por restaurar una dictadura en nuestro país, aunque no precisamente de derecha".</t>
+  </si>
+  <si>
+    <t>Asamblea General de la OEA - Jorge Lara Castro - Declaraciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le echan la culpa a otros de su inutilidad </t>
+  </si>
+  <si>
+    <t>Las declaraciones realizadas por el Canciller Jorge Lara Castro en la Asamblea General de la Oea sobre el diagnóstico económico en Paraguay, particularmente con la situación del campo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta nota vuelve a referir a lo no realizado por el gobierno de Fernando Lugo en términos de reforma agraria y mejoras en las condiciones de vida de los campesinos. Vuelve a mencionar la idea del gobierno "del cambio" y vuelve a plantear que sus funcionarios desconocen la realidad económica paraguaya y son incapaces de encontrar soluciones al problema del campo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La incoherencia a ritmo de samba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministro secretario del Ambiente - Cumbre sobre Desarrollo Sostenible </t>
+  </si>
+  <si>
+    <t>Vuelve a mencionarse la incoherencia en el gobierno de Lugo entre lo que dice y cómo actúa. (enumera una serie de incoherencias en la nota). Además vuelve a jugar con la idea "del gobierno del cambio" que se repite numerosas veces en la editorial. Además vuelve a plantear que se mantuvieron ciertas caracteristicas existentes en los gobiernos colorados anteriores y que la gestión de Lugo tuvo "las más perversas prácticas de amiguismo, clientela política y manejos poco claros se mantienen rampantes en las instituciones públicas. Se cumplió como nunca aquello de “que cambie todo, para que no cambie absolutamente nada”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Ministro Secretario del Ambiente se trasladará con un grupo a la Cumbre de Desarrollo Sostenible Río+20 y esto generó numerosas críticas del diario. </t>
+  </si>
+  <si>
+    <t>Compromiso petrolero - PDVSA - deuda millonaria</t>
+  </si>
+  <si>
+    <t>¿Quién le robó los US$ 290 millones a Petropar?</t>
+  </si>
+  <si>
+    <t>El presidente de Petropar, Sergio Escobar, propone que PDVSA goce por seis meses de un monopolio de la venta del gasoíl, para pagar “la maldita deuda de PDVSA".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevamente se menciona la influencia de Chavez en la región, en este caso, a partir de la negociación del petróleo. A pesar de que la deuda contraida con PDVSA se inció en el gobierno de Nicanor Duarte Frutos, el diario no deja de resaltar que se multiplicó durante "el gobierno del cambio". Interesante por el tono de la editorial y por la apelación a preguntas retóricas y como en casi todas las editoriales, a exhortar a la ciudadanía a actuar frente a "estos atropellos" que sufren los ciudadanos. </t>
+  </si>
+  <si>
+    <t>Democracia “flexible” a la medida…</t>
+  </si>
+  <si>
+    <t>Democracia "flexible" - democracia representativa - gobiernos bolivarianos</t>
+  </si>
+  <si>
+    <t>La definición de democracias "flexibles" por parte de la ex secretaria general de la Unasur para hablar de los países latinoamericanos, abre una serie de críticas en el diario sobre los gobiernos bolivarianos y el peligro de la democracia representativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevamente el tema en discusión responde a los llamados "gobiernos bolivarianos". En este caso, los define como: "los exponentes de ese engendro conocido como “bolivarianismo socialista del siglo XXI”, nuevo nombre para el fracasado marxismo, enemigo de la libertad y la propiedad privada". Tema muy recurrente para el diario en sus notas editoriales. </t>
+  </si>
+  <si>
+    <t>El presidente Lugo es el responsable de esta lamentable tragedia</t>
+  </si>
+  <si>
+    <t>Violencia - Curuguaty - grupos radicalizados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los graves incidentes sucedidos en Curuguaty que dejó el saldo de 15 personas muertas entre policías y manifestantes, pone al presidente Lugo en la mira de las acusaciones. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial en la cual se trata el incidente de Curuguaty. A diferencia del diario Ultima Hora, en este, el presidente Lugo se nombra como el principal responsable de la masacre. Se menciona directamente su relación con estos grupos radicalizados y su incompetencia a la hora de resolver el problema de los campesinos. Incluso se nombra de manera directa la posibilidad de llevarlo a juicio político : "el presidente Lugo tal vez vuelva a eludir –más producto de la suerte que de cualquier otra circunstancia– la posibilidad de ser sometido a un proceso político en el Congreso que derive en su eventual remoción del cargo. Es probable que tenga esa suerte". </t>
+  </si>
+  <si>
+    <t>Responsabilidad inexcusable</t>
+  </si>
+  <si>
+    <t>Curuguaty - EPP - Gobierno de Fernando Lugo</t>
+  </si>
+  <si>
+    <t>Las responsabilidades que le competen al gobierno de Fernando Lugo por lo acontecido en Curuguaty y su supuesto acercamiento al grupo denominado EPP.</t>
+  </si>
+  <si>
+    <t>En esta editorial vuleve a tratarse el tema de Curuguaty y la responsabilidad de Lugo en el hecho. Se menciona nuevamente su cercanìa con el grupo EPP y sus desatenciones a las normativas jurídicas sobre la propiedad privada. En esta nota, el diario hace una declaracón concreta de pedido de juicio político al presidente: "Si en esta oportunidad el Poder Ejecutivo no actúa enérgicamente contra los grupos criminales y violentos que mantienen en zozobra a todo el país, el Congreso debería iniciarle juicio político al Presidente de la República por mal desempeño de funciones".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curuguaty - respuestas - crisis política </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Quiénes y para qué? </t>
+  </si>
+  <si>
+    <t>La necesidad de obtener respuestas frente a lo sucedido en Curuguaty que abre un panorama de crisis política en Paraguay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este caso, la editorial plantea una serie de interrogantes que considera deben ser respondidos. Para el diario el EPP es el principal responsable de la masacre, por ende, el gobierno de Lugo por su cercanía y afinidad, tiene relación en el hecho. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">País a la deriva </t>
+  </si>
+  <si>
+    <t>Declaraciones - Obispo de Caacupé - Conducción - Fernando Lugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre las declaraciones emitidas por el obispo de Caacupé en relación a lo sucedido en Cuaruguaty y la falta de conducción del presidente Fernando Lugo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otra editorial que dice claramente que la responsabilidad de lo acontecido recae sobre el presidente Fernando Lugo. Vuelve a mencionar sus promesas de campaña incumplidas, y plantea que hay una "ausencia de un necesario liderazgo político", "Fernando Lugo no tiene el “don de conducción”. Utiliza recursos como preguntas retóricas que luego se responden a sí mismos, además de citar frases que el presidente habia dicho en su momento. </t>
+  </si>
+  <si>
+    <t>Fernando Lugo - Juicio Político - Líderes bolivarianos</t>
+  </si>
+  <si>
+    <t>Una comisión para el “oparei"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De qué manera debería actuar el presidente Fernando Lugo, luego de haber transcurrido una semana desde el suceso de Curuguaty y la manera en la que los líderes bolivarianos actuarían ante un posible juicio político. </t>
+  </si>
+  <si>
+    <t>Esta editorial resulta interesante ya que plantea cómo actuarían los presidentes latinoamericanos frente a un posible juicio político a Fernando Lugo, teniendo en cuenta que en el día de la nota aún el proceso de destitución aún no había empezado. El diario ya lo daba por hecho y casi como que intentaba justificar el proceso antes de comenzar. Se vuelve a mencionar el tema del Protocolo de Ushuaia y de Unasur. También se expresa claramente: "Quien debió someterse espontánea e inmediatamente a un juicio político tuvo que haber sido el actual Presidente de la República, primer responsable de estos sucesos".</t>
+  </si>
+  <si>
+    <t>Lugo perdió el respaldo de la mayoría del pueblo paraguayo</t>
+  </si>
+  <si>
+    <t>Juicio Político - Fernando Lugo - Apoyo social</t>
+  </si>
+  <si>
+    <t>La nota plantea que Lugo al haberse quedado sin el apoyo del PLRA, no cuenta con el apoyo social con el cual inició su mandato presidencial a la hora de enfrentar el proceso de juicio político.</t>
+  </si>
+  <si>
+    <t>Esta nota refiere al día de la destitución de Lugo finalmente. Lo interesante es que el diario afirma que Lugo se quedó sin el apoyo social por el simple hecho de que no cuenta con el apoyo del PLRA y de la mayoría de los partidos políticos en el Congreso. Además plantea ciertos números, como por ejemplo: "El Partido Liberal Radical Auténtico (PLRA), miembro principal de la Alianza Patriótica para el Cambio que lo aupó al poder, le aportó 507.000 votos, es decir, el 66% del total". Interesante por el título, el contenido y el tono de la nota en donde en vez de una editorial crítica apela a cuestiones como la esperanza, que se vaya por la puerta grande, sensatez, grandeza de espíritu....</t>
+  </si>
+  <si>
+    <t>Otra etapa con nuevas esperanzas</t>
+  </si>
+  <si>
+    <t>Destitución presidencial - Federico Franco - ciudadanía</t>
+  </si>
+  <si>
+    <t>Finalmente, se dio la destitución de Fernando Lugo y la llegada a la presidencia de su vice Federico Franco frente a una ciudadanía que no realizó ningún tipo de manifestación importante en rechazo al proceso político.</t>
+  </si>
+  <si>
+    <t>Esta nota casi que agradece a la clase política el proceso realizado, además que considera que la actitud de la ciudadanía estuvo a la altura y no "ensombrecieron el paisaje democrático en estos días" como si el proceso como se dió lo haya sido. Para el diario, claramente se dieron las condiciones democráticas en este caso y la velocidad del mismo fue correcto. Resulta interesante leer el último parrafo de la nota que dice:  "ABC Color desea al presidente Federico Franco el mayor de los éxitos en su misión, en bien de todos, como en su momento también se deseó lo mismo, con la mayor sinceridad, al expresidente Lugo. De su gestión depende la recuperación del optimismo y la esperanza de que esta etapa política, la que hoy se inicia, sea tan luminosa como la que todo el pueblo paraguayo anhela"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En esta nota se realiza una fuerte crítica a todos aquellos legisladores que intentan sancionar esta ley, además se pone la atención sobre las autoridades del Indert y del IBR que no tienen ningún control sobre la cantidad de campesinos beneficiarios ni datos sobre ellos. En este caso, las críticas no son exclusivamente hacia la gestión de Lugo pero deja entrever que durante su gobierno poco se hizo en relación a la reforma agraria y a la situación de los campesinos.  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2115,6 +2314,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2172,7 +2377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2213,6 +2418,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2493,11 +2704,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G172"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,7 +2741,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5986,11 +6197,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6024,10 +6235,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>556</v>
       </c>
@@ -6050,7 +6261,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>556</v>
       </c>
@@ -6070,15 +6281,15 @@
         <v>564</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>556</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C4" s="6">
         <v>40992</v>
@@ -6087,13 +6298,13 @@
         <v>558</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>568</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="153" customHeight="1" x14ac:dyDescent="0.25">
@@ -6101,7 +6312,7 @@
         <v>556</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C5" s="6">
         <v>40993</v>
@@ -6110,21 +6321,21 @@
         <v>558</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>574</v>
+      <c r="B6" s="8" t="s">
+        <v>573</v>
       </c>
       <c r="C6" s="6">
         <v>40996</v>
@@ -6133,13 +6344,13 @@
         <v>558</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>576</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6147,7 +6358,7 @@
         <v>556</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C7" s="6">
         <v>40998</v>
@@ -6156,13 +6367,13 @@
         <v>558</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>580</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6170,7 +6381,7 @@
         <v>556</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C8" s="6">
         <v>41000</v>
@@ -6179,13 +6390,13 @@
         <v>558</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>584</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
@@ -6193,7 +6404,7 @@
         <v>556</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C9" s="6">
         <v>41001</v>
@@ -6202,13 +6413,13 @@
         <v>558</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>588</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6216,7 +6427,7 @@
         <v>556</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C10" s="6">
         <v>41002</v>
@@ -6225,13 +6436,13 @@
         <v>558</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>592</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.25">
@@ -6239,7 +6450,7 @@
         <v>556</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C11" s="6">
         <v>41004</v>
@@ -6248,13 +6459,13 @@
         <v>558</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>596</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6262,7 +6473,7 @@
         <v>556</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C12" s="6">
         <v>41007</v>
@@ -6271,13 +6482,13 @@
         <v>558</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>600</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -6285,7 +6496,7 @@
         <v>556</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C13" s="6">
         <v>41009</v>
@@ -6294,13 +6505,13 @@
         <v>558</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>604</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -6308,7 +6519,7 @@
         <v>556</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C14" s="6">
         <v>41011</v>
@@ -6317,13 +6528,13 @@
         <v>558</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>608</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6331,7 +6542,7 @@
         <v>556</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C15" s="6">
         <v>41012</v>
@@ -6340,13 +6551,13 @@
         <v>558</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6354,7 +6565,7 @@
         <v>556</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C16" s="6">
         <v>41013</v>
@@ -6363,21 +6574,21 @@
         <v>558</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>556</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C17" s="6">
         <v>41014</v>
@@ -6386,21 +6597,21 @@
         <v>558</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F17" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>556</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C18" s="6">
         <v>41018</v>
@@ -6409,13 +6620,13 @@
         <v>558</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F18" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>624</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6423,7 +6634,7 @@
         <v>556</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C19" s="6">
         <v>41020</v>
@@ -6432,13 +6643,13 @@
         <v>558</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>629</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6446,7 +6657,7 @@
         <v>556</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C20" s="6">
         <v>41028</v>
@@ -6455,13 +6666,13 @@
         <v>558</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>633</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="132" customHeight="1" x14ac:dyDescent="0.25">
@@ -6469,7 +6680,7 @@
         <v>556</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C21" s="6">
         <v>41032</v>
@@ -6478,13 +6689,13 @@
         <v>558</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>637</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6492,7 +6703,7 @@
         <v>556</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C22" s="6">
         <v>41038</v>
@@ -6501,13 +6712,13 @@
         <v>558</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>641</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6515,7 +6726,7 @@
         <v>556</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C23" s="6">
         <v>41040</v>
@@ -6524,13 +6735,13 @@
         <v>558</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>645</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
@@ -6538,7 +6749,7 @@
         <v>556</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C24" s="6">
         <v>41042</v>
@@ -6547,13 +6758,13 @@
         <v>558</v>
       </c>
       <c r="E24" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="G24" s="8" t="s">
         <v>649</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
@@ -6561,7 +6772,7 @@
         <v>556</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C25" s="6">
         <v>41046</v>
@@ -6570,13 +6781,13 @@
         <v>558</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>653</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6584,7 +6795,7 @@
         <v>556</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C26" s="6">
         <v>41048</v>
@@ -6593,13 +6804,13 @@
         <v>558</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="G26" s="8" t="s">
         <v>657</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="180" customHeight="1" x14ac:dyDescent="0.25">
@@ -6607,7 +6818,7 @@
         <v>556</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C27" s="6">
         <v>41049</v>
@@ -6616,13 +6827,13 @@
         <v>558</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="8" t="s">
         <v>661</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6630,7 +6841,7 @@
         <v>556</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C28" s="6">
         <v>41054</v>
@@ -6639,234 +6850,468 @@
         <v>558</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="C29" s="6">
+        <v>41056</v>
+      </c>
       <c r="D29" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="E29" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="C30" s="6">
+        <v>41060</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C31" s="6">
+        <v>41061</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C32" s="6">
+        <v>41063</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C33" s="6">
+        <v>41066</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="C34" s="6">
+        <v>41068</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C35" s="6">
+        <v>41069</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C36" s="6">
+        <v>41070</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="C37" s="6">
+        <v>41073</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="C38" s="6">
+        <v>41075</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C39" s="6">
+        <v>41076</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C40" s="6">
+        <v>41077</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C41" s="6">
+        <v>41079</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C42" s="6">
+        <v>41080</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="C43" s="6">
+        <v>41081</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="C44" s="6">
+        <v>41082</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="C45" s="6">
+        <v>41083</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4B3428-7C70-4DE4-B0C2-460EA75D15D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E022F7-C0F2-47ED-999A-0ECBE99058EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -756,40 +756,22 @@
     <t>A pesar de la extensa movilización de miembros de las fuerzas de seguridad por parte de la gestión de Lugo, aun no se han podido detener a miembros operativos del EPP</t>
   </si>
   <si>
-    <t>Interesante por el título y el tono de la edtorial. Ya en el copete, se plantea la idea "del cambio" o, más bien, la falta de ella. Plantea que el gobierno de Lugo miente en relación a lo que hace, no le interesa cooperar con otros sectores políticos, se menciona la idea de "oportunismo demagógico". Además de realizar vaticinios sobre lo que sucederá si Lugo no cambia su accionar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Las contradicciones y paradojas que hacen retroceder al Paraguay </t>
   </si>
   <si>
-    <t>Jose Mujica - Fernando Lugo - diferencias</t>
-  </si>
-  <si>
     <t>Diferencias en el accionar de Fernando Lugo y José Mujica al asumir en sus cargos</t>
   </si>
   <si>
-    <t>Editorial muy crítica con Lugo ya que lo compara con Mujica planteando que no tiene un rumbo fijo, se alinea con personas cercanas a su gobierno que solo tienen como fin la pelea directa con la oposicion y a quien no le interesa las mejoras en la sociedad."Mujica y Lugo, con claridad, evidencian la diferencia entre un estadista sensato y un dinosaurio político que solo busca la holgura sibarita del poder". </t>
-  </si>
-  <si>
     <t xml:space="preserve">El fracaso de la reforma agraria es el reflejo de la falta de liderazgo de Lugo </t>
   </si>
   <si>
     <t>Reforma Agraria- Indert - Cepra</t>
   </si>
   <si>
-    <t>La renuncia del presidente del Indert se suma a las problematicas en torno a la reforma agraria. Para ello, el gobierno relanza la Coordinadora Ejecutiva para la Reforma Agraria (Cepra)</t>
-  </si>
-  <si>
-    <t>Se vuelve a mencionar la idea del cambio, o la falta de ella, ahora, en relación a la reforma agraria y la falta de politicas por parte de la gestión de Lugo. Al final de la editorial se plantea que hay una "falta de liderazgo" por parte del ex obispo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Un gobierno sin firmeza no despierta credibilidad y pierde liderazgo </t>
   </si>
   <si>
     <t>Liderazgo - internas - APC</t>
-  </si>
-  <si>
-    <t>Problemas internos entre el Ministro de defensa con el Vicepresidente que genera rispideces al interior de la coalicion gobernante</t>
   </si>
   <si>
     <t xml:space="preserve">Vuelve a formular la falta de liderazgo de Lugo al no poder generar un cierto orden entre sus funcionarios debido a las diferencias ideológicas entre izquierda y derecha. Cierra la editorial con esta idea "Si le es imposible al presidente Lugo dotar a su Gobierno de una estrategia, o su estrategia es no tener ninguna para tratar de quedar bien con todos, vale la pena recordarle que es un estilo político peligroso y que puede costar caro a todos".
@@ -814,9 +796,6 @@
     <t xml:space="preserve">desigualdades - desarrollo económico - </t>
   </si>
   <si>
-    <t>Cuales son los mecanismos mediantes los cuales se soluciona los problemas económicos y desigualdad en el país, qué modelo adoptar</t>
-  </si>
-  <si>
     <t>Se menciona por primera vez la idea del "buen estadista" (una especie de ideal de político) que por supuesto no refiere a Lugo. Además es una editorial que menciona una crítica muy indirecta y bastante oculta en relación a la presencia de nepotismo y compadrazgo en el gobierno de Lugo</t>
   </si>
   <si>
@@ -850,9 +829,6 @@
     <t>EPP - Ley de estado de excepción - medidas adoptadas</t>
   </si>
   <si>
-    <t>La falta de medidas adoptadas por el Poder Ejecutivo para derrotar al EPP luego de la promulgacion de la ley de estado de excepcion de varios estados del país</t>
-  </si>
-  <si>
     <t>Plantea nuevamente la falta de liderazgo de Lugo junto a sus ideas poco claras. Además de dejar instalada las "verdaderas intenciones" que puede tener Lugo con respecto al EPP y por qué aun no se lo logró derrotar</t>
   </si>
   <si>
@@ -865,9 +841,6 @@
     <t>Sobre el informe presentado por Lugo ante el Congreso sobre lo hecho durante los primeros doce meses de gobierno</t>
   </si>
   <si>
-    <t>Editorial que plantea las falencias de lo hecho por el gobierno de Lugo ante lo expuesto en el Congreso. Se vuelve a mencionar la idea del asistencialismo y la busqueda de caudal de votos a través de la entrega de planes sociales. Se dejó planteado nuevamente la idea de que el presidente "habla mucho y hace poco" que "edulcora la realidad"</t>
-  </si>
-  <si>
     <t xml:space="preserve">El gobierno carece de argumentos para creerle que derrotará a la pobreza </t>
   </si>
   <si>
@@ -877,29 +850,6 @@
     <t>Criticas al anuncio por parte del Ministro de Hacienda de que el objetivo del gobierno de Fernando Lugo es reducir la pobreza un 50% para el año 2013</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Muy interesante ya que se menciona la idea de que el gobierno de Lugo ya perdio credibilidad y confianza en la población según el diario. Deja planteado que no se está ante un gobierno serio y responsable sino poco transparente y poco eficiente. Además se expresa: "Si se actúa por el mero afán de declarar una intención rimbombante sin el sustento de la capacidad cierta de cumplir, se cae en la pura demagogia, un instrumento de regímenes que solo buscan distraer la atención para encubrir su incompetencia".</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Este es el momento de una autocrítica del Gobierno para superar sus gruesos errores </t>
   </si>
   <si>
@@ -915,15 +865,6 @@
     <t>Crecimiento económico - políticas públicas - pobreza</t>
   </si>
   <si>
-    <t>A pesar del auge en el comercio de la soja y la carne y en el sector de la contrucción, el problema de la pobreza y la indigencia aun son muy importantes</t>
-  </si>
-  <si>
-    <t>Vuelve a mencionar la idea del cambio para decir que aun permanecen los problemas en relacion a la pobreza y la integridad social. Además deja entrever que el gobierno no sabe lo que hace planteando "improvisaciones y desprolijidades".</t>
-  </si>
-  <si>
-    <t>Editorial que plantea que el gobierno de Lugo no tiene un proyecto de gobierno, designo a funcionarios que no tenian experiencia para esos cargo, " hay ineptitud, desprolijidad y hasta la persistencia de los viejos vicios de corrupción y nepotismo". La editorial tiene un fuerte tono prescriptivo y un título interesante para el análisis</t>
-  </si>
-  <si>
     <t>Pobreza - Tekoporá - Secretaría de Acción Social</t>
   </si>
   <si>
@@ -942,9 +883,6 @@
     <t>Hace un balance de los dos años de gestión de Lugo, realizando proyecciones económicas y políticas a futuro</t>
   </si>
   <si>
-    <t>Lo interesante en esta editorial refiere a lo "no resuelto" aun por Lugo lugo de dos años de gestión, y la incapacidad que refleja la editorial de generar alianzas y diálogo con otros sectores políticos y con partidos al interior de su propia Alianza. "Sus problemas íntimos, su creencia original de que podía gobernar sin los partidos políticos y la influencia de un pequeño entorno de izquierda, hicieron que Lugo generara decepciones, cometiera errores estratégicos y perdiera el tiempo".</t>
-  </si>
-  <si>
     <t xml:space="preserve"> El asistencialismo de la SAS es pernicioso porque carece de estímulos para trabajar </t>
   </si>
   <si>
@@ -957,19 +895,10 @@
     <t>Sostiene que es necesario un cambio estructural en el Poder Ejecutivo, más precisamente en el funcionamiento de la Administración pública</t>
   </si>
   <si>
-    <t xml:space="preserve">Solo es útil cuando se menciona que la reforma del ejecutivo tiene que responder a un modelo de país y, en este caso, el gobierno de Lugo no lo tiene ya que "posee una conformacion muy heterogenea y anárquica y tampoco sabe hacia donde se dirige". </t>
-  </si>
-  <si>
     <t>Tras la incertidumbre, ahora es el momento de trabajar por la buena salud de la República</t>
   </si>
   <si>
     <t>Fernando Lugo - problemas de salud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El camino que debe seguir el gobierno paraguayo lugo de atravesada la dificultad de salud sufrida por el presidente. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lo interesante de esta editorial refiere a las opiniones que esboza el diario en relacion a las amenazas de remocion del presidente ante sus problemas de salud. Esta bueno para pensar como entendían en este momento la apelacion a algun tipo de maniobra "constitucional" de la oposicion para alzarse con el poder. </t>
   </si>
   <si>
     <t>La política que hoy se acepta es la que acorta la brecha de las desigualdades sociales</t>
@@ -991,12 +920,6 @@
     <t>Policía y Fuerzas Armadas - modernización - infraestructura</t>
   </si>
   <si>
-    <t xml:space="preserve">Se hace una crítica a las intenciones de Lugo y su gobierno en relacion al gasto que van a destinar a la Policía y las Fuerzas Armadas en relación a su rearme armamentista y modernización. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vuelve a mencionar la idea del "buen estadista" y qué cosas debería realizar. En este caso, Lugo no lo es y se plantea que Lugo no tiene idea de las necesidades prioritarias de la nacion y de la "radiografía nacional". Es decir, se vuelve a mencionar, con esta crítica, la falta de preparacion política y de experiencia en la administracion pública de Lugo y su gobierno. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Para que el crecimiento beneficie al país, necesitamos un gobierno eficiente, obras y equidad social </t>
   </si>
   <si>
@@ -1006,27 +929,15 @@
     <t xml:space="preserve">Realiza un balance de lo hecho, o no, durante el año 2010 por el gobierno de Fernando Lugo </t>
   </si>
   <si>
-    <t xml:space="preserve">Editorial interesante que hace mención a los problemas que Lugo no pudo resolver durante el año 2010 a pesar del crecimiento económico. Deja entredicho la incapacidad de darle solucion, de generar alianzas políticas con otros sectores, que no cuenta con un plan de gobierno ya que se menciona la idea de improvisación, y de un actitud demagogica ya que se realizaron promesas que aun no se cumplieron. </t>
-  </si>
-  <si>
     <t>Reforma agraria - Indert</t>
   </si>
   <si>
     <t xml:space="preserve">El mayor obstáculo que afronta hoy la reforma agraria es el propio Lugo </t>
   </si>
   <si>
-    <t>El problema de la reforma agraria, la situacion de la población rural y las amenazas en relacion al cambio de mando en el Indert</t>
-  </si>
-  <si>
-    <t>Se plantea a la reforma agraria como la deuda mas importante que tiene Lugo para con el pueblo paraguayo. E incluso se lo señala directamente al presidente como el principal obstaculo para que una reforma pueda darse. Claramente visualizado en el título</t>
-  </si>
-  <si>
     <t xml:space="preserve">En el problema de la tierra, lo único que el Gobierno demuestra es incapacidad </t>
   </si>
   <si>
-    <t xml:space="preserve">Reforma agraria - invasion propiedad privada - </t>
-  </si>
-  <si>
     <t>La problemática del campo se acrecienta con el aumento de las invasiones a propiedades privadas por parte de los campesinos como métodos de protesta por la reforma agraria</t>
   </si>
   <si>
@@ -1042,9 +953,6 @@
     <t xml:space="preserve">Sobre los viajes realizados por Lugo a Taiwán y Vietnam. Además sobre su política exterior y su economía exportadora </t>
   </si>
   <si>
-    <t>En esta editorial se hace mencion a otra critica recurrente que refiere a la incapacidad del gobierno de Lugo en terminos de política exterior. Se plantea la falta de voluntad política o ineficiencia , además de un "estilo de administración mendicante" .  "A no ser que sea para proyectar la imagen de un gobierno tan inconsecuente, mendaz y a veces hasta servil, a tal punto de desconocer nuestras prioridades nacionales y aun exponer nuestra soberanía".</t>
-  </si>
-  <si>
     <t xml:space="preserve">Al presidente Lugo le sobra poco tiempo para cumplir sus promesas electorales </t>
   </si>
   <si>
@@ -1063,9 +971,6 @@
     <t>Inacción - gestión gubernamental - demagogia</t>
   </si>
   <si>
-    <t>Ante el cumplimiento de los tres años de gestión de Lugo, esta editorial realiza una critica importante a los problemas que ún persisten en la administración de Lugo.</t>
-  </si>
-  <si>
     <t xml:space="preserve">El título ya marca el tono de la editorial. Se vuelven a mencionar las "promesas incumplidas", la demagogia, la inacción, la falta de un plan de gobierno, la idea de que se "apaga incendios" antes que adelantarse a los hechos y la falta de gobernabilidad. </t>
   </si>
   <si>
@@ -1075,9 +980,6 @@
     <t>"Estado papá" - "Estado policial" - Gobierno</t>
   </si>
   <si>
-    <t xml:space="preserve">Ante los dichos de un secretario de gobierno, por la expectativa y la necesidad de ciertos sectores de la sociedad, de la ayuda economica brindada por el estado, se desataron varias críticas desde otros sectores y del mismo diario en esta editorial. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Interesante ya que a partir de los comentarios de un funcionario de Lugo que hace mención a la idea del "estado papá", el diario aprovecha para señalar todos los problemas no resueltos por el gobierno, y aludiendo nuevamente a la "política asistencialista de Lugo" y la aparición de este "estado policial", es decir, "tutor de los sectores privilegiados, represivo y además inútil para reducir la delincuencia". </t>
   </si>
   <si>
@@ -1085,12 +987,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fernando Lugo - imprevisibilidad - funcionarios de gobierno </t>
-  </si>
-  <si>
-    <t>Las amenezas constantes de cambios en las secretarias o en los ministerios hacen que el gobierno de Lugo resulte imprevisible.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantea la impresibilidad de Lugo, dejandolo ver como una figura que actúa ante presiones ajenas e internas de la coalición, que genera dudas, inconsecuencias y como un político débil. </t>
   </si>
   <si>
     <t>No se puede desperdiciar el tiempo discutiendo sobre la reelección presidencial</t>
@@ -1726,27 +1622,15 @@
     <t>Al principio parecería que rechaza la manera en la cual concluyó el juicio político, sin embargo en el desarrollo de la nota hace una crítica a la clase política en general por los problemas que persisten en Paraguay pero empieza a enumerar cuáles fueron las promesas inclumplidas del ex presidente Lugo como si estuviera intentando justificar el desenlace del mandatario. A pesar de lo expresado en la nota del día anterior, en níngun momento se pregunta por la rapidez del proceso y el respeto de las garantías constitucionales para con Lugo.</t>
   </si>
   <si>
-    <t xml:space="preserve">SECCIÓN (N° DE PÁG.) </t>
-  </si>
-  <si>
     <t>PALABRAS CLAVE</t>
   </si>
   <si>
-    <t>Abc Color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metrobus, un elefante blanco para Asunción </t>
-  </si>
-  <si>
     <t>Editorial</t>
   </si>
   <si>
     <t>Metrobús - transporte público - financiamiento</t>
   </si>
   <si>
-    <t>Sobre las intenciones del Gobierno de Fernando Lugo de que se apruebe el credito necesario para llevar adelante el proyecto de Metrobús.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Editorial muy crítica con respecto al gobierno de Lugo ya que plantea que desconoce la realidad de lo que se vive en Paraguay en relación al transporte público, que el proyecto oculta intereses privados y que insiste con la implementación del proyecto porque cuando las consecuencias se vean, ellos ya no estarán en el poder. Se contrapone con la opinión que tiene el diario Ultima Hora en relación a este tema. </t>
   </si>
   <si>
@@ -1768,9 +1652,6 @@
     <t>La cumbre de Unasur que se celebró en Paraguay y las repercusiones de la misma.</t>
   </si>
   <si>
-    <t>Es una nota que deja en claro cuál es la posición del diario en relación a la "integración latinoamericana" y la participación de Paraguay en este tipo de "fantasmas burocráticos" como los llama. Además tiene fuertes críticas para con Hugo Chávez y considera al gobierno de Cristina Fernandez como un "régimen". Además, plantea que el gobierno de Lugo no sabe exigir que se respeten los derechos de los paraguayos. "no se trata más que de otro armatoste político obeso, oneroso e inútil, que vino a sumarse a los varios ejemplares del mismo tipo que ya tenemos que sostener financieramente los contribuyentes" (en relación a Unasur).</t>
-  </si>
-  <si>
     <t xml:space="preserve">El manual del Che se está aplicando en Paraguay </t>
   </si>
   <si>
@@ -1780,18 +1661,12 @@
     <t>Fuerte denuncia sobre un "supuesto camino" dictado por el Che Guevara que estaría siguiendo Fernando Lugo.</t>
   </si>
   <si>
-    <t>Editorial muy importante para el análisis ya que considera a Lugo como una figura autoritaria que tiene intenciones de perpetrarse en el poder luego de finalizado su mandato constitucional. Además de relacionarlo directamente con el EPP, diciendo que es un mecanismo que utiliza siguiendo los parametros establecidos por el Che Guevara. Además menciona que su entorno es marxista y que intenta establecer una dictadura personal que pondría en peligro la democracia paraguaya. Releer.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Están sedientos de dinero fresco </t>
   </si>
   <si>
     <t>Plan Anticíclico 2012 - Fernando Lugo - clientelismo político</t>
   </si>
   <si>
-    <t>Sobre el Plan Antíciclio 2012 presentado por el Jefe de Gabinete Civil de la presidencia que utlizaría las reservas internacionales y determinados recursos económicos para inversiones a largo plazo.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Editorial que plantea nuevamente las supuestas intenciones de Lugo de perpetuarse en el poder, en este caso, a partir del control de ciertos recursos económicos que le permitiría "comprar los votos de la gente más necesitada en los comicios del año 2013". Es importante por el título, el tono de la nota y su contenido. Vuelve a mencionarse la idea de que Lugo intenta instalar una izquierda bolivariana. </t>
   </si>
   <si>
@@ -1813,12 +1688,6 @@
     <t>Carperos - ocupaciones - productores agrícolas</t>
   </si>
   <si>
-    <t>Los llamados "carperos" o "sin tierra" empezaron a ocupar propiedad muy prósperas e incluso las más ricas del país y amenzan con una huída de futuros inversores y productores extranjeros</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Esta editorial es importante ya que vuelve a hacer una relación directa entre el luguismo y estos grupos denominados "sintierra" (que el diario conoce como EPP) que tienen supuestamente fuertes inclinaciones chavistas. En la nota se hace mención a Lugo como "el obispo" y su pasado en la Iglesia Católica, además de afirmar que  "castro-chavismo marxista lo ganó a el para su causa". Al final de la nota también se hace un vaticinio casi trágico de lo que secederá con la economía paraguaya y sobre cómo la gente debe actuar en las próximas elecciones presidenciales.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A las Malvinas no se las puede bloquear, al Paraguay sí. </t>
   </si>
   <si>
@@ -1828,9 +1697,6 @@
     <t>Las declaraciones de Luis Almagro, canciller uruguayo sobre la decisión de la Cámara de Comercio Británica de su país de mantener el intercambio de mercaderías con las islas Malvinas.</t>
   </si>
   <si>
-    <t>Editorial muy interesante que hace mención al Protocolo de Montevideo adelantandose a los hechos y planeando la "hipotética situación" en la que los países vecinos al Paraguay conisderen que se alteró el orden político durante la gestión de Fernando Lugo. Resulta interesante analizar el motivo de esta nota editorial y la posición que tomaría el diario en el caso de llevarse a cabo la destitución del presidente.</t>
-  </si>
-  <si>
     <t>Partido Liberal - luguismo bolivariano</t>
   </si>
   <si>
@@ -1852,9 +1718,6 @@
     <t>En el día de conmemoración de la "pasión de Jesús", la nota hace un fuerte descargo en relación a la corrupción que sufre el Paraguay.</t>
   </si>
   <si>
-    <t>Es interesante ver cómo, al igual que en el diario Ultima Hora, se hace mención a la idea del "gobierno del cambio" que Lugo venía a encarnar que "finalmente no se dio" en el sentido de que se asemeja a los gobiernos anteriores colorados, en ese caso, en temas de corrupción. Además, también hace mención al supuesto nepostimo en su gestión contratando a personas cercanas a su entorno y a su falta de preparación política para el cargo. Al final se hace mención que ningún "mesías salvador" podrá solucionar los problemas paraguayos (considero que indirectamente hace referencia a Lugo por su condición de clérigo y la utilización del  término católico).</t>
-  </si>
-  <si>
     <t xml:space="preserve">A Lugo le conviene un candidato liberal “trucho” </t>
   </si>
   <si>
@@ -1864,9 +1727,6 @@
     <t>La victoria del senador Blas Llano en las elecciones internas del Partido Liberal y su relación con el gobierno de Lugo.</t>
   </si>
   <si>
-    <t xml:space="preserve">En esta nota vuelve a mencionarse las intenciones políticas de Lugo de ganar las próximas elecciones presidenciales. En este caso, aparece de manera interesante la supuesta intención de Lugo de dividir los dos prinicipales partidos políticos tradicionales para su propio provecho electorialista. Se vuelve a mencionar la idea "bolivariana" y vuelve a hacerse futurología. </t>
-  </si>
-  <si>
     <t xml:space="preserve">“Los generales mienten” </t>
   </si>
   <si>
@@ -1876,9 +1736,6 @@
     <t>Proyecto de Ley - Soldado temporal voluntario - FFAA</t>
   </si>
   <si>
-    <t xml:space="preserve">Nuevamente vuelve a insistirse con la idea de que el gobierno de Lugo se encuentra influido por las ideologías propuestas por el gobierno de Hugo Chávez, y se hace una comparación con el gobierno del último dictajdor paraguayo Alfredo Stroessner. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Buscan amarrar a los pobres para pedirles el voto </t>
   </si>
   <si>
@@ -1912,9 +1769,6 @@
     <t>Sobre la aprobación por el Senado de una resolución que declara vacantes siete de los nueve cargos de ministros que componen la Corte Suprema de Justicia.</t>
   </si>
   <si>
-    <t xml:space="preserve">Como en casi todas las editoriales analizadas vuelve a mencionarse la idea de la ideología bolivariana. En este caso se menciona que Lugo en vez dce contar con una izquierda que apunta al desarrollo, se encuentra con una "izquierda fanatizada, fundamentalista y profundamente ideologizada, la que se adhiere a los principios del socialismo bolivariano del siglo XXI". Además hace mención por primera vez a la idea de un "golpe político" por parte del luguismo para hacerse con el control del sector juridisccional. </t>
-  </si>
-  <si>
     <t>derecho a elegir - listas sabanas - democracia</t>
   </si>
   <si>
@@ -1933,9 +1787,6 @@
     <t xml:space="preserve">Paraguay sumido en el desamparo </t>
   </si>
   <si>
-    <t>La falta de acción de los funcionarios a cargo del Ministerior de Relaciones Exteriores frente a las medidas proteccionistas aplicadas por el gobierno argentino.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Esta editorial vuelve a mencionar el tema de las trabas económicas aplicadas por Argentina y se hace mención a la inacción y a la falta de capacidad de los políticos paraguayos en reclamar por sus propios derechos. Además se vuelve a mencionar la afinidad ideológica de Lugo con el gobierno argentino que explicaría la ausencia de un pronunciamiento ante esta situación. De manera indirecta vuelve a criticarse la figura del Mercosur. </t>
   </si>
   <si>
@@ -1975,9 +1826,6 @@
     <t>Ante el aniversario del Dia Mundial de Libertad de Prensa, la nota plantea la importancia de la libertad de expresión en una sociedad como la paraguaya.</t>
   </si>
   <si>
-    <t xml:space="preserve">Lo interesante de esta nota es que se vuelve a mencionar esta "supuesta amenaza" que implica el avance "bolivariano" en la región con presidentes como Hugo Chavez o Cristina Fernandez, y el rol que estaría teniendo Lugo en Paraguay. Sorprende que a pesar de que no se haya realizado ninguna maniobra precisa que de a entender de un avasallamiento frente a la prensa, el diario deja entrever supuestos actos de hostilidad a medios "independientes" que nunca antes fueron mencionados. </t>
-  </si>
-  <si>
     <t>Manifestemos nuestra indignación</t>
   </si>
   <si>
@@ -2011,9 +1859,6 @@
     <t xml:space="preserve">Las actitudes contradictorias que presentarían los llamados "políticos de izquierda" en las cuales sus dichos no irían de la mano con su formas de vida. </t>
   </si>
   <si>
-    <t xml:space="preserve">Esta nota hace mención nuevamente a estos líderes de izquierda que tanta crítica despierta en el diario como son Chavez, Kirchner, Correa, Castro. Resulta interesante las maneras de definirlo, por ejemplo: bolivarianismo criollo , la izquierda caviar del país, los "auténticos" progresistas. Vuelve a mencionarse la "hipocresía" de Lugo entre lo que decía cuando asumió y sus actitudes actuales, además de recordar su pasado religioso. </t>
-  </si>
-  <si>
     <t>Que no sea otro viaje turístico más</t>
   </si>
   <si>
@@ -2023,18 +1868,12 @@
     <t>El Presidente Lugo está a punto de emprender una gira presidencial por cinco países asiáticos con el propósito de visibilizar la realidad paraguaya.</t>
   </si>
   <si>
-    <t xml:space="preserve">En la nota se hace una crítica muy profunda a Lugo en relación a su política exterior y a los numerosos viajes que emprendió como mandatario. Además vuelve a mencionarse las trabas ejercidas por el gobierno argentino y su inacapacidad de dar soluciones a una serie de problemas. Resulta interesante ver que se lo llama como "santo cohete Fernando Lugo", siempre jugando con términos relacionados a su condición de ex obispo. </t>
-  </si>
-  <si>
     <t>Indecoroso manoseo de la política exterior</t>
   </si>
   <si>
     <t>Política Exterior - vacantes - Poder Ejecutivo y Legislativo</t>
   </si>
   <si>
-    <t>Las vacantes que aun persisten en algunas sedes paraguayas en el esterior por las discrepancias que existen entre los poderes ejecutivo y lesgislativo para el nombramiento de representantes.</t>
-  </si>
-  <si>
     <t>En esta nota se vuelve a mencionar la incapacidad de Lugo de llevar una buena política exterior durante su gestión. Para destacar son algunas de las maneras en las cuales se nombra a la clase política: tribu cavernaria y dirigencia inmadura y camorrera.</t>
   </si>
   <si>
@@ -2107,9 +1946,6 @@
     <t xml:space="preserve">Sobre la persecución política que supuestamente muchos gobiernos latinoamericanos están cometiendo contra periodistas y políticos opositores que hacen entender, que cometen los mismos delitos de los cuales ellos fueron víctimas en épocas dictatoriales. </t>
   </si>
   <si>
-    <t xml:space="preserve">Vuelve a mencionarse el tema de la persecucion política en Latinoamérica y de la falta de solidaridad para con aquellos por parte de los presidentes latinoamericanos debido a su alianza ideológica. Tema muy recurrente en este diario. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Pretender concretar el sueño dorado de los dictadores </t>
   </si>
   <si>
@@ -2128,21 +1964,12 @@
     <t>Manifestaciones ciudadanas - actos vandálicos - partidos políticos</t>
   </si>
   <si>
-    <t>Los actos de violencia y vandalismo que sufrieron las instalaciones de los dos partidos políticos tradicionales de Paraguay durante las manifestaciones que tuvieron lugar en Asunción con el fin de rechazar la postergacion de la ley que terminaría con las listas sábanas.</t>
-  </si>
-  <si>
-    <t>Lo interesante en esta editorial es cómo a partir de actos de violencia que desataron un grupo de personas que aun no fueron identificados, se asocia que podrían responder al gobierno de Lugo en función de generar crisis internas al interior de los partidos políticos tradicionales. Todas muestras de "futurismo", predicciones, vaticinios casi trágicos para la democracia paraguay. Por ejemplo:"podrían constituir el ariete de un eficiente intento por restaurar una dictadura en nuestro país, aunque no precisamente de derecha".</t>
-  </si>
-  <si>
     <t>Asamblea General de la OEA - Jorge Lara Castro - Declaraciones</t>
   </si>
   <si>
     <t xml:space="preserve">Le echan la culpa a otros de su inutilidad </t>
   </si>
   <si>
-    <t>Las declaraciones realizadas por el Canciller Jorge Lara Castro en la Asamblea General de la Oea sobre el diagnóstico económico en Paraguay, particularmente con la situación del campo.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Esta nota vuelve a referir a lo no realizado por el gobierno de Fernando Lugo en términos de reforma agraria y mejoras en las condiciones de vida de los campesinos. Vuelve a mencionar la idea del gobierno "del cambio" y vuelve a plantear que sus funcionarios desconocen la realidad económica paraguaya y son incapaces de encontrar soluciones al problema del campo. </t>
   </si>
   <si>
@@ -2152,9 +1979,6 @@
     <t xml:space="preserve">Ministro secretario del Ambiente - Cumbre sobre Desarrollo Sostenible </t>
   </si>
   <si>
-    <t>Vuelve a mencionarse la incoherencia en el gobierno de Lugo entre lo que dice y cómo actúa. (enumera una serie de incoherencias en la nota). Además vuelve a jugar con la idea "del gobierno del cambio" que se repite numerosas veces en la editorial. Además vuelve a plantear que se mantuvieron ciertas caracteristicas existentes en los gobiernos colorados anteriores y que la gestión de Lugo tuvo "las más perversas prácticas de amiguismo, clientela política y manejos poco claros se mantienen rampantes en las instituciones públicas. Se cumplió como nunca aquello de “que cambie todo, para que no cambie absolutamente nada”.</t>
-  </si>
-  <si>
     <t xml:space="preserve">El Ministro Secretario del Ambiente se trasladará con un grupo a la Cumbre de Desarrollo Sostenible Río+20 y esto generó numerosas críticas del diario. </t>
   </si>
   <si>
@@ -2164,12 +1988,6 @@
     <t>¿Quién le robó los US$ 290 millones a Petropar?</t>
   </si>
   <si>
-    <t>El presidente de Petropar, Sergio Escobar, propone que PDVSA goce por seis meses de un monopolio de la venta del gasoíl, para pagar “la maldita deuda de PDVSA".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevamente se menciona la influencia de Chavez en la región, en este caso, a partir de la negociación del petróleo. A pesar de que la deuda contraida con PDVSA se inció en el gobierno de Nicanor Duarte Frutos, el diario no deja de resaltar que se multiplicó durante "el gobierno del cambio". Interesante por el tono de la editorial y por la apelación a preguntas retóricas y como en casi todas las editoriales, a exhortar a la ciudadanía a actuar frente a "estos atropellos" que sufren los ciudadanos. </t>
-  </si>
-  <si>
     <t>Democracia “flexible” a la medida…</t>
   </si>
   <si>
@@ -2203,9 +2021,6 @@
     <t>Las responsabilidades que le competen al gobierno de Fernando Lugo por lo acontecido en Curuguaty y su supuesto acercamiento al grupo denominado EPP.</t>
   </si>
   <si>
-    <t>En esta editorial vuleve a tratarse el tema de Curuguaty y la responsabilidad de Lugo en el hecho. Se menciona nuevamente su cercanìa con el grupo EPP y sus desatenciones a las normativas jurídicas sobre la propiedad privada. En esta nota, el diario hace una declaracón concreta de pedido de juicio político al presidente: "Si en esta oportunidad el Poder Ejecutivo no actúa enérgicamente contra los grupos criminales y violentos que mantienen en zozobra a todo el país, el Congreso debería iniciarle juicio político al Presidente de la República por mal desempeño de funciones".</t>
-  </si>
-  <si>
     <t xml:space="preserve">Curuguaty - respuestas - crisis política </t>
   </si>
   <si>
@@ -2224,12 +2039,6 @@
     <t>Declaraciones - Obispo de Caacupé - Conducción - Fernando Lugo</t>
   </si>
   <si>
-    <t xml:space="preserve">Sobre las declaraciones emitidas por el obispo de Caacupé en relación a lo sucedido en Cuaruguaty y la falta de conducción del presidente Fernando Lugo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otra editorial que dice claramente que la responsabilidad de lo acontecido recae sobre el presidente Fernando Lugo. Vuelve a mencionar sus promesas de campaña incumplidas, y plantea que hay una "ausencia de un necesario liderazgo político", "Fernando Lugo no tiene el “don de conducción”. Utiliza recursos como preguntas retóricas que luego se responden a sí mismos, además de citar frases que el presidente habia dicho en su momento. </t>
-  </si>
-  <si>
     <t>Fernando Lugo - Juicio Político - Líderes bolivarianos</t>
   </si>
   <si>
@@ -2263,10 +2072,201 @@
     <t>Finalmente, se dio la destitución de Fernando Lugo y la llegada a la presidencia de su vice Federico Franco frente a una ciudadanía que no realizó ningún tipo de manifestación importante en rechazo al proceso político.</t>
   </si>
   <si>
-    <t>Esta nota casi que agradece a la clase política el proceso realizado, además que considera que la actitud de la ciudadanía estuvo a la altura y no "ensombrecieron el paisaje democrático en estos días" como si el proceso como se dió lo haya sido. Para el diario, claramente se dieron las condiciones democráticas en este caso y la velocidad del mismo fue correcto. Resulta interesante leer el último parrafo de la nota que dice:  "ABC Color desea al presidente Federico Franco el mayor de los éxitos en su misión, en bien de todos, como en su momento también se deseó lo mismo, con la mayor sinceridad, al expresidente Lugo. De su gestión depende la recuperación del optimismo y la esperanza de que esta etapa política, la que hoy se inicia, sea tan luminosa como la que todo el pueblo paraguayo anhela"</t>
-  </si>
-  <si>
     <t xml:space="preserve">En esta nota se realiza una fuerte crítica a todos aquellos legisladores que intentan sancionar esta ley, además se pone la atención sobre las autoridades del Indert y del IBR que no tienen ningún control sobre la cantidad de campesinos beneficiarios ni datos sobre ellos. En este caso, las críticas no son exclusivamente hacia la gestión de Lugo pero deja entrever que durante su gobierno poco se hizo en relación a la reforma agraria y a la situación de los campesinos.  </t>
+  </si>
+  <si>
+    <t>Es interesante ver cómo, al igual que en el diario Ultima Hora, se hace mención a la idea del "gobierno del cambio" que Lugo venía a encarnar que "finalmente no se dio" en el sentido de que se asemeja a los gobiernos anteriores colorados, en ese caso, en temas de corrupción. Además, también hace mención al supuesto nepotismo en su gestión contratando a personas cercanas a su entorno y a su falta de preparación política para el cargo. Al final se hace mención que ningún "mesías salvador" podrá solucionar los problemas paraguayos (considero que indirectamente hace referencia a Lugo por su condición de clérigo y la utilización del  término católico).</t>
+  </si>
+  <si>
+    <t>Interesante por el título y el tono de la editorial. Ya en el copete, se plantea la idea "del cambio" o, más bien, la falta de ella. Plantea que el gobierno de Lugo miente en relación a lo que hace, no le interesa cooperar con otros sectores políticos, se menciona la idea de "oportunismo demagógico". Además de realizar vaticinios sobre lo que sucederá si Lugo no cambia su accionar</t>
+  </si>
+  <si>
+    <t>José Mujica - Fernando Lugo - diferencias</t>
+  </si>
+  <si>
+    <t>Editorial muy crítica con Lugo ya que lo compara con Mujica planteando que no tiene un rumbo fijo, se alinea con personas cercanas a su gobierno que solo tienen como fin la pelea directa con la oposición y a quien no le interesa las mejoras en la sociedad. "Mujica y Lugo, con claridad, evidencian la diferencia entre un estadista sensato y un dinosaurio político que solo busca la holgura sibarita del poder". </t>
+  </si>
+  <si>
+    <t>La renuncia del presidente del Indert se suma a las problemáticas en torno a la reforma agraria. Para ello, el gobierno relanza la Coordinadora Ejecutiva para la Reforma Agraria (Cepra)</t>
+  </si>
+  <si>
+    <t>Se vuelve a mencionar la idea del cambio, o la falta de ella, ahora, en relación a la reforma agraria y la falta de políticas por parte de la gestión de Lugo. Al final de la editorial se plantea que hay una "falta de liderazgo" por parte del ex obispo</t>
+  </si>
+  <si>
+    <t>Problemas internos entre el Ministro de defensa con el Vicepresidente que genera rispideces al interior de la coalición gobernante</t>
+  </si>
+  <si>
+    <t>Cuales son los mecanismos mediante los cuales se soluciona los problemas económicos y desigualdad en el país, qué modelo adoptar</t>
+  </si>
+  <si>
+    <t>La falta de medidas adoptadas por el Poder Ejecutivo para derrotar al EPP luego de la promulgación de la ley de estado de excepción de varios estados del país</t>
+  </si>
+  <si>
+    <t>Editorial que plantea las falencias de lo hecho por el gobierno de Lugo ante lo expuesto en el Congreso. Se vuelve a mencionar la idea del asistencialismo y la búsqueda de caudal de votos a través de la entrega de planes sociales. Se dejó planteado nuevamente la idea de que el presidente "habla mucho y hace poco" que "edulcora la realidad"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Muy interesante ya que se menciona la idea de que el gobierno de Lugo ya perdió credibilidad y confianza en la población según el diario. Deja planteado que no se está ante un gobierno serio y responsable sino poco transparente y poco eficiente. Además se expresa: "Si se actúa por el mero afán de declarar una intención rimbombante sin el sustento de la capacidad cierta de cumplir, se cae en la pura demagogia, un instrumento de regímenes que solo buscan distraer la atención para encubrir su incompetencia".</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Editorial que plantea que el gobierno de Lugo no tiene un proyecto de gobierno, designo a funcionarios que no tenían experiencia para esos cargo, " hay ineptitud, desprolijidad y hasta la persistencia de los viejos vicios de corrupción y nepotismo". La editorial tiene un fuerte tono prescriptivo y un título interesante para el análisis</t>
+  </si>
+  <si>
+    <t>A pesar del auge en el comercio de la soja y la carne y en el sector de la construcción, el problema de la pobreza y la indigencia aun son muy importantes</t>
+  </si>
+  <si>
+    <t>Vuelve a mencionar la idea del cambio para decir que aun permanecen los problemas en relación a la pobreza y la integridad social. Además deja entrever que el gobierno no sabe lo que hace planteando "improvisaciones y desprolijidades".</t>
+  </si>
+  <si>
+    <t>Lo interesante en esta editorial refiere a lo "no resuelto" aun por Lugo Lugo de dos años de gestión, y la incapacidad que refleja la editorial de generar alianzas y diálogo con otros sectores políticos y con partidos al interior de su propia Alianza. "Sus problemas íntimos, su creencia original de que podía gobernar sin los partidos políticos y la influencia de un pequeño entorno de izquierda, hicieron que Lugo generara decepciones, cometiera errores estratégicos y perdiera el tiempo".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo es útil cuando se menciona que la reforma del ejecutivo tiene que responder a un modelo de país y, en este caso, el gobierno de Lugo no lo tiene ya que "posee una conformación muy heterogénea y anárquica y tampoco sabe hacia donde se dirige". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El camino que debe seguir el gobierno paraguayo Lugo de atravesada la dificultad de salud sufrida por el presidente. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo interesante de esta editorial refiere a las opiniones que esboza el diario en relación a las amenazas de remoción del presidente ante sus problemas de salud. Esta bueno para pensar como entendían en este momento la apelación a algún tipo de maniobra "constitucional" de la oposición para alzarse con el poder. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se hace una crítica a las intenciones de Lugo y su gobierno en relación al gasto que van a destinar a la Policía y las Fuerzas Armadas en relación a su rearme armamentista y modernización. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vuelve a mencionar la idea del "buen estadista" y qué cosas debería realizar. En este caso, Lugo no lo es y se plantea que Lugo no tiene idea de las necesidades prioritarias de la nación y de la "radiografía nacional". Es decir, se vuelve a mencionar, con esta crítica, la falta de preparación política y de experiencia en la administración pública de Lugo y su gobierno. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial interesante que hace mención a los problemas que Lugo no pudo resolver durante el año 2010 a pesar del crecimiento económico. Deja entredicho la incapacidad de darle solución, de generar alianzas políticas con otros sectores, que no cuenta con un plan de gobierno ya que se menciona la idea de improvisación, y de un actitud demagógica ya que se realizaron promesas que aun no se cumplieron. </t>
+  </si>
+  <si>
+    <t>El problema de la reforma agraria, la situación de la población rural y las amenazas en relación al cambio de mando en el Indert</t>
+  </si>
+  <si>
+    <t>Se plantea a la reforma agraria como la deuda mas importante que tiene Lugo para con el pueblo paraguayo. E incluso se lo señala directamente al presidente como el principal obstáculo para que una reforma pueda darse. Claramente visualizado en el título</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reforma agraria - invasión propiedad privada - </t>
+  </si>
+  <si>
+    <t>En esta editorial se hace mención a otra critica recurrente que refiere a la incapacidad del gobierno de Lugo en términos de política exterior. Se plantea la falta de voluntad política o ineficiencia , además de un "estilo de administración mendicante" .  "A no ser que sea para proyectar la imagen de un gobierno tan inconsecuente, mendaz y a veces hasta servil, a tal punto de desconocer nuestras prioridades nacionales y aun exponer nuestra soberanía".</t>
+  </si>
+  <si>
+    <t>Ante el cumplimiento de los tres años de gestión de Lugo, esta editorial realiza una critica importante a los problemas que aún persisten en la administración de Lugo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ante los dichos de un secretario de gobierno, por la expectativa y la necesidad de ciertos sectores de la sociedad, de la ayuda económica brindada por el estado, se desataron varias críticas desde otros sectores y del mismo diario en esta editorial. </t>
+  </si>
+  <si>
+    <t>Las amenazas constantes de cambios en las secretarias o en los ministerios hacen que el gobierno de Lugo resulte imprevisible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantea la impresibilidad de Lugo, dejándolo ver como una figura que actúa ante presiones ajenas e internas de la coalición, que genera dudas, inconsecuencias y como un político débil. </t>
+  </si>
+  <si>
+    <t>Editorial muy importante para el análisis ya que considera a Lugo como una figura autoritaria que tiene intenciones de perpetrarse en el poder luego de finalizado su mandato constitucional. Además de relacionarlo directamente con el EPP, diciendo que es un mecanismo que utiliza siguiendo los parámetros establecidos por el Che Guevara. Además menciona que su entorno es marxista y que intenta establecer una dictadura personal que pondría en peligro la democracia paraguaya. Releer.</t>
+  </si>
+  <si>
+    <t>ABC Color</t>
+  </si>
+  <si>
+    <t>Sobre el Plan Anticíclico 2012 presentado por el Jefe de Gabinete Civil de la presidencia que utilizaría las reservas internacionales y determinados recursos económicos para inversiones a largo plazo.</t>
+  </si>
+  <si>
+    <t>Los llamados "carperos" o "sin tierra" empezaron a ocupar propiedad muy prósperas e incluso las más ricas del país y amenazan con una huida de futuros inversores y productores extranjeros</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Esta editorial es importante ya que vuelve a hacer una relación directa entre el luguismo y estos grupos denominados "sintierra" (que el diario conoce como EPP) que tienen supuestamente fuertes inclinaciones chavistas. En la nota se hace mención a Lugo como "el obispo" y su pasado en la Iglesia Católica, además de afirmar que  "castro-chavismo marxista lo ganó a el para su causa". Al final de la nota también se hace un vaticinio casi trágico de lo que sucederá con la economía paraguaya y sobre cómo la gente debe actuar en las próximas elecciones presidenciales.</t>
+  </si>
+  <si>
+    <t>Editorial muy interesante que hace mención al Protocolo de Montevideo adelantándose a los hechos y planeando la "hipotética situación" en la que los países vecinos al Paraguay consideren que se alteró el orden político durante la gestión de Fernando Lugo. Resulta interesante analizar el motivo de esta nota editorial y la posición que tomaría el diario en el caso de llevarse a cabo la destitución del presidente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En esta nota vuelve a mencionarse las intenciones políticas de Lugo de ganar las próximas elecciones presidenciales. En este caso, aparece de manera interesante la supuesta intención de Lugo de dividir los dos principales partidos políticos tradicionales para su propio provecho electoralista. Se vuelve a mencionar la idea "bolivariana" y vuelve a hacerse futurología. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevamente vuelve a insistirse con la idea de que el gobierno de Lugo se encuentra influido por las ideologías propuestas por el gobierno de Hugo Chávez, y se hace una comparación con el gobierno del último dictador paraguayo Alfredo Stroessner. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como en casi todas las editoriales analizadas vuelve a mencionarse la idea de la ideología bolivariana. En este caso se menciona que Lugo en vez de contar con una izquierda que apunta al desarrollo, se encuentra con una "izquierda fanatizada, fundamentalista y profundamente ideologizada, la que se adhiere a los principios del socialismo bolivariano del siglo XXI". Además hace mención por primera vez a la idea de un "golpe político" por parte del luguismo para hacerse con el control del sector jurisdiccional. </t>
+  </si>
+  <si>
+    <t>La falta de acción de los funcionarios a cargo del Ministerio de Relaciones Exteriores frente a las medidas proteccionistas aplicadas por el gobierno argentino.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo interesante de esta nota es que se vuelve a mencionar esta "supuesta amenaza" que implica el avance "bolivariano" en la región con presidentes como Hugo Chávez o Cristina Fernández, y el rol que estaría teniendo Lugo en Paraguay. Sorprende que a pesar de que no se haya realizado ninguna maniobra precisa que de a entender de un avasallamiento frente a la prensa, el diario deja entrever supuestos actos de hostilidad a medios "independientes" que nunca antes fueron mencionados. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta nota hace mención nuevamente a estos líderes de izquierda que tanta crítica despierta en el diario como son Chávez, Kirchner, Correa, Castro. Resulta interesante las maneras de definirlo, por ejemplo: bolivarianismo criollo , la izquierda caviar del país, los "auténticos" progresistas. Vuelve a mencionarse la "hipocresía" de Lugo entre lo que decía cuando asumió y sus actitudes actuales, además de recordar su pasado religioso. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la nota se hace una crítica muy profunda a Lugo en relación a su política exterior y a los numerosos viajes que emprendió como mandatario. Además vuelve a mencionarse las trabas ejercidas por el gobierno argentino y su incapacidad de dar soluciones a una serie de problemas. Resulta interesante ver que se lo llama como "santo cohete Fernando Lugo", siempre jugando con términos relacionados a su condición de ex obispo. </t>
+  </si>
+  <si>
+    <t>Las vacantes que aun persisten en algunas sedes paraguayas en el exterior por las discrepancias que existen entre los poderes ejecutivo y legislativo para el nombramiento de representantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vuelve a mencionarse el tema de la persecución política en Latinoamérica y de la falta de solidaridad para con aquellos por parte de los presidentes latinoamericanos debido a su alianza ideológica. Tema muy recurrente en este diario. </t>
+  </si>
+  <si>
+    <t>Los actos de violencia y vandalismo que sufrieron las instalaciones de los dos partidos políticos tradicionales de Paraguay durante las manifestaciones que tuvieron lugar en Asunción con el fin de rechazar la postergación de la ley que terminaría con las listas sábanas.</t>
+  </si>
+  <si>
+    <t>Lo interesante en esta editorial es cómo a partir de actos de violencia que desataron un grupo de personas que aun no fueron identificados, se asocia que podrían responder al gobierno de Lugo en función de generar crisis internas al interior de los partidos políticos tradicionales. Todas muestras de "futurismo", predicciones, vaticinios casi trágicos para la democracia Paraguay. Por ejemplo: "podrían constituir el ariete de un eficiente intento por restaurar una dictadura en nuestro país, aunque no precisamente de derecha".</t>
+  </si>
+  <si>
+    <t>Las declaraciones realizadas por el Canciller Jorge Lara Castro en la Asamblea General de la OEA sobre el diagnóstico económico en Paraguay, particularmente con la situación del campo.</t>
+  </si>
+  <si>
+    <t>Vuelve a mencionarse la incoherencia en el gobierno de Lugo entre lo que dice y cómo actúa. (enumera una serie de incoherencias en la nota). Además vuelve a jugar con la idea "del gobierno del cambio" que se repite numerosas veces en la editorial. Además vuelve a plantear que se mantuvieron ciertas características existentes en los gobiernos colorados anteriores y que la gestión de Lugo tuvo "las más perversas prácticas de amiguismo, clientela política y manejos poco claros se mantienen rampantes en las instituciones públicas. Se cumplió como nunca aquello de “que cambie todo, para que no cambie absolutamente nada”.</t>
+  </si>
+  <si>
+    <t>El presidente de Petropar, Sergio Escobar, propone que PDVSA goce por seis meses de un monopolio de la venta del gasoil, para pagar “la maldita deuda de PDVSA".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevamente se menciona la influencia de Chávez en la región, en este caso, a partir de la negociación del petróleo. A pesar de que la deuda contraída con PDVSA se inició en el gobierno de Nicanor Duarte Frutos, el diario no deja de resaltar que se multiplicó durante "el gobierno del cambio". Interesante por el tono de la editorial y por la apelación a preguntas retóricas y como en casi todas las editoriales, a exhortar a la ciudadanía a actuar frente a "estos atropellos" que sufren los ciudadanos. </t>
+  </si>
+  <si>
+    <t>En esta editorial vuelve a tratarse el tema de Curuguaty y la responsabilidad de Lugo en el hecho. Se menciona nuevamente su cercanía con el grupo EPP y sus desatenciones a las normativas jurídicas sobre la propiedad privada. En esta nota, el diario hace una declaración concreta de pedido de juicio político al presidente: "Si en esta oportunidad el Poder Ejecutivo no actúa enérgicamente contra los grupos criminales y violentos que mantienen en zozobra a todo el país, el Congreso debería iniciarle juicio político al Presidente de la República por mal desempeño de funciones".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre las declaraciones emitidas por el obispo de Caacupé en relación a lo sucedido en Curuguaty y la falta de conducción del presidente Fernando Lugo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otra editorial que dice claramente que la responsabilidad de lo acontecido recae sobre el presidente Fernando Lugo. Vuelve a mencionar sus promesas de campaña incumplidas, y plantea que hay una "ausencia de un necesario liderazgo político", "Fernando Lugo no tiene el “don de conducción”. Utiliza recursos como preguntas retóricas que luego se responden a sí mismos, además de citar frases que el presidente había dicho en su momento. </t>
+  </si>
+  <si>
+    <t>Esta nota casi que agradece a la clase política el proceso realizado, además que considera que la actitud de la ciudadanía estuvo a la altura y no "ensombrecieron el paisaje democrático en estos días" como si el proceso como se dio lo haya sido. Para el diario, claramente se dieron las condiciones democráticas en este caso y la velocidad del mismo fue correcto. Resulta interesante leer el último párrafo de la nota que dice:  "ABC Color desea al presidente Federico Franco el mayor de los éxitos en su misión, en bien de todos, como en su momento también se deseó lo mismo, con la mayor sinceridad, al expresidente Lugo. De su gestión depende la recuperación del optimismo y la esperanza de que esta etapa política, la que hoy se inicia, sea tan luminosa como la que todo el pueblo paraguayo anhela"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECCIÓN (Ni DE PÁG.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metrobús, un elefante blanco para Asunción </t>
+  </si>
+  <si>
+    <t>Sobre las intenciones del Gobierno de Fernando Lugo de que se apruebe el crédito necesario para llevar adelante el proyecto de Metrobús.</t>
+  </si>
+  <si>
+    <t>Es una nota que deja en claro cuál es la posición del diario en relación a la "integración latinoamericana" y la participación de Paraguay en este tipo de "fantasmas burocráticos" como los llama. Además tiene fuertes críticas para con Hugo Chávez y considera al gobierno de Cristina Fernández como un "régimen". Además, plantea que el gobierno de Lugo no sabe exigir que se respeten los derechos de los paraguayos. "no se trata más que de otro armatoste político obeso, oneroso e inútil, que vino a sumarse a los varios ejemplares del mismo tipo que ya tenemos que sostener financieramente los contribuyentes" (en relación a Unasur).</t>
   </si>
 </sst>
 </file>
@@ -2707,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G172"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2741,7 +2741,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>625</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4096,7 +4096,7 @@
         <v>222</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>242</v>
+        <v>678</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.25">
@@ -4104,7 +4104,7 @@
         <v>6</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C62" s="6">
         <v>40230</v>
@@ -4113,13 +4113,13 @@
         <v>8</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>244</v>
+        <v>679</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>246</v>
+        <v>680</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4127,7 +4127,7 @@
         <v>6</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C63" s="6">
         <v>40248</v>
@@ -4136,13 +4136,13 @@
         <v>8</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>249</v>
+        <v>681</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>250</v>
+        <v>682</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4150,7 +4150,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C64" s="6">
         <v>40251</v>
@@ -4159,13 +4159,13 @@
         <v>8</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>253</v>
+        <v>683</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4173,7 +4173,7 @@
         <v>6</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C65" s="6">
         <v>40255</v>
@@ -4182,13 +4182,13 @@
         <v>8</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4196,7 +4196,7 @@
         <v>6</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C66" s="6">
         <v>40272</v>
@@ -4205,13 +4205,13 @@
         <v>8</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>261</v>
+        <v>684</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4219,7 +4219,7 @@
         <v>6</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C67" s="6">
         <v>40288</v>
@@ -4228,13 +4228,13 @@
         <v>8</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4242,7 +4242,7 @@
         <v>6</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C68" s="6">
         <v>40294</v>
@@ -4251,13 +4251,13 @@
         <v>8</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4265,7 +4265,7 @@
         <v>6</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C69" s="6">
         <v>40295</v>
@@ -4274,13 +4274,13 @@
         <v>8</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>273</v>
+        <v>685</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4288,7 +4288,7 @@
         <v>6</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C70" s="6">
         <v>40361</v>
@@ -4297,13 +4297,13 @@
         <v>8</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>278</v>
+        <v>686</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4311,7 +4311,7 @@
         <v>6</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C71" s="6">
         <v>40362</v>
@@ -4320,13 +4320,13 @@
         <v>8</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>282</v>
+        <v>687</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4334,7 +4334,7 @@
         <v>6</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C72" s="6">
         <v>40370</v>
@@ -4343,13 +4343,13 @@
         <v>8</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>290</v>
+        <v>688</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -4357,7 +4357,7 @@
         <v>6</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C73" s="6">
         <v>40398</v>
@@ -4366,13 +4366,13 @@
         <v>8</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>288</v>
+        <v>689</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>289</v>
+        <v>690</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
@@ -4380,7 +4380,7 @@
         <v>6</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C74" s="6">
         <v>40401</v>
@@ -4389,13 +4389,13 @@
         <v>8</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="171" customHeight="1" x14ac:dyDescent="0.25">
@@ -4403,7 +4403,7 @@
         <v>6</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C75" s="6">
         <v>40405</v>
@@ -4412,13 +4412,13 @@
         <v>8</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>297</v>
+        <v>691</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4426,7 +4426,7 @@
         <v>6</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C76" s="6">
         <v>40446</v>
@@ -4435,13 +4435,13 @@
         <v>8</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>302</v>
+        <v>692</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4449,7 +4449,7 @@
         <v>6</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C77" s="6">
         <v>40457</v>
@@ -4458,13 +4458,13 @@
         <v>8</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>305</v>
+        <v>693</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>306</v>
+        <v>694</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4472,7 +4472,7 @@
         <v>6</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C78" s="6">
         <v>40495</v>
@@ -4481,13 +4481,13 @@
         <v>8</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4495,7 +4495,7 @@
         <v>6</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C79" s="6">
         <v>40540</v>
@@ -4504,13 +4504,13 @@
         <v>8</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>313</v>
+        <v>695</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>314</v>
+        <v>696</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4518,7 +4518,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="C80" s="6">
         <v>40546</v>
@@ -4527,13 +4527,13 @@
         <v>8</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>318</v>
+        <v>697</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4541,7 +4541,7 @@
         <v>6</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C81" s="6">
         <v>40575</v>
@@ -4550,13 +4550,13 @@
         <v>8</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>321</v>
+        <v>698</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>322</v>
+        <v>699</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4564,7 +4564,7 @@
         <v>6</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="C82" s="6">
         <v>40610</v>
@@ -4573,13 +4573,13 @@
         <v>8</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>324</v>
+        <v>700</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4587,7 +4587,7 @@
         <v>6</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="C83" s="6">
         <v>40613</v>
@@ -4596,13 +4596,13 @@
         <v>8</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>330</v>
+        <v>701</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4610,7 +4610,7 @@
         <v>6</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="C84" s="6">
         <v>40624</v>
@@ -4619,13 +4619,13 @@
         <v>8</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4633,7 +4633,7 @@
         <v>6</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="C85" s="6">
         <v>40630</v>
@@ -4642,13 +4642,13 @@
         <v>8</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>337</v>
+        <v>702</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4656,7 +4656,7 @@
         <v>6</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="C86" s="6">
         <v>40647</v>
@@ -4665,13 +4665,13 @@
         <v>8</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>341</v>
+        <v>703</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -4679,7 +4679,7 @@
         <v>6</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="C87" s="6">
         <v>40658</v>
@@ -4688,13 +4688,13 @@
         <v>8</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>345</v>
+        <v>704</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>346</v>
+        <v>705</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4702,7 +4702,7 @@
         <v>6</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="C88" s="6">
         <v>40661</v>
@@ -4711,13 +4711,13 @@
         <v>8</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4725,7 +4725,7 @@
         <v>6</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="C89" s="6">
         <v>40670</v>
@@ -4734,13 +4734,13 @@
         <v>8</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4748,7 +4748,7 @@
         <v>6</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="C90" s="6">
         <v>40695</v>
@@ -4757,13 +4757,13 @@
         <v>8</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4771,7 +4771,7 @@
         <v>6</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="C91" s="6">
         <v>40698</v>
@@ -4780,13 +4780,13 @@
         <v>8</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.25">
@@ -4794,7 +4794,7 @@
         <v>6</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="C92" s="6">
         <v>40712</v>
@@ -4803,13 +4803,13 @@
         <v>8</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4817,7 +4817,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="C93" s="6">
         <v>40713</v>
@@ -4826,13 +4826,13 @@
         <v>8</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4840,7 +4840,7 @@
         <v>6</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="C94" s="6">
         <v>40725</v>
@@ -4849,13 +4849,13 @@
         <v>8</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4863,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="C95" s="6">
         <v>40727</v>
@@ -4872,13 +4872,13 @@
         <v>8</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4886,7 +4886,7 @@
         <v>6</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="C96" s="6">
         <v>40731</v>
@@ -4895,13 +4895,13 @@
         <v>8</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
@@ -4909,7 +4909,7 @@
         <v>6</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="C97" s="6">
         <v>40769</v>
@@ -4918,13 +4918,13 @@
         <v>8</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4932,7 +4932,7 @@
         <v>6</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="C98" s="6">
         <v>40781</v>
@@ -4941,13 +4941,13 @@
         <v>8</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
@@ -4955,7 +4955,7 @@
         <v>6</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="C99" s="6">
         <v>40783</v>
@@ -4964,13 +4964,13 @@
         <v>8</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
@@ -4978,7 +4978,7 @@
         <v>6</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="C100" s="6">
         <v>40812</v>
@@ -4987,13 +4987,13 @@
         <v>8</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="232.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5001,7 +5001,7 @@
         <v>6</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="C101" s="6">
         <v>40826</v>
@@ -5010,13 +5010,13 @@
         <v>8</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5024,7 +5024,7 @@
         <v>6</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="C102" s="6">
         <v>40835</v>
@@ -5033,13 +5033,13 @@
         <v>8</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="279" customHeight="1" x14ac:dyDescent="0.25">
@@ -5047,7 +5047,7 @@
         <v>6</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="C103" s="6">
         <v>40843</v>
@@ -5056,13 +5056,13 @@
         <v>8</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5070,7 +5070,7 @@
         <v>6</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="C104" s="6">
         <v>40845</v>
@@ -5079,13 +5079,13 @@
         <v>8</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5093,7 +5093,7 @@
         <v>6</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="C105" s="6">
         <v>40858</v>
@@ -5102,13 +5102,13 @@
         <v>8</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="231.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5116,7 +5116,7 @@
         <v>6</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="C106" s="6">
         <v>40861</v>
@@ -5125,13 +5125,13 @@
         <v>8</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5139,7 +5139,7 @@
         <v>6</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="C107" s="6">
         <v>40883</v>
@@ -5148,13 +5148,13 @@
         <v>8</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5162,7 +5162,7 @@
         <v>6</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="C108" s="6">
         <v>40905</v>
@@ -5171,13 +5171,13 @@
         <v>8</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5185,7 +5185,7 @@
         <v>6</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="C109" s="6">
         <v>40910</v>
@@ -5194,13 +5194,13 @@
         <v>8</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.25">
@@ -5208,7 +5208,7 @@
         <v>6</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="C110" s="6">
         <v>40917</v>
@@ -5217,13 +5217,13 @@
         <v>8</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5231,7 +5231,7 @@
         <v>6</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="C111" s="6">
         <v>40939</v>
@@ -5240,13 +5240,13 @@
         <v>8</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5254,7 +5254,7 @@
         <v>6</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="C112" s="6">
         <v>40941</v>
@@ -5263,13 +5263,13 @@
         <v>8</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5277,7 +5277,7 @@
         <v>6</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C113" s="6">
         <v>40943</v>
@@ -5286,13 +5286,13 @@
         <v>8</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5300,7 +5300,7 @@
         <v>6</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="C114" s="6">
         <v>40950</v>
@@ -5309,13 +5309,13 @@
         <v>8</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5323,7 +5323,7 @@
         <v>6</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="C115" s="6">
         <v>40952</v>
@@ -5332,13 +5332,13 @@
         <v>8</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5346,7 +5346,7 @@
         <v>6</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="C116" s="6">
         <v>40958</v>
@@ -5355,13 +5355,13 @@
         <v>8</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5369,7 +5369,7 @@
         <v>6</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="C117" s="6">
         <v>40968</v>
@@ -5378,13 +5378,13 @@
         <v>8</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5392,7 +5392,7 @@
         <v>6</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="C118" s="6">
         <v>40975</v>
@@ -5401,13 +5401,13 @@
         <v>8</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="217.5" x14ac:dyDescent="0.25">
@@ -5415,7 +5415,7 @@
         <v>6</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="C119" s="6">
         <v>40976</v>
@@ -5424,13 +5424,13 @@
         <v>8</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5438,7 +5438,7 @@
         <v>6</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="C120" s="6">
         <v>40990</v>
@@ -5447,13 +5447,13 @@
         <v>8</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5461,7 +5461,7 @@
         <v>6</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="C121" s="6">
         <v>40993</v>
@@ -5470,13 +5470,13 @@
         <v>8</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5484,7 +5484,7 @@
         <v>6</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="C122" s="6">
         <v>40998</v>
@@ -5493,13 +5493,13 @@
         <v>8</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5507,7 +5507,7 @@
         <v>6</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="C123" s="6">
         <v>41010</v>
@@ -5516,13 +5516,13 @@
         <v>8</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -5530,7 +5530,7 @@
         <v>6</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="C124" s="6">
         <v>41017</v>
@@ -5539,13 +5539,13 @@
         <v>8</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5553,7 +5553,7 @@
         <v>6</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="C125" s="6">
         <v>41021</v>
@@ -5562,13 +5562,13 @@
         <v>8</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5576,7 +5576,7 @@
         <v>6</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="C126" s="6">
         <v>41022</v>
@@ -5585,13 +5585,13 @@
         <v>8</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5599,7 +5599,7 @@
         <v>6</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="C127" s="6">
         <v>41027</v>
@@ -5608,13 +5608,13 @@
         <v>8</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5622,7 +5622,7 @@
         <v>6</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="C128" s="6">
         <v>41034</v>
@@ -5631,13 +5631,13 @@
         <v>8</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5645,7 +5645,7 @@
         <v>6</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="C129" s="6">
         <v>41035</v>
@@ -5654,13 +5654,13 @@
         <v>8</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5668,7 +5668,7 @@
         <v>6</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="C130" s="6">
         <v>41056</v>
@@ -5677,13 +5677,13 @@
         <v>8</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
@@ -5691,7 +5691,7 @@
         <v>6</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="C131" s="6">
         <v>41063</v>
@@ -5700,13 +5700,13 @@
         <v>8</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="219.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5714,7 +5714,7 @@
         <v>6</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="C132" s="6">
         <v>41067</v>
@@ -5723,13 +5723,13 @@
         <v>8</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5737,7 +5737,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="C133" s="6">
         <v>41075</v>
@@ -5746,13 +5746,13 @@
         <v>8</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -5760,7 +5760,7 @@
         <v>6</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="C134" s="6">
         <v>41076</v>
@@ -5769,13 +5769,13 @@
         <v>8</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
@@ -5783,7 +5783,7 @@
         <v>6</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="C135" s="6">
         <v>41077</v>
@@ -5792,13 +5792,13 @@
         <v>8</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -5806,7 +5806,7 @@
         <v>6</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="C136" s="6">
         <v>41080</v>
@@ -5815,13 +5815,13 @@
         <v>8</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="141" x14ac:dyDescent="0.25">
@@ -5829,7 +5829,7 @@
         <v>6</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="C137" s="6">
         <v>41081</v>
@@ -5838,13 +5838,13 @@
         <v>8</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>545</v>
+        <v>517</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5852,7 +5852,7 @@
         <v>6</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
       <c r="C138" s="6">
         <v>41082</v>
@@ -5861,13 +5861,13 @@
         <v>8</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5875,7 +5875,7 @@
         <v>6</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="C139" s="6">
         <v>41083</v>
@@ -5884,13 +5884,13 @@
         <v>8</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -6201,7 +6201,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6226,1028 +6226,1028 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>554</v>
+        <v>731</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>625</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>557</v>
+        <v>732</v>
       </c>
       <c r="C2" s="6">
         <v>40990</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>559</v>
+        <v>528</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>560</v>
+        <v>733</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>561</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="C3" s="6">
         <v>40991</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>563</v>
+        <v>531</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>564</v>
+        <v>532</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>734</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>566</v>
+        <v>534</v>
       </c>
       <c r="C4" s="6">
         <v>40992</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>565</v>
+        <v>533</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>568</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>569</v>
+        <v>536</v>
       </c>
       <c r="C5" s="6">
         <v>40993</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>570</v>
+        <v>537</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>571</v>
+        <v>538</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>572</v>
+        <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>573</v>
+        <v>539</v>
       </c>
       <c r="C6" s="6">
         <v>40996</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>574</v>
+        <v>540</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>575</v>
+        <v>708</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>576</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="C7" s="6">
         <v>40998</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>579</v>
+        <v>544</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>580</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="C8" s="6">
         <v>41000</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>582</v>
+        <v>547</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>583</v>
+        <v>709</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>584</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>585</v>
+        <v>548</v>
       </c>
       <c r="C9" s="6">
         <v>41001</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>586</v>
+        <v>549</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>587</v>
+        <v>550</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>588</v>
+        <v>711</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>590</v>
+        <v>552</v>
       </c>
       <c r="C10" s="6">
         <v>41002</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>589</v>
+        <v>551</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>591</v>
+        <v>553</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>592</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>593</v>
+        <v>555</v>
       </c>
       <c r="C11" s="6">
         <v>41004</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>594</v>
+        <v>556</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>595</v>
+        <v>557</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>597</v>
+        <v>558</v>
       </c>
       <c r="C12" s="6">
         <v>41007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>598</v>
+        <v>559</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>599</v>
+        <v>560</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>600</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>601</v>
+        <v>561</v>
       </c>
       <c r="C13" s="6">
         <v>41009</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>603</v>
+        <v>563</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>602</v>
+        <v>562</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>604</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="C14" s="6">
         <v>41011</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>606</v>
+        <v>565</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>607</v>
+        <v>566</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>608</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>609</v>
+        <v>568</v>
       </c>
       <c r="C15" s="6">
         <v>41012</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>610</v>
+        <v>569</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>611</v>
+        <v>570</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>612</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
       <c r="C16" s="6">
         <v>41013</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>614</v>
+        <v>573</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>615</v>
+        <v>574</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>616</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>618</v>
+        <v>576</v>
       </c>
       <c r="C17" s="6">
         <v>41014</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>617</v>
+        <v>575</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>619</v>
+        <v>577</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>622</v>
+        <v>580</v>
       </c>
       <c r="C18" s="6">
         <v>41018</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>623</v>
+        <v>715</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>624</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>626</v>
+        <v>583</v>
       </c>
       <c r="C19" s="6">
         <v>41020</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>627</v>
+        <v>584</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>628</v>
+        <v>585</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>629</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="C20" s="6">
         <v>41028</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>631</v>
+        <v>588</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>632</v>
+        <v>589</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>633</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>634</v>
+        <v>591</v>
       </c>
       <c r="C21" s="6">
         <v>41032</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>635</v>
+        <v>592</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>636</v>
+        <v>593</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>637</v>
+        <v>716</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>638</v>
+        <v>594</v>
       </c>
       <c r="C22" s="6">
         <v>41038</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>639</v>
+        <v>595</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>640</v>
+        <v>596</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>641</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>642</v>
+        <v>598</v>
       </c>
       <c r="C23" s="6">
         <v>41040</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>643</v>
+        <v>599</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>645</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>646</v>
+        <v>602</v>
       </c>
       <c r="C24" s="6">
         <v>41042</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>647</v>
+        <v>603</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>648</v>
+        <v>604</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>649</v>
+        <v>717</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C25" s="6">
         <v>41046</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>652</v>
+        <v>607</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>653</v>
+        <v>718</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>654</v>
+        <v>608</v>
       </c>
       <c r="C26" s="6">
         <v>41048</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>655</v>
+        <v>609</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>656</v>
+        <v>719</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>657</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>658</v>
+        <v>611</v>
       </c>
       <c r="C27" s="6">
         <v>41049</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>659</v>
+        <v>612</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>660</v>
+        <v>613</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>661</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>662</v>
+        <v>615</v>
       </c>
       <c r="C28" s="6">
         <v>41054</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>663</v>
+        <v>616</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>664</v>
+        <v>617</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>667</v>
+        <v>620</v>
       </c>
       <c r="C29" s="6">
         <v>41056</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>668</v>
+        <v>621</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>669</v>
+        <v>622</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="C30" s="6">
         <v>41060</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>670</v>
+        <v>623</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="C31" s="6">
         <v>41061</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>675</v>
+        <v>628</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>677</v>
+        <v>630</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>678</v>
+        <v>631</v>
       </c>
       <c r="C32" s="6">
         <v>41063</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>679</v>
+        <v>632</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>680</v>
+        <v>633</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>681</v>
+        <v>720</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>682</v>
+        <v>634</v>
       </c>
       <c r="C33" s="6">
         <v>41066</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>683</v>
+        <v>635</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>684</v>
+        <v>636</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>685</v>
+        <v>637</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>686</v>
+        <v>638</v>
       </c>
       <c r="C34" s="6">
         <v>41068</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>687</v>
+        <v>639</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>688</v>
+        <v>721</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>689</v>
+        <v>722</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>691</v>
+        <v>641</v>
       </c>
       <c r="C35" s="6">
         <v>41069</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>690</v>
+        <v>640</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>692</v>
+        <v>723</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>693</v>
+        <v>642</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>694</v>
+        <v>643</v>
       </c>
       <c r="C36" s="6">
         <v>41070</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>695</v>
+        <v>644</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>697</v>
+        <v>645</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>696</v>
+        <v>724</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>699</v>
+        <v>647</v>
       </c>
       <c r="C37" s="6">
         <v>41073</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>698</v>
+        <v>646</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>700</v>
+        <v>725</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>701</v>
+        <v>726</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>702</v>
+        <v>648</v>
       </c>
       <c r="C38" s="6">
         <v>41075</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>703</v>
+        <v>649</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>704</v>
+        <v>650</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>705</v>
+        <v>651</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>706</v>
+        <v>652</v>
       </c>
       <c r="C39" s="6">
         <v>41076</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>707</v>
+        <v>653</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>708</v>
+        <v>654</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>709</v>
+        <v>655</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>710</v>
+        <v>656</v>
       </c>
       <c r="C40" s="6">
         <v>41077</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>711</v>
+        <v>657</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>712</v>
+        <v>658</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>713</v>
+        <v>727</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>715</v>
+        <v>660</v>
       </c>
       <c r="C41" s="6">
         <v>41079</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>714</v>
+        <v>659</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>716</v>
+        <v>661</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>717</v>
+        <v>662</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>718</v>
+        <v>663</v>
       </c>
       <c r="C42" s="6">
         <v>41080</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>719</v>
+        <v>664</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>723</v>
+        <v>666</v>
       </c>
       <c r="C43" s="6">
         <v>41081</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>722</v>
+        <v>665</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>724</v>
+        <v>667</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>725</v>
+        <v>668</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>726</v>
+        <v>669</v>
       </c>
       <c r="C44" s="6">
         <v>41082</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>727</v>
+        <v>670</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>728</v>
+        <v>671</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>729</v>
+        <v>672</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>730</v>
+        <v>673</v>
       </c>
       <c r="C45" s="6">
         <v>41083</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>731</v>
+        <v>674</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>732</v>
+        <v>675</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E022F7-C0F2-47ED-999A-0ECBE99058EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001DB303-9B90-47AA-854A-FFB74D960E0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Ultima Hora" sheetId="1" r:id="rId1"/>
+    <sheet name="ABC Color" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -2707,7 +2707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G172"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
@@ -6200,8 +6200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001DB303-9B90-47AA-854A-FFB74D960E0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5258031F-3900-4EE0-B6CF-FC097627BE82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ultima Hora" sheetId="1" r:id="rId1"/>
@@ -2707,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3248,7 +3248,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -6200,8 +6200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5258031F-3900-4EE0-B6CF-FC097627BE82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F5C7DF-B5BE-4642-A713-CFD023BA040F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,14 +2400,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2707,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F5C7DF-B5BE-4642-A713-CFD023BA040F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F18171F-71FB-4FF1-BE1E-86442098FCCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ultima Hora" sheetId="1" r:id="rId1"/>
@@ -2707,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3961,7 +3961,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>6</v>
       </c>
@@ -6200,8 +6200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\TESIS\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F18171F-71FB-4FF1-BE1E-86442098FCCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Ultima Hora" sheetId="1" r:id="rId1"/>
@@ -2272,7 +2271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2704,11 +2703,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G172"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3432,7 +3431,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>6</v>
       </c>
@@ -3524,7 +3523,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>6</v>
       </c>
@@ -3547,7 +3546,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>6</v>
       </c>
@@ -3616,7 +3615,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>6</v>
       </c>
@@ -3800,7 +3799,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>6</v>
       </c>
@@ -3823,7 +3822,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>6</v>
       </c>
@@ -4030,7 +4029,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>6</v>
       </c>
@@ -6197,11 +6196,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -2706,8 +2706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4052,7 +4052,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>6</v>
       </c>

--- a/Cuadro de noticias.xlsx
+++ b/Cuadro de noticias.xlsx
@@ -1045,21 +1045,6 @@
     <t xml:space="preserve">El cambio de dos ministros por parte de Lugo desató numerosas críticas tanto al interior de su gobierno (principalmente con el PLRA) y hacia afuera, debido a las opiniones que estos ministros salientes tenían en relacion a la busqueda de una reelección presidencial </t>
   </si>
   <si>
-    <r>
-      <t>Nuevamente el tema de la reelección en el tapete. La idea de "afan de poder", y de cerrar el círculo en torno a la alianza con sectores izquierdistas. "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con la destitución de los dos ministros, a los que acusa de hacer proselitismo desde sus cargos y están en contra de su reelección, el presidente Lugo muestra su carta verdadera: todos los que se oponen al continuismo serán radiados como pide la izquierda, mientras él -para no caer en contradicción supuestamente- seguirá haciéndose el inocente. Es lo que se llama una postura ética de fachada". </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">El presidente Lugo tiene que dejar de lado su cinismo y definirse ya </t>
   </si>
   <si>
@@ -2267,12 +2252,15 @@
   <si>
     <t>Es una nota que deja en claro cuál es la posición del diario en relación a la "integración latinoamericana" y la participación de Paraguay en este tipo de "fantasmas burocráticos" como los llama. Además tiene fuertes críticas para con Hugo Chávez y considera al gobierno de Cristina Fernández como un "régimen". Además, plantea que el gobierno de Lugo no sabe exigir que se respeten los derechos de los paraguayos. "no se trata más que de otro armatoste político obeso, oneroso e inútil, que vino a sumarse a los varios ejemplares del mismo tipo que ya tenemos que sostener financieramente los contribuyentes" (en relación a Unasur).</t>
   </si>
+  <si>
+    <t xml:space="preserve">Nuevamente el tema de la reelección en el tapete. La idea de "afan de poder", y de cerrar el círculo en torno a la alianza con sectores izquierdistas. "Con la destitución de los dos ministros, a los que acusa de hacer proselitismo desde sus cargos y están en contra de su reelección, el presidente Lugo muestra su carta verdadera: todos los que se oponen al continuismo serán radiados como pide la izquierda, mientras él -para no caer en contradicción supuestamente- seguirá haciéndose el inocente. Es lo que se llama una postura ética de fachada". </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2303,13 +2291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2333,7 +2314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2517,26 +2498,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2546,6 +2512,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed" wrapText="1"/>
     </xf>
@@ -2558,16 +2541,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2854,8 +2835,8 @@
   </sheetPr>
   <dimension ref="A1:H3257"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2870,39 +2851,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>582</v>
+      <c r="G2" s="28" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2920,10 +2901,10 @@
       <c r="F3" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2941,12 +2922,12 @@
       <c r="F4" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2964,12 +2945,12 @@
       <c r="F5" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2987,12 +2968,12 @@
       <c r="F6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="11" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -3010,12 +2991,12 @@
       <c r="F7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -3033,12 +3014,12 @@
       <c r="F8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -3056,12 +3037,12 @@
       <c r="F9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3079,12 +3060,12 @@
       <c r="F10" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -3102,12 +3083,12 @@
       <c r="F11" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="11" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -3125,12 +3106,12 @@
       <c r="F12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="11" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -3148,12 +3129,12 @@
       <c r="F13" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3171,12 +3152,12 @@
       <c r="F14" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="11" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -3194,12 +3175,12 @@
       <c r="F15" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="11" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -3217,12 +3198,12 @@
       <c r="F16" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="11" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -3240,12 +3221,12 @@
       <c r="F17" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="11" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -3263,12 +3244,12 @@
       <c r="F18" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3286,12 +3267,12 @@
       <c r="F19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="11" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -3309,12 +3290,12 @@
       <c r="F20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -3332,12 +3313,12 @@
       <c r="F21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -3355,12 +3336,12 @@
       <c r="F22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="11" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -3378,12 +3359,12 @@
       <c r="F23" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -3401,12 +3382,12 @@
       <c r="F24" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="11" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -3424,12 +3405,12 @@
       <c r="F25" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -3447,12 +3428,12 @@
       <c r="F26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="24" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -3470,12 +3451,12 @@
       <c r="F27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="11" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -3493,12 +3474,12 @@
       <c r="F28" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3516,12 +3497,12 @@
       <c r="F29" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -3539,12 +3520,12 @@
       <c r="F30" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -3562,12 +3543,12 @@
       <c r="F31" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -3585,12 +3566,12 @@
       <c r="F32" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="11" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3608,12 +3589,12 @@
       <c r="F33" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -3631,12 +3612,12 @@
       <c r="F34" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -3654,12 +3635,12 @@
       <c r="F35" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -3677,12 +3658,12 @@
       <c r="F36" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -3700,12 +3681,12 @@
       <c r="F37" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="11" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -3723,12 +3704,12 @@
       <c r="F38" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -3746,12 +3727,12 @@
       <c r="F39" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="11" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -3769,12 +3750,12 @@
       <c r="F40" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="11" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -3792,12 +3773,12 @@
       <c r="F41" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -3815,12 +3796,12 @@
       <c r="F42" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -3838,12 +3819,12 @@
       <c r="F43" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="11" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -3861,12 +3842,12 @@
       <c r="F44" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -3884,12 +3865,12 @@
       <c r="F45" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="11" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3907,12 +3888,12 @@
       <c r="F46" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="11" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -3930,12 +3911,12 @@
       <c r="F47" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="11" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -3953,12 +3934,12 @@
       <c r="F48" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -3976,12 +3957,12 @@
       <c r="F49" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -3999,12 +3980,12 @@
       <c r="F50" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -4022,12 +4003,12 @@
       <c r="F51" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="11" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+    <row r="52" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -4045,12 +4026,12 @@
       <c r="F52" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -4068,12 +4049,12 @@
       <c r="F53" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="11" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -4091,12 +4072,12 @@
       <c r="F54" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="11" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -4114,12 +4095,12 @@
       <c r="F55" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="11" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -4137,12 +4118,12 @@
       <c r="F56" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="11" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -4160,12 +4141,12 @@
       <c r="F57" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -4183,12 +4164,12 @@
       <c r="F58" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="11" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -4206,12 +4187,12 @@
       <c r="F59" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -4229,12 +4210,12 @@
       <c r="F60" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="G60" s="14" t="s">
+      <c r="G60" s="11" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -4252,12 +4233,12 @@
       <c r="F61" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="G61" s="14" t="s">
-        <v>678</v>
+      <c r="G61" s="11" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -4270,17 +4251,17 @@
         <v>8</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="G62" s="14" t="s">
-        <v>680</v>
+      <c r="G62" s="11" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -4296,14 +4277,14 @@
         <v>245</v>
       </c>
       <c r="F63" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="G63" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="G63" s="14" t="s">
-        <v>682</v>
-      </c>
     </row>
     <row r="64" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -4319,14 +4300,14 @@
         <v>247</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="G64" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="G64" s="11" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -4344,12 +4325,12 @@
       <c r="F65" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="G65" s="11" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -4365,14 +4346,14 @@
         <v>254</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="G66" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="G66" s="11" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -4390,12 +4371,12 @@
       <c r="F67" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="11" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -4413,12 +4394,12 @@
       <c r="F68" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="11" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -4434,14 +4415,14 @@
         <v>265</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="G69" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="G69" s="11" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -4459,12 +4440,12 @@
       <c r="F70" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="G70" s="14" t="s">
-        <v>686</v>
+      <c r="G70" s="11" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -4482,12 +4463,12 @@
       <c r="F71" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="G71" s="30" t="s">
-        <v>687</v>
+      <c r="G71" s="20" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -4505,12 +4486,12 @@
       <c r="F72" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="G72" s="14" t="s">
-        <v>688</v>
+      <c r="G72" s="11" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -4526,14 +4507,14 @@
         <v>277</v>
       </c>
       <c r="F73" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="G73" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="G73" s="14" t="s">
-        <v>690</v>
-      </c>
     </row>
     <row r="74" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -4551,12 +4532,12 @@
       <c r="F74" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="G74" s="14" t="s">
+      <c r="G74" s="11" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -4574,12 +4555,12 @@
       <c r="F75" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="G75" s="14" t="s">
-        <v>691</v>
+      <c r="G75" s="11" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B76" s="6" t="s">
@@ -4597,12 +4578,12 @@
       <c r="F76" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="G76" s="14" t="s">
-        <v>692</v>
+      <c r="G76" s="11" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -4618,14 +4599,14 @@
         <v>289</v>
       </c>
       <c r="F77" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="G77" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="G77" s="14" t="s">
-        <v>694</v>
-      </c>
     </row>
     <row r="78" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -4643,12 +4624,12 @@
       <c r="F78" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="G78" s="31" t="s">
+      <c r="G78" s="21" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B79" s="6" t="s">
@@ -4664,14 +4645,14 @@
         <v>295</v>
       </c>
       <c r="F79" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="G79" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="G79" s="14" t="s">
-        <v>696</v>
-      </c>
     </row>
     <row r="80" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -4689,12 +4670,12 @@
       <c r="F80" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="G80" s="14" t="s">
-        <v>697</v>
+      <c r="G80" s="11" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -4710,14 +4691,14 @@
         <v>299</v>
       </c>
       <c r="F81" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="G81" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="G81" s="14" t="s">
-        <v>699</v>
-      </c>
     </row>
     <row r="82" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -4730,17 +4711,17 @@
         <v>8</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="G82" s="14" t="s">
+      <c r="G82" s="11" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B83" s="6" t="s">
@@ -4758,12 +4739,12 @@
       <c r="F83" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="G83" s="14" t="s">
-        <v>701</v>
+      <c r="G83" s="11" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -4781,12 +4762,12 @@
       <c r="F84" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G84" s="14" t="s">
+      <c r="G84" s="11" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B85" s="6" t="s">
@@ -4802,14 +4783,14 @@
         <v>312</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="G85" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="G85" s="11" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -4825,14 +4806,14 @@
         <v>315</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="G86" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="G86" s="11" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -4848,14 +4829,14 @@
         <v>318</v>
       </c>
       <c r="F87" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="G87" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="G87" s="14" t="s">
-        <v>705</v>
-      </c>
     </row>
     <row r="88" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -4873,12 +4854,12 @@
       <c r="F88" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="G88" s="31" t="s">
+      <c r="G88" s="21" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -4896,12 +4877,12 @@
       <c r="F89" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="G89" s="14" t="s">
+      <c r="G89" s="11" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -4919,12 +4900,12 @@
       <c r="F90" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G90" s="14" t="s">
+      <c r="G90" s="11" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -4942,12 +4923,12 @@
       <c r="F91" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="G91" s="14" t="s">
+      <c r="G91" s="11" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
+    <row r="92" spans="1:7" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -4965,16 +4946,16 @@
       <c r="F92" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="G92" s="14" t="s">
+      <c r="G92" s="11" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>338</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="C93" s="4">
         <v>40713</v>
@@ -4983,21 +4964,21 @@
         <v>8</v>
       </c>
       <c r="E93" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F93" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="G93" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="G93" s="14" t="s">
+    </row>
+    <row r="94" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="C94" s="4">
         <v>40725</v>
@@ -5006,21 +4987,21 @@
         <v>8</v>
       </c>
       <c r="E94" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F94" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="G94" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="G94" s="14" t="s">
+    </row>
+    <row r="95" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>347</v>
       </c>
       <c r="C95" s="4">
         <v>40727</v>
@@ -5032,18 +5013,18 @@
         <v>268</v>
       </c>
       <c r="F95" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G95" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="G95" s="14" t="s">
+    </row>
+    <row r="96" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>350</v>
       </c>
       <c r="C96" s="4">
         <v>40731</v>
@@ -5052,21 +5033,21 @@
         <v>8</v>
       </c>
       <c r="E96" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F96" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="G96" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="G96" s="14" t="s">
+    </row>
+    <row r="97" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>354</v>
       </c>
       <c r="C97" s="4">
         <v>40769</v>
@@ -5075,21 +5056,21 @@
         <v>8</v>
       </c>
       <c r="E97" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F97" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="G97" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="G97" s="14" t="s">
+    </row>
+    <row r="98" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>358</v>
       </c>
       <c r="C98" s="4">
         <v>40781</v>
@@ -5098,21 +5079,21 @@
         <v>8</v>
       </c>
       <c r="E98" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F98" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="G98" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="G98" s="14" t="s">
+    </row>
+    <row r="99" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="C99" s="4">
         <v>40783</v>
@@ -5121,21 +5102,21 @@
         <v>8</v>
       </c>
       <c r="E99" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F99" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="G99" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="G99" s="14" t="s">
+    </row>
+    <row r="100" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="C100" s="4">
         <v>40812</v>
@@ -5144,21 +5125,21 @@
         <v>8</v>
       </c>
       <c r="E100" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F100" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="G100" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="G100" s="14" t="s">
+    </row>
+    <row r="101" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>370</v>
       </c>
       <c r="C101" s="4">
         <v>40826</v>
@@ -5167,21 +5148,21 @@
         <v>8</v>
       </c>
       <c r="E101" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F101" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="G101" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="G101" s="14" t="s">
+    </row>
+    <row r="102" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="C102" s="4">
         <v>40835</v>
@@ -5190,21 +5171,21 @@
         <v>8</v>
       </c>
       <c r="E102" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F102" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="G102" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="G102" s="14" t="s">
+    </row>
+    <row r="103" spans="1:7" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>378</v>
       </c>
       <c r="C103" s="4">
         <v>40843</v>
@@ -5213,21 +5194,21 @@
         <v>8</v>
       </c>
       <c r="E103" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="F103" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="G103" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="G103" s="31" t="s">
+    </row>
+    <row r="104" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="C104" s="4">
         <v>40845</v>
@@ -5236,21 +5217,21 @@
         <v>8</v>
       </c>
       <c r="E104" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F104" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="G104" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="G104" s="14" t="s">
+    </row>
+    <row r="105" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="C105" s="4">
         <v>40858</v>
@@ -5259,21 +5240,21 @@
         <v>8</v>
       </c>
       <c r="E105" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F105" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="G105" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="G105" s="14" t="s">
+    </row>
+    <row r="106" spans="1:7" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>389</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>390</v>
       </c>
       <c r="C106" s="4">
         <v>40861</v>
@@ -5282,21 +5263,21 @@
         <v>8</v>
       </c>
       <c r="E106" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F106" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="G106" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="G106" s="14" t="s">
+    </row>
+    <row r="107" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="C107" s="4">
         <v>40883</v>
@@ -5305,21 +5286,21 @@
         <v>8</v>
       </c>
       <c r="E107" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F107" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="G107" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="G107" s="14" t="s">
+    </row>
+    <row r="108" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>398</v>
       </c>
       <c r="C108" s="4">
         <v>40905</v>
@@ -5328,21 +5309,21 @@
         <v>8</v>
       </c>
       <c r="E108" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F108" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="G108" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="G108" s="14" t="s">
+    </row>
+    <row r="109" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="C109" s="4">
         <v>40910</v>
@@ -5351,21 +5332,21 @@
         <v>8</v>
       </c>
       <c r="E109" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F109" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="G109" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="G109" s="14" t="s">
+    </row>
+    <row r="110" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="C110" s="4">
         <v>40917</v>
@@ -5374,21 +5355,21 @@
         <v>8</v>
       </c>
       <c r="E110" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F110" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="G110" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="G110" s="14" t="s">
+    </row>
+    <row r="111" spans="1:7" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>409</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>410</v>
       </c>
       <c r="C111" s="4">
         <v>40939</v>
@@ -5397,21 +5378,21 @@
         <v>8</v>
       </c>
       <c r="E111" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="F111" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="G111" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="G111" s="14" t="s">
+    </row>
+    <row r="112" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>413</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>414</v>
       </c>
       <c r="C112" s="4">
         <v>40941</v>
@@ -5420,21 +5401,21 @@
         <v>8</v>
       </c>
       <c r="E112" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="F112" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="F112" s="6" t="s">
+      <c r="G112" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="G112" s="14" t="s">
+    </row>
+    <row r="113" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>417</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>418</v>
       </c>
       <c r="C113" s="4">
         <v>40943</v>
@@ -5443,21 +5424,21 @@
         <v>8</v>
       </c>
       <c r="E113" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F113" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="F113" s="6" t="s">
+      <c r="G113" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="G113" s="14" t="s">
+    </row>
+    <row r="114" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>422</v>
       </c>
       <c r="C114" s="4">
         <v>40950</v>
@@ -5466,21 +5447,21 @@
         <v>8</v>
       </c>
       <c r="E114" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F114" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="G114" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="G114" s="14" t="s">
+    </row>
+    <row r="115" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>425</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>426</v>
       </c>
       <c r="C115" s="4">
         <v>40952</v>
@@ -5489,21 +5470,21 @@
         <v>8</v>
       </c>
       <c r="E115" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F115" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="F115" s="6" t="s">
+      <c r="G115" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="G115" s="14" t="s">
+    </row>
+    <row r="116" spans="1:7" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="C116" s="4">
         <v>40958</v>
@@ -5512,21 +5493,21 @@
         <v>8</v>
       </c>
       <c r="E116" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F116" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="F116" s="6" t="s">
+      <c r="G116" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="G116" s="14" t="s">
+    </row>
+    <row r="117" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>433</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="C117" s="4">
         <v>40968</v>
@@ -5535,21 +5516,21 @@
         <v>8</v>
       </c>
       <c r="E117" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F117" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="F117" s="6" t="s">
+      <c r="G117" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="G117" s="14" t="s">
+    </row>
+    <row r="118" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>438</v>
       </c>
       <c r="C118" s="4">
         <v>40975</v>
@@ -5558,21 +5539,21 @@
         <v>8</v>
       </c>
       <c r="E118" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="F118" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="G118" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="G118" s="14" t="s">
+    </row>
+    <row r="119" spans="1:7" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>442</v>
       </c>
       <c r="C119" s="4">
         <v>40976</v>
@@ -5581,21 +5562,21 @@
         <v>8</v>
       </c>
       <c r="E119" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="F119" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="F119" s="6" t="s">
+      <c r="G119" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="G119" s="14" t="s">
+    </row>
+    <row r="120" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>445</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>446</v>
       </c>
       <c r="C120" s="4">
         <v>40990</v>
@@ -5604,21 +5585,21 @@
         <v>8</v>
       </c>
       <c r="E120" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F120" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="G120" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G120" s="14" t="s">
+    </row>
+    <row r="121" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>449</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="C121" s="4">
         <v>40993</v>
@@ -5627,21 +5608,21 @@
         <v>8</v>
       </c>
       <c r="E121" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="F121" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="F121" s="6" t="s">
+      <c r="G121" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="G121" s="14" t="s">
+    </row>
+    <row r="122" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="C122" s="4">
         <v>40998</v>
@@ -5650,21 +5631,21 @@
         <v>8</v>
       </c>
       <c r="E122" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="F122" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="F122" s="6" t="s">
+      <c r="G122" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="G122" s="14" t="s">
+    </row>
+    <row r="123" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="C123" s="4">
         <v>41010</v>
@@ -5673,21 +5654,21 @@
         <v>8</v>
       </c>
       <c r="E123" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="F123" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="F123" s="6" t="s">
+      <c r="G123" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="G123" s="14" t="s">
+    </row>
+    <row r="124" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>462</v>
       </c>
       <c r="C124" s="4">
         <v>41017</v>
@@ -5696,21 +5677,21 @@
         <v>8</v>
       </c>
       <c r="E124" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="F124" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="F124" s="6" t="s">
+      <c r="G124" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="G124" s="14" t="s">
+    </row>
+    <row r="125" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>465</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>466</v>
       </c>
       <c r="C125" s="4">
         <v>41021</v>
@@ -5719,21 +5700,21 @@
         <v>8</v>
       </c>
       <c r="E125" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F125" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="F125" s="6" t="s">
+      <c r="G125" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G125" s="14" t="s">
+    </row>
+    <row r="126" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>469</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>470</v>
       </c>
       <c r="C126" s="4">
         <v>41022</v>
@@ -5742,21 +5723,21 @@
         <v>8</v>
       </c>
       <c r="E126" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="F126" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="F126" s="6" t="s">
+      <c r="G126" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="G126" s="14" t="s">
+    </row>
+    <row r="127" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>473</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>474</v>
       </c>
       <c r="C127" s="4">
         <v>41027</v>
@@ -5765,21 +5746,21 @@
         <v>8</v>
       </c>
       <c r="E127" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="F127" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="F127" s="6" t="s">
+      <c r="G127" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="G127" s="14" t="s">
+    </row>
+    <row r="128" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>477</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>478</v>
       </c>
       <c r="C128" s="4">
         <v>41034</v>
@@ -5788,21 +5769,21 @@
         <v>8</v>
       </c>
       <c r="E128" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="F128" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="F128" s="6" t="s">
+      <c r="G128" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="G128" s="14" t="s">
+    </row>
+    <row r="129" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>481</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>482</v>
       </c>
       <c r="C129" s="4">
         <v>41035</v>
@@ -5811,21 +5792,21 @@
         <v>8</v>
       </c>
       <c r="E129" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F129" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="F129" s="6" t="s">
+      <c r="G129" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="G129" s="14" t="s">
+    </row>
+    <row r="130" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>486</v>
       </c>
       <c r="C130" s="4">
         <v>41056</v>
@@ -5834,21 +5815,21 @@
         <v>8</v>
       </c>
       <c r="E130" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="F130" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="F130" s="6" t="s">
+      <c r="G130" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="G130" s="14" t="s">
+    </row>
+    <row r="131" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>489</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>490</v>
       </c>
       <c r="C131" s="4">
         <v>41063</v>
@@ -5857,21 +5838,21 @@
         <v>8</v>
       </c>
       <c r="E131" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F131" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="F131" s="6" t="s">
+      <c r="G131" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="G131" s="14" t="s">
+    </row>
+    <row r="132" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>494</v>
       </c>
       <c r="C132" s="4">
         <v>41067</v>
@@ -5880,21 +5861,21 @@
         <v>8</v>
       </c>
       <c r="E132" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="F132" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="F132" s="6" t="s">
+      <c r="G132" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="G132" s="14" t="s">
+    </row>
+    <row r="133" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>498</v>
       </c>
       <c r="C133" s="4">
         <v>41075</v>
@@ -5903,21 +5884,21 @@
         <v>8</v>
       </c>
       <c r="E133" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="F133" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="F133" s="6" t="s">
+      <c r="G133" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="G133" s="14" t="s">
+    </row>
+    <row r="134" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>502</v>
       </c>
       <c r="C134" s="4">
         <v>41076</v>
@@ -5926,21 +5907,21 @@
         <v>8</v>
       </c>
       <c r="E134" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="F134" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="F134" s="6" t="s">
+      <c r="G134" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="G134" s="14" t="s">
+    </row>
+    <row r="135" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>505</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>506</v>
       </c>
       <c r="C135" s="4">
         <v>41077</v>
@@ -5949,21 +5930,21 @@
         <v>8</v>
       </c>
       <c r="E135" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="F135" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="F135" s="6" t="s">
+      <c r="G135" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="G135" s="14" t="s">
+    </row>
+    <row r="136" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>509</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="C136" s="4">
         <v>41080</v>
@@ -5972,21 +5953,21 @@
         <v>8</v>
       </c>
       <c r="E136" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="F136" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="F136" s="6" t="s">
+      <c r="G136" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="G136" s="14" t="s">
+    </row>
+    <row r="137" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="C137" s="4">
         <v>41081</v>
@@ -5995,21 +5976,21 @@
         <v>8</v>
       </c>
       <c r="E137" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="F137" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="F137" s="6" t="s">
+      <c r="G137" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="G137" s="14" t="s">
+    </row>
+    <row r="138" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>517</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>518</v>
       </c>
       <c r="C138" s="4">
         <v>41082</v>
@@ -6018,36 +5999,36 @@
         <v>8</v>
       </c>
       <c r="E138" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="F138" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="F138" s="6" t="s">
+      <c r="G138" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="G138" s="14" t="s">
+    </row>
+    <row r="139" spans="1:8" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="15" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B139" s="20" t="s">
+      <c r="C139" s="13">
+        <v>41083</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="C139" s="18">
-        <v>41083</v>
-      </c>
-      <c r="D139" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" s="20" t="s">
+      <c r="F139" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="F139" s="20" t="s">
+      <c r="G139" s="16" t="s">
         <v>524</v>
-      </c>
-      <c r="G139" s="21" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -37247,7 +37228,7 @@
   <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37262,1038 +37243,1038 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="30" t="s">
+        <v>730</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>731</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>732</v>
       </c>
       <c r="C2" s="4">
         <v>40990</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="G2" s="14" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>530</v>
       </c>
       <c r="C3" s="4">
         <v>40991</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>676</v>
+      <c r="G3" s="6" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>707</v>
+      <c r="A4" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C4" s="4">
         <v>40992</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>536</v>
       </c>
       <c r="C5" s="4">
         <v>40993</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>538</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>539</v>
       </c>
       <c r="C6" s="4">
         <v>40996</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="G6" s="14" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="C7" s="4">
         <v>40998</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="G7" s="14" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>545</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="C8" s="4">
         <v>41000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>547</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>548</v>
       </c>
       <c r="C9" s="4">
         <v>41001</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>711</v>
+      <c r="G9" s="6" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>707</v>
+      <c r="A10" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C10" s="4">
         <v>41002</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="G10" s="14" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>555</v>
       </c>
       <c r="C11" s="4">
         <v>41004</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>558</v>
       </c>
       <c r="C12" s="4">
         <v>41007</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>560</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>561</v>
       </c>
       <c r="C13" s="4">
         <v>41009</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>563</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>564</v>
       </c>
       <c r="C14" s="4">
         <v>41011</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="G14" s="14" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>568</v>
       </c>
       <c r="C15" s="4">
         <v>41012</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="G15" s="14" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>571</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>572</v>
       </c>
       <c r="C16" s="4">
         <v>41013</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>714</v>
+      <c r="G16" s="6" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>707</v>
+      <c r="A17" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C17" s="4">
         <v>41014</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>578</v>
-      </c>
     </row>
     <row r="18" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>707</v>
+      <c r="A18" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C18" s="4">
         <v>41018</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>581</v>
+        <v>714</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>707</v>
+      <c r="A19" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C19" s="4">
         <v>41020</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="G19" s="14" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>586</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>587</v>
       </c>
       <c r="C20" s="4">
         <v>41028</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="G20" s="14" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>590</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>591</v>
       </c>
       <c r="C21" s="4">
         <v>41032</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>593</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="C22" s="4">
         <v>41038</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E22" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="G22" s="14" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>597</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>598</v>
       </c>
       <c r="C23" s="4">
         <v>41040</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="G23" s="14" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>602</v>
       </c>
       <c r="C24" s="4">
         <v>41042</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>604</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>605</v>
       </c>
       <c r="C25" s="4">
         <v>41046</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>607</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>608</v>
       </c>
       <c r="C26" s="4">
         <v>41048</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="G26" s="14" t="s">
+    </row>
+    <row r="27" spans="1:7" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>610</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="183" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>611</v>
       </c>
       <c r="C27" s="4">
         <v>41049</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="G27" s="14" t="s">
+    </row>
+    <row r="28" spans="1:7" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>614</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>615</v>
       </c>
       <c r="C28" s="4">
         <v>41054</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>618</v>
-      </c>
     </row>
     <row r="29" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>707</v>
+      <c r="A29" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C29" s="4">
         <v>41056</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F29" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="G29" s="14" t="s">
-        <v>622</v>
-      </c>
     </row>
     <row r="30" spans="1:7" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>707</v>
+      <c r="A30" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C30" s="4">
         <v>41060</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F30" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="G30" s="14" t="s">
+    </row>
+    <row r="31" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>626</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="C31" s="4">
         <v>41061</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E31" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="G31" s="14" t="s">
+    </row>
+    <row r="32" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>630</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>631</v>
       </c>
       <c r="C32" s="4">
         <v>41063</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="6" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>633</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>634</v>
       </c>
       <c r="C33" s="4">
         <v>41066</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E33" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="G33" s="14" t="s">
+    </row>
+    <row r="34" spans="1:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>637</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>638</v>
       </c>
       <c r="C34" s="4">
         <v>41068</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="G34" s="14" t="s">
-        <v>722</v>
-      </c>
     </row>
     <row r="35" spans="1:8" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>707</v>
+      <c r="A35" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C35" s="4">
         <v>41069</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="G35" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>642</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>643</v>
       </c>
       <c r="C36" s="4">
         <v>41070</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E36" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>724</v>
+      <c r="G36" s="22" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>707</v>
+      <c r="A37" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C37" s="4">
         <v>41073</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F37" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="G37" s="14" t="s">
-        <v>726</v>
-      </c>
     </row>
     <row r="38" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>707</v>
+      <c r="A38" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C38" s="4">
         <v>41075</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E38" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="G38" s="14" t="s">
+    </row>
+    <row r="39" spans="1:8" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>651</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>652</v>
       </c>
       <c r="C39" s="4">
         <v>41076</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E39" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="G39" s="14" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>655</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>656</v>
       </c>
       <c r="C40" s="4">
         <v>41077</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E40" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>727</v>
+      <c r="G40" s="6" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>707</v>
+      <c r="A41" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C41" s="4">
         <v>41079</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F41" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="G41" s="14" t="s">
+    </row>
+    <row r="42" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>662</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="C42" s="4">
         <v>41080</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F42" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="G42" s="14" t="s">
-        <v>729</v>
-      </c>
     </row>
     <row r="43" spans="1:8" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>707</v>
+      <c r="A43" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C43" s="4">
         <v>41081</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F43" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="G43" s="14" t="s">
+    </row>
+    <row r="44" spans="1:8" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>668</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>669</v>
       </c>
       <c r="C44" s="4">
         <v>41082</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E44" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="G44" s="14" t="s">
+    </row>
+    <row r="45" spans="1:8" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B45" s="23" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="210.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
-        <v>707</v>
-      </c>
-      <c r="B45" s="17" t="s">
+      <c r="C45" s="4">
+        <v>41083</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="C45" s="18">
-        <v>41083</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="E45" s="20" t="s">
+      <c r="F45" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="F45" s="20" t="s">
-        <v>675</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>730</v>
+      <c r="G45" s="6" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
